--- a/outputs_citizens.xlsx
+++ b/outputs_citizens.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesle\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wkz/bclt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123D5B50-BA83-43A6-B3C3-83E016106042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ABED91-1E21-654E-86C7-F8D51858F0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="YEAR" sheetId="1" r:id="rId1"/>
+    <sheet name="2006" sheetId="2" r:id="rId1"/>
+    <sheet name="2020" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="177">
   <si>
     <t>File Name</t>
   </si>
@@ -626,7 +627,53 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -687,7 +734,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H2" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E6EF23E5-8DBA-154B-B9C5-584E5B05D637}" name="Table13" displayName="Table13" ref="A1:H2" insertRow="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C8F9DBE2-87AF-B347-BE2C-79DBE8BEFEFB}" name="File Name"/>
+    <tableColumn id="2" xr3:uid="{AD8995F4-89D6-1B45-80DB-EE1118B6A4CB}" name="Date of Petition"/>
+    <tableColumn id="3" xr3:uid="{B9A4679B-7456-764E-A936-F605A8C1B764}" name="Identity of Submitting Entity"/>
+    <tableColumn id="4" xr3:uid="{71C3A7BF-68AB-0B4C-BFC9-25605CDA235A}" name="Representation Details"/>
+    <tableColumn id="5" xr3:uid="{C3E495DF-7AA0-2346-962B-AE0A06324A53}" name="Cited Statutes or Regulations"/>
+    <tableColumn id="6" xr3:uid="{FA499DC7-5E95-0A47-BDB5-93FD54FAC55A}" name="FDA Action Commented On"/>
+    <tableColumn id="7" xr3:uid="{813ECA79-141B-AC42-A087-48099A0EE7F2}" name="Requested Action"/>
+    <tableColumn id="8" xr3:uid="{F592A77F-C128-B743-9E9F-510487D63E22}" name="Justification for Request"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H2" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="File Name"/>
@@ -1019,26 +1083,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910EE7AA-3F4D-7A4E-A74D-81B2E148413E}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1128,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1114,7 +1232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1143,7 +1261,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1175,7 +1293,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1201,7 +1319,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1227,7 +1345,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1253,7 +1371,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -1279,7 +1397,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -1305,7 +1423,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -1331,7 +1449,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1357,7 +1475,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1383,7 +1501,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -1409,7 +1527,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -1435,7 +1553,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -1461,7 +1579,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -1487,7 +1605,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -1513,7 +1631,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -1539,7 +1657,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -1565,7 +1683,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>154</v>
       </c>
@@ -1591,7 +1709,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -1617,7 +1735,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>170</v>
       </c>

--- a/outputs_citizens.xlsx
+++ b/outputs_citizens.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15280" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="1" state="visible" r:id="rId1"/>
@@ -741,15 +741,15 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col width="14.5" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="19" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="29" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="25.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="25.296875" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="30.5" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="29" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="20.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="20.69921875" bestFit="1" customWidth="1" min="7" max="7"/>
     <col width="26.5" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -1028,22 +1028,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30, 21 U.S.C. § 355</t>
+          <t>21 C.F.R. § 10.30; 21 U.S.C. § 355</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Implementation of Risk Management Programs for transdermal fentanyl products</t>
+          <t>Risk management policies and labeling requirements for transdermal fentanyl products</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Determine the necessity for a Risk Management Program for transdermal fentanyl products and, if necessary, adopt a single, unified program involving all sponsors of approved marketing applications</t>
+          <t>Request the FDA to determine the necessity for a Risk Management Program for transdermal fentanyl products and, if deemed necessary, to develop and adopt a single, unified Risk Management Program involving all product sponsors.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Fentanyl products pose serious health risks including potential for abuse and overdose; current labeling may be insufficient; separate risk programs by different manufacturers may confuse consumers and complicate monitoring; a unified approach would better manage risk, facilitate FDA evaluation, and ensure consistency in safety communication</t>
+          <t>Mylan argues that transdermal fentanyl products present serious safety concerns including risk of misuse and overdose, and that a single, unified risk management program would reduce patient confusion, ensure consistent communication, and facilitate monitoring. It emphasizes the need for FDA coordination to prevent disparate corporate programs and to include all dosage forms for fentanyl.</t>
         </is>
       </c>
     </row>
@@ -1070,22 +1070,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21 C.F.R. 10.30, 21 C.F.R. 25.40</t>
+          <t>21 C.F.R. 10.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Use of potassium bromate in breadmaking; referencing FDA's 1994 letter encouraging the baking industry to stop using potassium bromate</t>
+          <t>Continued allowance and use of potassium bromate in breadmaking, as referenced in FDA's 1994 letter and general industry practice</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ban the use of potassium bromate in breadmaking and support the Slo-C Dough Improver as a safe, natural, and functional replacement</t>
+          <t>Ban the use of potassium bromate in breadmaking and support the use of Slo-C Dough Improver as a safe, natural replacement</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Potassium bromate is carcinogenic and has been banned in other countries; detectable residues in baked goods raise health concerns; the Slo-C Dough Improver (ascorbic acid combined with citric acid) is presented as a safer and effective alternative that also improves bread quality, reduces production costs, and shortens fermentation time</t>
+          <t>Potassium bromate is a known carcinogen that has been banned in the UK, Canada, and Japan; it can leave harmful residues in bread. Kim proposes Slo-C Dough Improver, composed of ascorbic acid and food acids like citric acid, as a safer, functional alternative that improves bread quality, shortens fermentation time, and reduces production costs while eliminating the need for harmful chemical oxidants.</t>
         </is>
       </c>
     </row>
@@ -3623,21 +3623,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128:XFD128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col width="14.5" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="19" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="29" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="25.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="25.296875" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="30.5" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="29" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="20.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="20.69921875" bestFit="1" customWidth="1" min="7" max="7"/>
     <col width="26.5" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -4341,17 +4341,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Draft bioequivalence guidance and approval standards for ANDAs referencing DEXILANT (dexlansoprazole)</t>
+          <t>Approval of abbreviated new drug applications (ANDAs) referencing DEXILANT (dexlansoprazole) delayed-release capsules</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>FDA should refrain from approving any ANDA referencing DEXILANT unless it includes bioequivalence data using additional partial AUC metrics (specifically pAUC0-2h and pAUC2-10h) in addition to conventional metrics</t>
+          <t>Refrain from approving any ANDA referencing DEXILANT unless it includes data showing bioequivalence using partial AUC metrics in addition to conventional metrics (AUC₀₋ₜ, AUC₀₋∞, and Cₘₐₓ).</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>DEXILANT has a dual delayed-release mechanism producing two distinct drug release phases; conventional bioequivalence metrics (Cmax, AUC0-t, AUC0-inf) are inadequate to capture both phases; additional partial AUC metrics are necessary to ensure therapeutic equivalence and replicate the clinical performance of the reference listed drug.</t>
+          <t>The petitioner argues that DEXILANT is a dual delayed-release product with biphasic pharmacokinetics and that the existing FDA draft guidance does not require partial AUC metrics necessary to ensure therapeutic equivalence of generics. Without additional metrics such as pAUC₀₋₂ₕ and pAUC₂₋₁₀ₕ, a generic may not truly replicate the dual-release profile essential for safety and efficacy.</t>
         </is>
       </c>
     </row>
@@ -4862,101 +4862,101 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0298-0001_Acknowledgement_Letter_to_Yale_University.pdf</t>
+          <t>FDA-2013-P-0299-0001_Trigen_Laboratories_BioKey_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>March 12, 2013</t>
+          <t>March 4, 2013</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Kasia J. Lipska, MD MHS, Yale University School of Medicine</t>
+          <t>Trigen Laboratories, Inc.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>No representation of another entity mentioned</t>
+          <t>BioKey, Inc. is representing Trigen Laboratories, Inc. for the petition</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 C.F.R. 10.30; 21 C.F.R. 314.94; 21 C.F.R. 25.31</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Prescribing label requirements for metformin</t>
+          <t>FDA's designation of the Reference Listed Drug (RLD) for Bisoprolol Fumarate Tablets in the Orange Book</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Revise the prescribing label for metformin to remove creatinine-based contraindications and instead use estimated glomerular filtration rate (eGFR) thresholds</t>
+          <t>Amend the Orange Book to designate a second Reference Listed Drug (RLD) for Bisoprolol Fumarate Tablets, specifically products from Sandoz and/or Mylan</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Not explicitly provided in the letter; the petition aims to modernize labeling to reflect updated clinical practice using eGFR rather than serum creatinine alone to assess renal function.</t>
+          <t>TEVA Women's Zebeta® Tablets, the current RLD, are not commercially available, causing delays in the ANDA submission process; Sandoz and Mylan's products are available and meet bioequivalence standards.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0299-0001_Trigen_Laboratories_BioKey_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0303-0001_Tedor_Pharma_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>March 4, 2013</t>
+          <t>March 6, 2013</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Trigen Laboratories, Inc.</t>
+          <t>Tedor Pharma Inc.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>BioKey, Inc. is representing Trigen Laboratories, Inc. for the petition</t>
+          <t>No representation of another entity mentioned</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21 C.F.R. 10.30; 21 C.F.R. 314.94; 21 C.F.R. 25.31</t>
+          <t>21 CFR §10.20, 21 CFR §10.30, 21 CFR §314.161, 21 CFR §25.31(a)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FDA's designation of the Reference Listed Drug (RLD) for Bisoprolol Fumarate Tablets in the Orange Book</t>
+          <t>Whether Metadate® ER 10 mg (Methylphenidate Hydrochloride) Tablets (ANDA 040-306) was voluntarily withdrawn for safety or effectiveness reasons</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Amend the Orange Book to designate a second Reference Listed Drug (RLD) for Bisoprolol Fumarate Tablets, specifically products from Sandoz and/or Mylan</t>
+          <t>FDA to determine that Metadate® ER 10 mg Tablets were withdrawn for reasons unrelated to safety or effectiveness, thus allowing the filing of an ANDA for a generic version</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TEVA Women's Zebeta® Tablets, the current RLD, are not commercially available, causing delays in the ANDA submission process; Sandoz and Mylan's products are available and meet bioequivalence standards.</t>
+          <t>The drug was moved to the 'Discontinued' section of the Orange Book and is unavailable in the market; the petitioner believes it was discontinued for commercial reasons rather than safety or efficacy concerns and seeks a formal determination to proceed with a generic ANDA.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0303-0001_Tedor_Pharma_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0323-0001_Cititzen_Petition_from_Rapid_Precision_Testing_Lab.pdf</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>March 6, 2013</t>
+          <t>March 15, 2013</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tedor Pharma Inc.</t>
+          <t>Rapid Precision Testing Laboratories</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4966,291 +4966,291 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>21 CFR §10.20, 21 CFR §10.30, 21 CFR §314.161, 21 CFR §25.31(a)</t>
+          <t>21 CFR Parts 201, 310, and 352; 58 FR 28195</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Whether Metadate® ER 10 mg (Methylphenidate Hydrochloride) Tablets (ANDA 040-306) was voluntarily withdrawn for safety or effectiveness reasons</t>
+          <t>FDA's ongoing review of GRASE sunscreen active ingredients and sunscreen labeling and effectiveness testing regulations</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>FDA to determine that Metadate® ER 10 mg Tablets were withdrawn for reasons unrelated to safety or effectiveness, thus allowing the filing of an ANDA for a generic version</t>
+          <t>Amend approval and formally withdraw approval of Dioxybenzone, Oxybenzone, Trolamine salicylate, Homosalate, and Octisalate as sunscreen active ingredients; reassess and amend SPF test methodology to prescreen for anti-inflammatory effects that falsely inflate SPF values</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>The drug was moved to the 'Discontinued' section of the Orange Book and is unavailable in the market; the petitioner believes it was discontinued for commercial reasons rather than safety or efficacy concerns and seeks a formal determination to proceed with a generic ANDA.</t>
+          <t>Scientific evidence showing that listed sunscreen agents act as anti-inflammatories masking erythema without preventing UV damage, concerns about misleading SPF values, potential systemic absorption risks, and possible contribution to rising skin cancer rates despite sunscreen use.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0323-0001_Cititzen_Petition_from_Rapid_Precision_Testing_Lab.pdf</t>
+          <t>FDA-2013-P-0335-0001_Foley_Lardner_LLP_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>March 15, 2013</t>
+          <t>March 14, 2013</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Rapid Precision Testing Laboratories</t>
+          <t>Foley &amp; Lardner LLP</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>No representation of another entity mentioned</t>
+          <t>Foley &amp; Lardner LLP is submitting on behalf of a client, though the client's specific name is not mentioned in the text provided</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>21 CFR Parts 201, 310, and 352; 58 FR 28195</t>
+          <t>Section 505 of the Federal Food, Drug, and Cosmetic Act (21 U.S.C. 355); 21 CFR 10.20; 21 CFR 10.30; 21 CFR 314.94; 21 CFR 320.1; 21 CFR 320.23-24; 21 CFR 25.31</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FDA's ongoing review of GRASE sunscreen active ingredients and sunscreen labeling and effectiveness testing regulations</t>
+          <t>FDA’s bioequivalence requirements outlined in the October 2011 Guidance for Nilutamide</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Amend approval and formally withdraw approval of Dioxybenzone, Oxybenzone, Trolamine salicylate, Homosalate, and Octisalate as sunscreen active ingredients; reassess and amend SPF test methodology to prescreen for anti-inflammatory effects that falsely inflate SPF values</t>
+          <t>Amend the FDA's Guidance for Nilutamide to allow a single-dose, two-way crossover study in normal healthy male volunteers under specific safeguards, rather than requiring steady-state studies in patients</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Scientific evidence showing that listed sunscreen agents act as anti-inflammatories masking erythema without preventing UV damage, concerns about misleading SPF values, potential systemic absorption risks, and possible contribution to rising skin cancer rates despite sunscreen use.</t>
+          <t>The proposed alternative study design minimizes risk because adverse events like hepatic injury and pneumonitis are rare and associated with chronic rather than acute exposure; similar safeguards are accepted for comparable drugs like flutamide and bicalutamide.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0335-0001_Foley_Lardner_LLP_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0336-0001_Emcure_Pharmaceuticals_USA_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>March 14, 2013</t>
+          <t>March 2013 (exact day not explicitly stated, but inferred from context and typical submission timing)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Foley &amp; Lardner LLP</t>
+          <t>Emcure Pharmaceuticals USA Inc.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Foley &amp; Lardner LLP is submitting on behalf of a client, though the client's specific name is not mentioned in the text provided</t>
+          <t>No representation of another entity mentioned</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Section 505 of the Federal Food, Drug, and Cosmetic Act (21 U.S.C. 355); 21 CFR 10.20; 21 CFR 10.30; 21 CFR 314.94; 21 CFR 320.1; 21 CFR 320.23-24; 21 CFR 25.31</t>
+          <t>21 U.S.C. § 355(j)(2)(c); 21 CFR § 10.20; 21 CFR § 10.30; 21 CFR § 314.93; 21 CFR § 314.122; 21 CFR § 314.161; 21 CFR § 25.31(a)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FDA’s bioequivalence requirements outlined in the October 2011 Guidance for Nilutamide</t>
+          <t>Acceptance of ANDAs for Diphenhydramine Hydrochloride Injection USP, 50 mg/mL, referencing a discontinued Benadryl product</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Amend the FDA's Guidance for Nilutamide to allow a single-dose, two-way crossover study in normal healthy male volunteers under specific safeguards, rather than requiring steady-state studies in patients</t>
+          <t>Request FDA to accept ANDAs for Diphenhydramine Hydrochloride Injection USP, 50 mg/mL (SDV and MDV) formulations equivalent to the discontinued McNeil Consumer Healthcare's Benadryl Injection</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>The proposed alternative study design minimizes risk because adverse events like hepatic injury and pneumonitis are rare and associated with chronic rather than acute exposure; similar safeguards are accepted for comparable drugs like flutamide and bicalutamide.</t>
+          <t>The original Benadryl Injection was discontinued for commercial reasons and not due to safety or efficacy concerns, as confirmed by FDA; therefore, the petitioner seeks approval to submit ANDAs referencing the discontinued product.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0336-0001_Emcure_Pharmaceuticals_USA_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0337-0001_Hyman_Phelps_McNamara_PC_Petition_for_Stay_of_Acti.pdf</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>March 2013 (exact day not explicitly stated, but inferred from context and typical submission timing)</t>
+          <t>March 19, 2013</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Emcure Pharmaceuticals USA Inc.</t>
+          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>No representation of another entity mentioned</t>
+          <t>Submitting on behalf of an unidentified client ('Company')</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>21 U.S.C. § 355(j)(2)(c); 21 CFR § 10.20; 21 CFR § 10.30; 21 CFR § 314.93; 21 CFR § 314.122; 21 CFR § 314.161; 21 CFR § 25.31(a)</t>
+          <t>21 C.F.R. § 10.35; 21 C.F.R. § 10.75; 21 C.F.R. § 20.61; 21 C.F.R. § 20.47; 21 C.F.R. § 20.48; 18 U.S.C. § 1832</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Acceptance of ANDAs for Diphenhydramine Hydrochloride Injection USP, 50 mg/mL, referencing a discontinued Benadryl product</t>
+          <t>Decision by CDER’s Office of Manufacturing and Product Quality to deny reconsideration of issues related to a Warning Letter and plan to publish the Warning Letter</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Request FDA to accept ANDAs for Diphenhydramine Hydrochloride Injection USP, 50 mg/mL (SDV and MDV) formulations equivalent to the discontinued McNeil Consumer Healthcare's Benadryl Injection</t>
+          <t>Stay publication of the Warning Letter on the FDA’s website until the appeals process is exhausted and requested redactions are reviewed and decided upon</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>The original Benadryl Injection was discontinued for commercial reasons and not due to safety or efficacy concerns, as confirmed by FDA; therefore, the petitioner seeks approval to submit ANDAs referencing the discontinued product.</t>
+          <t>Premature publication would cause irreparable commercial, reputational, and competitive harm to the Company, compromise trade secret protections, undermine the appeals process, and violate policies meant to protect confidential information under FOIA regulations.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0337-0001_Hyman_Phelps_McNamara_PC_Petition_for_Stay_of_Acti.pdf</t>
+          <t>FDA-2013-P-0351-0001_Center_for_Food_Safety_and_Institute_for_Agricultu.pdf</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>March 19, 2013</t>
+          <t>March 15, 2013</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
+          <t>Center for Food Safety and Institute for Agriculture and Trade Policy</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Submitting on behalf of an unidentified client ('Company')</t>
+          <t>No, they are submitting on their own behalf</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.35; 21 C.F.R. § 10.75; 21 C.F.R. § 20.61; 21 C.F.R. § 20.47; 21 C.F.R. § 20.48; 18 U.S.C. § 1832</t>
+          <t>21 U.S.C. § 360b, 5 U.S.C. § 553(e), 21 C.F.R. §§ 10.20 and 10.30, 21 U.S.C. § 342</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Decision by CDER’s Office of Manufacturing and Product Quality to deny reconsideration of issues related to a Warning Letter and plan to publish the Warning Letter</t>
+          <t>FDA's lack of regulation on the use of antibiotics in distillers grains sold as animal feed</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Stay publication of the Warning Letter on the FDA’s website until the appeals process is exhausted and requested redactions are reviewed and decided upon</t>
+          <t>Prohibit or enjoin the use of antibiotics in the manufacture of distillers grains sold as animal feed for food-producing animals, or alternatively regulate such antibiotics as new animal drugs requiring new animal drug applications</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Premature publication would cause irreparable commercial, reputational, and competitive harm to the Company, compromise trade secret protections, undermine the appeals process, and violate policies meant to protect confidential information under FOIA regulations.</t>
+          <t>Antibiotics used in ethanol production remain in distillers grains fed to food-producing animals, contributing to antibiotic resistance, posing a public health risk, and violating the Federal Food, Drug, and Cosmetic Act; alternatives to antibiotics are available for ethanol producers; FDA’s failure to regulate is arbitrary and capricious under the APA</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0351-0001_Center_for_Food_Safety_and_Institute_for_Agricultu.pdf</t>
+          <t>FDA-2013-P-0380-0001_University_of_Florida_College_of_Medicine_Jacksonv.pdf</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>March 15, 2013</t>
+          <t>March 28, 2013</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Center for Food Safety and Institute for Agriculture and Trade Policy</t>
+          <t>University of Florida College of Medicine - Jacksonville and UNC School of Medicine</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>No, they are submitting on their own behalf</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>21 U.S.C. § 360b, 5 U.S.C. § 553(e), 21 C.F.R. §§ 10.20 and 10.30, 21 U.S.C. § 342</t>
+          <t>21 C.F.R. 10.30; 21 C.F.R. 25.30; 21 C.F.R. 25.31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>FDA's lack of regulation on the use of antibiotics in distillers grains sold as animal feed</t>
+          <t>FDA’s black box warning on Depot Medroxyprogesterone Acetate (DMPA) labeling regarding loss of bone mineral density and limiting use to two years</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Prohibit or enjoin the use of antibiotics in the manufacture of distillers grains sold as animal feed for food-producing animals, or alternatively regulate such antibiotics as new animal drugs requiring new animal drug applications</t>
+          <t>Remove the black box warning from the DMPA labeling</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Antibiotics used in ethanol production remain in distillers grains fed to food-producing animals, contributing to antibiotic resistance, posing a public health risk, and violating the Federal Food, Drug, and Cosmetic Act; alternatives to antibiotics are available for ethanol producers; FDA’s failure to regulate is arbitrary and capricious under the APA</t>
+          <t>The petition argues that the black box warning was not based on published clinical evidence but rather on an invalid surrogate endpoint (bone mineral density) that does not predict fractures. They claim the warning has harmed public health by discouraging use of a safe contraceptive, and that published studies show bone mineral density recovers after discontinuation without increased fracture risk.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0380-0001_University_of_Florida_College_of_Medicine_Jacksonv.pdf</t>
+          <t>FDA-2013-P-0408-0001_Chesapeake_Regulatory_Group_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>March 28, 2013</t>
+          <t>March 29, 2013</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>University of Florida College of Medicine - Jacksonville and UNC School of Medicine</t>
+          <t>Chesapeake Regulatory Group, Inc.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>21 C.F.R. 10.30; 21 C.F.R. 25.30; 21 C.F.R. 25.31</t>
+          <t>Section 505(b) and 505(j) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.25; 21 CFR 10.30; 21 CFR 314.94(a)(3); 21 CFR 25.31</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FDA’s black box warning on Depot Medroxyprogesterone Acetate (DMPA) labeling regarding loss of bone mineral density and limiting use to two years</t>
+          <t>Designation of Reference Listed Drugs (RLDs) for peritoneal dialysis fluids (specifically Baxter Healthcare’s Dianeal PD-2 and Dianeal Low Calcium products)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Remove the black box warning from the DMPA labeling</t>
+          <t>Request FDA to designate specific Baxter Healthcare peritoneal dialysis products as Reference Listed Drugs (RLDs)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>The petition argues that the black box warning was not based on published clinical evidence but rather on an invalid surrogate endpoint (bone mineral density) that does not predict fractures. They claim the warning has harmed public health by discouraging use of a safe contraceptive, and that published studies show bone mineral density recovers after discontinuation without increased fracture risk.</t>
+          <t>The petitioner argues that without designated RLDs, sponsors cannot submit ANDAs for generic versions, and since Baxter’s Dianeal products dominate the market, they are appropriate standards for generic comparisons. This designation would facilitate generic competition and prevent significant variations between generics and brand-name products.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0408-0001_Chesapeake_Regulatory_Group_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0424-0001_Actelion_Pharmaceuticals_Ltd_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>March 29, 2013</t>
+          <t>5 April 2013</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Chesapeake Regulatory Group, Inc.</t>
+          <t>Actelion Pharmaceuticals Ltd.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5260,39 +5260,39 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Section 505(b) and 505(j) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.25; 21 CFR 10.30; 21 CFR 314.94(a)(3); 21 CFR 25.31</t>
+          <t>21 USC 355, 21 CFR 10.30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Designation of Reference Listed Drugs (RLDs) for peritoneal dialysis fluids (specifically Baxter Healthcare’s Dianeal PD-2 and Dianeal Low Calcium products)</t>
+          <t>FDA standards for approving ANDAs for Ventavis or generic iloprost inhalation solutions, addressing sameness of active ingredient (diastereoisomer ratio), formulation equivalency, bioequivalence demonstration, and device compatibility.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Request FDA to designate specific Baxter Healthcare peritoneal dialysis products as Reference Listed Drugs (RLDs)</t>
+          <t>(1) the active ingredient has the same ratio of diastereoisomers, (2) any formulation differences are justified with bioequivalence and nebulizer performance data, and (3) the device used does not differ materially from the approved devices (I-neb and Prodose systems).</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>The petitioner argues that without designated RLDs, sponsors cannot submit ANDAs for generic versions, and since Baxter’s Dianeal products dominate the market, they are appropriate standards for generic comparisons. This designation would facilitate generic competition and prevent significant variations between generics and brand-name products.</t>
+          <t>Ventavis is a complex, locally-acting drug-device combination used to treat pulmonary arterial hypertension. Differences in stereochemistry, formulation, or delivery device could affect safety and efficacy; therefore, strict equivalence in active ingredients, inactive ingredients, and device characteristics is required to ensure therapeutic equivalence and patient safety.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0424-0001_Actelion_Pharmaceuticals_Ltd_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0426-0001_Shotwell_Carr_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5 April 2013</t>
+          <t>April 19, 2013</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Actelion Pharmaceuticals Ltd.</t>
+          <t>Shotwell &amp; Carr, Inc.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -5302,197 +5302,197 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>21 USC 355, 21 CFR 10.30</t>
+          <t>Section 512(n)(3) of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. § 25.33(d)(5); 21 C.F.R. § 20.61</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>FDA standards for approving ANDAs for Ventavis or generic iloprost inhalation solutions, addressing sameness of active ingredient (diastereoisomer ratio), formulation equivalency, bioequivalence demonstration, and device compatibility.</t>
+          <t>Suitability determination for an abbreviated new animal drug application (ANADA) for a cyclosporine oral solution for dogs differing from the reference listed drug (ATOPICA®) in dosage form</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(1) the active ingredient has the same ratio of diastereoisomers, (2) any formulation differences are justified with bioequivalence and nebulizer performance data, and (3) the device used does not differ materially from the approved devices (I-neb and Prodose systems).</t>
+          <t>Request the FDA to determine that a new oral solution form of cyclosporine for dogs is suitable for filing under an ANADA</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Ventavis is a complex, locally-acting drug-device combination used to treat pulmonary arterial hypertension. Differences in stereochemistry, formulation, or delivery device could affect safety and efficacy; therefore, strict equivalence in active ingredients, inactive ingredients, and device characteristics is required to ensure therapeutic equivalence and patient safety.</t>
+          <t>An oral solution provides easier administration with accurate dosing using calibrated syringes, improves convenience for veterinarians and pet owners, and maintains the same active ingredient, strength, route of administration, and dosage as the reference product.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0426-0001_Shotwell_Carr_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0435-0001_Tobacco_Control_Legal_Consortium__et_al_Citizen_Pe.pdf</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>April 19, 2013</t>
+          <t>April 12, 2013</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Shotwell &amp; Carr, Inc.</t>
+          <t>Tobacco Control Legal Consortium</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>African American Tobacco Control Leadership Council, American Academy of Pediatrics, American Association for Cancer Research, American Cancer Society – Cancer Action Network, American Heart Association, American Legacy Foundation, American Lung Association, American Public Health Association, Americans for Nonsmokers' Rights, Asian Pacific Partners for Empowerment, Advocacy and Leadership (APPEAL), Association for the Treatment of Tobacco Use and Dependence, Campaign for Tobacco-Free Kids, Corporate Accountability International, NAATPN, Inc., National Association of County and City Health Officials, National Latino Alliance for Health Equity, Society for Research on Nicotine and Tobacco, Summit Health Institute for Research and Education, Inc., and Valerie B. Yerger, N.D.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Section 512(n)(3) of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. § 25.33(d)(5); 21 C.F.R. § 20.61</t>
+          <t>Title 21, Chapter 9, Subchapter V, Part A of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. 10.30; Family Smoking Prevention and Tobacco Control Act (codified at 21 U.S.C. § 387g(a)(1)(A), (3)(A)-(B))</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Suitability determination for an abbreviated new animal drug application (ANADA) for a cyclosporine oral solution for dogs differing from the reference listed drug (ATOPICA®) in dosage form</t>
+          <t>FDA's delay in prohibiting menthol as a characterizing flavor in cigarettes despite the recommendations from the Tobacco Products Scientific Advisory Committee (TPSAC)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Request the FDA to determine that a new oral solution form of cyclosporine for dogs is suitable for filing under an ANADA</t>
+          <t>Petition the FDA to prohibit menthol as a characterizing flavor in cigarettes and cigarette smoke</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>An oral solution provides easier administration with accurate dosing using calibrated syringes, improves convenience for veterinarians and pet owners, and maintains the same active ingredient, strength, route of administration, and dosage as the reference product.</t>
+          <t>Menthol cigarettes increase youth smoking initiation, addiction, and reduce cessation rates, especially among minorities; menthol’s continued availability undermines public health goals and perpetuates tobacco-related health disparities; TPSAC and extensive scientific evidence support that removing menthol would significantly benefit public health</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0435-0001_Tobacco_Control_Legal_Consortium__et_al_Citizen_Pe.pdf</t>
+          <t>FDA-2013-P-0470-0001_Salix_Pharmaceuticals_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>April 12, 2013</t>
+          <t>March 7, 2013</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Tobacco Control Legal Consortium</t>
+          <t>Salix Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>African American Tobacco Control Leadership Council, American Academy of Pediatrics, American Association for Cancer Research, American Cancer Society – Cancer Action Network, American Heart Association, American Legacy Foundation, American Lung Association, American Public Health Association, Americans for Nonsmokers' Rights, Asian Pacific Partners for Empowerment, Advocacy and Leadership (APPEAL), Association for the Treatment of Tobacco Use and Dependence, Campaign for Tobacco-Free Kids, Corporate Accountability International, NAATPN, Inc., National Association of County and City Health Officials, National Latino Alliance for Health Equity, Society for Research on Nicotine and Tobacco, Summit Health Institute for Research and Education, Inc., and Valerie B. Yerger, N.D.</t>
+          <t>Not representing another entity; Salix submitted on its own behalf</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Title 21, Chapter 9, Subchapter V, Part A of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. 10.30; Family Smoking Prevention and Tobacco Control Act (codified at 21 U.S.C. § 387g(a)(1)(A), (3)(A)-(B))</t>
+          <t>Sections 505(j) and 505(q) of the Federal Food, Drug, and Cosmetic Act (FDCA); 21 U.S.C. §§ 355(j) and 355(q); 21 C.F.R. §§ 10.30, 314.94, and 320.21</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>FDA's delay in prohibiting menthol as a characterizing flavor in cigarettes despite the recommendations from the Tobacco Products Scientific Advisory Committee (TPSAC)</t>
+          <t>FDA's Draft Guidance on establishing bioequivalence for extended-release mesalamine products (specifically Apriso®)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Petition the FDA to prohibit menthol as a characterizing flavor in cigarettes and cigarette smoke</t>
+          <t>Amend the FDA’s existing bioequivalence criteria for mesalamine extended-release capsules (Apriso®) and require bioequivalence testing under fasted and fed conditions in ulcerative colitis patients, inclusion of both 5-ASA and N-Ac-5-ASA plasma analytes, expanded PK parameters, and specific testing related to colonic distribution</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Menthol cigarettes increase youth smoking initiation, addiction, and reduce cessation rates, especially among minorities; menthol’s continued availability undermines public health goals and perpetuates tobacco-related health disparities; TPSAC and extensive scientific evidence support that removing menthol would significantly benefit public health</t>
+          <t>Salix argues that the current FDA criteria do not adequately capture the unique delayed- and extended-release properties of Apriso®, the altered pharmacokinetics in ulcerative colitis patients, the significant role of metabolite N-Ac-5-ASA, and the need to ensure equivalent colonic drug delivery, all of which are critical to maintaining therapeutic effectiveness.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0470-0001_Salix_Pharmaceuticals_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0471-0001_Bayer_HealthCare_Pharmaceuticals_Inc_Ropes_Gray_LL.pdf</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>March 7, 2013</t>
+          <t>April 19, 2013</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Salix Pharmaceuticals, Inc.</t>
+          <t>Bayer HealthCare Pharmaceuticals Inc.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Not representing another entity; Salix submitted on its own behalf</t>
+          <t>Ropes &amp; Gray LLP representing Bayer HealthCare Pharmaceuticals Inc.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sections 505(j) and 505(q) of the Federal Food, Drug, and Cosmetic Act (FDCA); 21 U.S.C. §§ 355(j) and 355(q); 21 C.F.R. §§ 10.30, 314.94, and 320.21</t>
+          <t>Section 505 of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. § 10.30; Sections 505(c)(3)(E)(ii) and 505(j)(5)(F)(ii) of the FDCA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>FDA's Draft Guidance on establishing bioequivalence for extended-release mesalamine products (specifically Apriso®)</t>
+          <t>FDA’s historical approach to denying 5-year exclusivity to fixed-dose combinations (FDCs) that include a new active moiety and a previously approved active moiety</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Amend the FDA’s existing bioequivalence criteria for mesalamine extended-release capsules (Apriso®) and require bioequivalence testing under fasted and fed conditions in ulcerative colitis patients, inclusion of both 5-ASA and N-Ac-5-ASA plasma analytes, expanded PK parameters, and specific testing related to colonic distribution</t>
+          <t>Request that FDA recognize 5-year exclusivity for dienogest, the new active moiety in NATAZIA</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Salix argues that the current FDA criteria do not adequately capture the unique delayed- and extended-release properties of Apriso®, the altered pharmacokinetics in ulcerative colitis patients, the significant role of metabolite N-Ac-5-ASA, and the need to ensure equivalent colonic drug delivery, all of which are critical to maintaining therapeutic effectiveness.</t>
+          <t>Petitioner argues that the FDA’s current practice contradicts the statutory language, Congressional intent, and FDA’s own regulations, and leads to arbitrary, inequitable outcomes that discourage innovation in fixed-dose combinations; they argue Bayer invested 16 years and nearly $200 million developing NATAZIA, and that dienogest as a new active moiety deserves 5-year exclusivity</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0471-0001_Bayer_HealthCare_Pharmaceuticals_Inc_Ropes_Gray_LL.pdf</t>
+          <t>FDA-2013-P-0503-0001_Nomax_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>April 19, 2013</t>
+          <t>April 18, 2013</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bayer HealthCare Pharmaceuticals Inc.</t>
+          <t>Nomax, Inc.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ropes &amp; Gray LLP representing Bayer HealthCare Pharmaceuticals Inc.</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Section 505 of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. § 10.30; Sections 505(c)(3)(E)(ii) and 505(j)(5)(F)(ii) of the FDCA</t>
+          <t>21 C.F.R. §§ 10.25(a), 10.30, 314.161(a)(3), 21 C.F.R. § 25.31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>FDA’s historical approach to denying 5-year exclusivity to fixed-dose combinations (FDCs) that include a new active moiety and a previously approved active moiety</t>
+          <t>Determination whether a listed drug (Urocit®-K Powder) was withdrawn for safety or effectiveness reasons</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Request that FDA recognize 5-year exclusivity for dienogest, the new active moiety in NATAZIA</t>
+          <t>Request that FDA determine Urocit®-K Powder was not withdrawn for safety or effectiveness reasons and annotate the Orange Book accordingly, or publish a notice if otherwise</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Petitioner argues that the FDA’s current practice contradicts the statutory language, Congressional intent, and FDA’s own regulations, and leads to arbitrary, inequitable outcomes that discourage innovation in fixed-dose combinations; they argue Bayer invested 16 years and nearly $200 million developing NATAZIA, and that dienogest as a new active moiety deserves 5-year exclusivity</t>
+          <t>The petitioner reviewed approval documents, prescribing information, adverse effect profiles, and literature; found no safety or efficacy concerns; concluded withdrawal was for business and market strategy reasons</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0503-0001_Nomax_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0504-0001_Nomax_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5512,29 +5512,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>21 C.F.R. §§ 10.25(a), 10.30, 314.161(a)(3), 21 C.F.R. § 25.31</t>
+          <t>21 CFR 10.30, 21 CFR 25.31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Determination whether a listed drug (Urocit®-K Powder) was withdrawn for safety or effectiveness reasons</t>
+          <t>Amendment of the 'Approved Drug Products with Therapeutic Equivalence' list (Orange Book) to designate Urocit®-K Powder (NDA 019647) as a reference listed drug product</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Request that FDA determine Urocit®-K Powder was not withdrawn for safety or effectiveness reasons and annotate the Orange Book accordingly, or publish a notice if otherwise</t>
+          <t>Amend the 'Orange Book' to list Urocit®-K Powder as a reference listed drug product</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>The petitioner reviewed approval documents, prescribing information, adverse effect profiles, and literature; found no safety or efficacy concerns; concluded withdrawal was for business and market strategy reasons</t>
+          <t>The petitioner argues that Urocit®-K Powder is a different dosage form (oral solution) from Urocit®-K 15 meq extended release tablets, and due to the distinction between the two, it should be designated as a separate reference listed drug (RLD) to avoid confusion and ensure appropriate generic development.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0504-0001_Nomax_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0505-0001_Nomax_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5549,34 +5549,34 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>Not Representing Another Entity</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>21 CFR 10.30, 21 CFR 25.31</t>
+          <t>21 CFR 10.30; 21 CFR 25.31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Amendment of the 'Approved Drug Products with Therapeutic Equivalence' list (Orange Book) to designate Urocit®-K Powder (NDA 019647) as a reference listed drug product</t>
+          <t>Regulatory classification and approval pathway for fluorescein strips, specifically the 1987 Federal Register notice regulating fluorescein strips as drugs rather than medical devices</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Amend the 'Orange Book' to list Urocit®-K Powder as a reference listed drug product</t>
+          <t>FDA approval of a suitability petition allowing submission of an abbreviated new drug application (ANDA) for fluorescein strips, citing fluorescein sodium injection as the reference listed drug, despite differences in dosage form, strength, and route of administration</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>The petitioner argues that Urocit®-K Powder is a different dosage form (oral solution) from Urocit®-K 15 meq extended release tablets, and due to the distinction between the two, it should be designated as a separate reference listed drug (RLD) to avoid confusion and ensure appropriate generic development.</t>
+          <t>Petitioner argues that fluorescein strips have a long history of safe professional use, deliver much smaller amounts of fluorescein compared to the intravenous solution, are cleared naturally by tears, and that FDA’s prior classification decisions created regulatory uncertainty. Citing fluorescein injection as a reference listed drug would provide a clear and viable regulatory path to compliance.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0505-0001_Nomax_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0506-0001_Nomax_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5601,118 +5601,118 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Regulatory classification and approval pathway for fluorescein strips, specifically the 1987 Federal Register notice regulating fluorescein strips as drugs rather than medical devices</t>
+          <t>The regulatory classification and approval status of Urocit®-K Powder (potassium citrate granules) and its listing (or absence thereof) in the FDA's Orange Book as a reference listed drug.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>FDA approval of a suitability petition allowing submission of an abbreviated new drug application (ANDA) for fluorescein strips, citing fluorescein sodium injection as the reference listed drug, despite differences in dosage form, strength, and route of administration</t>
+          <t>Nomax, Inc. requests FDA approval to submit an ANDA for potassium citrate effervescent tablets in 10 meq, 20 meq, and a new 25 meq strength, and to designate Urocit®-K Powder as a reference listed drug.</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Petitioner argues that fluorescein strips have a long history of safe professional use, deliver much smaller amounts of fluorescein compared to the intravenous solution, are cleared naturally by tears, and that FDA’s prior classification decisions created regulatory uncertainty. Citing fluorescein injection as a reference listed drug would provide a clear and viable regulatory path to compliance.</t>
+          <t>Nomax argues that Urocit®-K Powder was discontinued for reasons unrelated to safety or efficacy, and the proposed effervescent tablets produce a true molecular solution of potassium citrate similar to the powder, ensuring therapeutic equivalence. They also emphasize the historical safe use of potassium citrate oral dosage forms.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0506-0001_Nomax_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0509-0001_Skadden_Arps_Slate_Meagher_Flom_LLP_Citizen_Petiti.pdf</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>April 18, 2013</t>
+          <t>April 29, 2013</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nomax, Inc.</t>
+          <t>Skadden, Arps, Slate, Meagher &amp; Flom LLP</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Not Representing Another Entity</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>21 CFR 10.30; 21 CFR 25.31</t>
+          <t>21 U.S.C. § 301 et seq. (Federal Food, Drug, and Cosmetic Act); 21 C.F.R. § 10.30; 21 C.F.R. §§ 25.30 and 25.31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>The regulatory classification and approval status of Urocit®-K Powder (potassium citrate granules) and its listing (or absence thereof) in the FDA's Orange Book as a reference listed drug.</t>
+          <t>Approval standards for NDAs involving immunosuppressants indicated for maintenance therapy following renal transplantation</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Nomax, Inc. requests FDA approval to submit an ANDA for potassium citrate effervescent tablets in 10 meq, 20 meq, and a new 25 meq strength, and to designate Urocit®-K Powder as a reference listed drug.</t>
+          <t>The petitioner requests FDA to require that all new, modified, or reformulated immunosuppressants for renal transplant maintenance therapy successfully complete at least one 12-month, double-blind clinical trial, with limited exceptions where technically infeasible.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Nomax argues that Urocit®-K Powder was discontinued for reasons unrelated to safety or efficacy, and the proposed effervescent tablets produce a true molecular solution of potassium citrate similar to the powder, ensuring therapeutic equivalence. They also emphasize the historical safe use of potassium citrate oral dosage forms.</t>
+          <t>The petitioner argues that FDA precedent supports a 12-month trial standard; short-term trials are inadequate for assessing long-term patient and graft survival; non-inferiority trials need longer assessment periods to ensure meaningful results; open-label trials introduce bias; and double-blind trials are a recognized international standard. Thus, 12-month, double-blind trials are necessary to adequately demonstrate efficacy and ensure patient safety.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0509-0001_Skadden_Arps_Slate_Meagher_Flom_LLP_Citizen_Petiti.pdf</t>
+          <t>FDA-2013-P-0522-0001_Escher_Fund_for_Autism_Citizen_Petition_Redacted_V.pdf</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>April 29, 2013</t>
+          <t>April 26, 2013</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Skadden, Arps, Slate, Meagher &amp; Flom LLP</t>
+          <t>Jill Escher, Escher Fund for Autism</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>Not Representing Another Entity</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>21 U.S.C. § 301 et seq. (Federal Food, Drug, and Cosmetic Act); 21 C.F.R. § 10.30; 21 C.F.R. §§ 25.30 and 25.31</t>
+          <t>21 CFR 10.30; 21 U.S.C. § 355-1(b)(3), 21 U.S.C. § 355-1(b)(4), 21 U.S.C. § 355-1(b)(5)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Approval standards for NDAs involving immunosuppressants indicated for maintenance therapy following renal transplantation</t>
+          <t>Approval of Diclegis (doxylamine succinate and pyridoxine hydrochloride) as a Category A pregnancy drug and general pregnancy drug labeling regulations</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>The petitioner requests FDA to require that all new, modified, or reformulated immunosuppressants for renal transplant maintenance therapy successfully complete at least one 12-month, double-blind clinical trial, with limited exceptions where technically infeasible.</t>
+          <t>(1) Revoke the March 2013 approval of Diclegis or reclassify it as a Category C drug pending adequate fetal germline safety testing; (2) Revise OTC and prescription drug labeling to warn about potential fetal germline perturbation risks.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>The petitioner argues that FDA precedent supports a 12-month trial standard; short-term trials are inadequate for assessing long-term patient and graft survival; non-inferiority trials need longer assessment periods to ensure meaningful results; open-label trials introduce bias; and double-blind trials are a recognized international standard. Thus, 12-month, double-blind trials are necessary to adequately demonstrate efficacy and ensure patient safety.</t>
+          <t>The petitioner argues that fetal germline cells are highly susceptible to disruption by synthetic drugs during early pregnancy, potentially causing multigenerational developmental disorders. Diclegis, used during a critical window of fetal germline development, may impair germline epigenetic programming. Since Diclegis has not been tested for such effects, the petitioner contends that revocation or stronger warnings are necessary to prevent irreversible harm across generations.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0522-0001_Escher_Fund_for_Autism_Citizen_Petition_Redacted_V.pdf</t>
+          <t>FDA-2013-P-0572-0001_Prometheus_Laboratories_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>April 26, 2013</t>
+          <t>May 10, 2013</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Jill Escher, Escher Fund for Autism</t>
+          <t>Prometheus Laboratories Inc.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5722,39 +5722,39 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>21 CFR 10.30; 21 U.S.C. § 355-1(b)(3), 21 U.S.C. § 355-1(b)(4), 21 U.S.C. § 355-1(b)(5)</t>
+          <t>Sections 502, 505, and 527 of the Federal Food, Drug, and Cosmetic Act (FDCA); 21 CFR 10.30; 21 CFR 25.31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Approval of Diclegis (doxylamine succinate and pyridoxine hydrochloride) as a Category A pregnancy drug and general pregnancy drug labeling regulations</t>
+          <t>FDA's lack of clear standards or procedures for developing single shared Risk Evaluation and Mitigation Strategies (REMS) and granting waivers from the requirement for single shared REMS under Section 505-1 of the FDCA</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(1) Revoke the March 2013 approval of Diclegis or reclassify it as a Category C drug pending adequate fetal germline safety testing; (2) Revise OTC and prescription drug labeling to warn about potential fetal germline perturbation risks.</t>
+          <t>(1) FDA should complete notice and comment rulemaking to establish clear standards and processes for single shared REMS and waivers; (2) FDA should not grant a waiver from the single shared REMS requirement for Lotronex without giving Prometheus notice and an opportunity to participate in the process.</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>The petitioner argues that fetal germline cells are highly susceptible to disruption by synthetic drugs during early pregnancy, potentially causing multigenerational developmental disorders. Diclegis, used during a critical window of fetal germline development, may impair germline epigenetic programming. Since Diclegis has not been tested for such effects, the petitioner contends that revocation or stronger warnings are necessary to prevent irreversible harm across generations.</t>
+          <t>Prometheus argues that the absence of clear regulatory standards for single shared REMS exposes innovator companies to antitrust scrutiny, product liability risks, and inefficient resource use. It contends that a lack of guidance complicates negotiations between innovator and generic drug companies and potentially delays generic drug entry. Prometheus also emphasizes that without notice and participation rights, sponsors of listed drugs cannot adequately protect their interests or provide critical information to FDA when waivers are considered.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0572-0001_Prometheus_Laboratories_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0573-0001_Lupin_Pharmaceuticals_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>May 10, 2013</t>
+          <t>May 9, 2013</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Prometheus Laboratories Inc.</t>
+          <t>Lupin Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5764,29 +5764,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sections 502, 505, and 527 of the Federal Food, Drug, and Cosmetic Act (FDCA); 21 CFR 10.30; 21 CFR 25.31</t>
+          <t>21 CFR 10.25; 21 CFR 10.30; 21 CFR 314.161; 21 CFR 314.162; 21 CFR 25.31</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FDA's lack of clear standards or procedures for developing single shared Risk Evaluation and Mitigation Strategies (REMS) and granting waivers from the requirement for single shared REMS under Section 505-1 of the FDCA</t>
+          <t>FDA’s placement of BANZEL® (rufinamide) Tablets, 100 mg into the Discontinued Drug Products section of the Orange Book</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(1) FDA should complete notice and comment rulemaking to establish clear standards and processes for single shared REMS and waivers; (2) FDA should not grant a waiver from the single shared REMS requirement for Lotronex without giving Prometheus notice and an opportunity to participate in the process.</t>
+          <t>Lupin requests that FDA determine that BANZEL® (rufinamide) Tablets, 100 mg was discontinued for reasons unrelated to safety or effectiveness, and confirm that ANDAs referencing BANZEL® 100 mg Tablets are eligible for approval if other legal and regulatory requirements are met.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Prometheus argues that the absence of clear regulatory standards for single shared REMS exposes innovator companies to antitrust scrutiny, product liability risks, and inefficient resource use. It contends that a lack of guidance complicates negotiations between innovator and generic drug companies and potentially delays generic drug entry. Prometheus also emphasizes that without notice and participation rights, sponsors of listed drugs cannot adequately protect their interests or provide critical information to FDA when waivers are considered.</t>
+          <t>Lupin argues that BANZEL® (rufinamide) Tablets, 100 mg was likely discontinued for commercial reasons rather than for safety or effectiveness issues, noting the continued marketing of BANZEL® Oral Suspension and the lack of evidence suggesting safety or efficacy concerns. Lupin cites regulatory requirements obligating FDA to make such a determination before approving an ANDA.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0573-0001_Lupin_Pharmaceuticals_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0574-0001_Watson_Laboratories_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lupin Pharmaceuticals, Inc.</t>
+          <t>Watson Laboratories, Inc.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5806,29 +5806,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>21 CFR 10.25; 21 CFR 10.30; 21 CFR 314.161; 21 CFR 314.162; 21 CFR 25.31</t>
+          <t>Sections 505 and 505(q) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>FDA’s placement of BANZEL® (rufinamide) Tablets, 100 mg into the Discontinued Drug Products section of the Orange Book</t>
+          <t>Draft Bioequivalence Guidance for Silodosin Capsules issued in April 2013 and approval standards for ANDAs for generic RAPAFLO® (silodosin) capsules</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lupin requests that FDA determine that BANZEL® (rufinamide) Tablets, 100 mg was discontinued for reasons unrelated to safety or effectiveness, and confirm that ANDAs referencing BANZEL® 100 mg Tablets are eligible for approval if other legal and regulatory requirements are met.</t>
+          <t>(1) Refuse to approve any ANDAs for generic RAPAFLO® unless bioequivalence is demonstrated for both silodosin and its active metabolite KMD-3213G using strict statistical evaluation of AUC and Cmax; (2) Revise the Draft Guidance on Silodosin to require strict statistical evaluation for both silodosin and KMD-3213G.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Lupin argues that BANZEL® (rufinamide) Tablets, 100 mg was likely discontinued for commercial reasons rather than for safety or effectiveness issues, noting the continued marketing of BANZEL® Oral Suspension and the lack of evidence suggesting safety or efficacy concerns. Lupin cites regulatory requirements obligating FDA to make such a determination before approving an ANDA.</t>
+          <t>Watson argues that the active metabolite KMD-3213G significantly contributes to the therapeutic efficacy and safety of RAPAFLO®. Because KMD-3213G has a longer half-life and a substantial pharmacologic role, failing to require bioequivalence testing for this metabolite risks approving non-equivalent generics that could negatively impact patient health, especially among patients with moderate renal impairment.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0574-0001_Watson_Laboratories_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0608-0001_Copy_1_of_2_Janssen_Research_and_Development_LLC_R.pdf</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5838,91 +5838,91 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Watson Laboratories, Inc.</t>
+          <t>Janssen Research &amp; Development, LLC</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Not Representing Another Entity</t>
+          <t>Represented by Joy J. Liu, Ropes &amp; Gray LLP</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sections 505 and 505(q) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.30</t>
+          <t>Section 505 of the Federal Food, Drug, and Cosmetic Act (21 U.S.C. § 355), 21 C.F.R. § 10.30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Draft Bioequivalence Guidance for Silodosin Capsules issued in April 2013 and approval standards for ANDAs for generic RAPAFLO® (silodosin) capsules</t>
+          <t>FDA-2007-D-0369)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(1) Refuse to approve any ANDAs for generic RAPAFLO® unless bioequivalence is demonstrated for both silodosin and its active metabolite KMD-3213G using strict statistical evaluation of AUC and Cmax; (2) Revise the Draft Guidance on Silodosin to require strict statistical evaluation for both silodosin and KMD-3213G.</t>
+          <t>FDA should require specific bioequivalence parameters, including partial area under the concentration-time curve (pAUC0–72h and pAUC0–28d), in addition to traditional Cmax, AUC0–t, and AUC0–∞, for review and approval of any proposed generic or follow-on product referencing INVEGA® SUSTENNA®</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Watson argues that the active metabolite KMD-3213G significantly contributes to the therapeutic efficacy and safety of RAPAFLO®. Because KMD-3213G has a longer half-life and a substantial pharmacologic role, failing to require bioequivalence testing for this metabolite risks approving non-equivalent generics that could negatively impact patient health, especially among patients with moderate renal impairment.</t>
+          <t>Traditional bioequivalence metrics (Cmax and AUC) may not detect clinically meaningful differences in drug release profiles, which could impact patient safety and efficacy; differences in particle size distribution could alter release rates; simulation studies demonstrated that switching to generics without these additional bioequivalence measures could result in significant clinical consequences like relapse or side effects due to under- or overexposure to paliperidone.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0608-0001_Copy_1_of_2_Janssen_Research_and_Development_LLC_R.pdf</t>
+          <t>FDA-2013-P-0615-0001_State_of_California_Department_of_Consumer_Affairs.pdf</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>May 9, 2013</t>
+          <t>May 30, 2012</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Janssen Research &amp; Development, LLC</t>
+          <t>California Speech-Language Pathology and Audiology and Hearing Aid Dispensers Board</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Represented by Joy J. Liu, Ropes &amp; Gray LLP</t>
+          <t>Not Representing Another Entity</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Section 505 of the Federal Food, Drug, and Cosmetic Act (21 U.S.C. § 355), 21 C.F.R. § 10.30</t>
+          <t>21 CFR 808.20(c); 21 CFR 801.420; 21 CFR 801.421; 21 CFR 808.1(d)(3); California Business and Professions Code (BPC) Sections 2538.23, 2538.36, 2538.38, 2538.49</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>FDA-2007-D-0369)</t>
+          <t>Federal preemption of state requirements related to the sale of hearing aids via catalog or direct mail</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>FDA should require specific bioequivalence parameters, including partial area under the concentration-time curve (pAUC0–72h and pAUC0–28d), in addition to traditional Cmax, AUC0–t, and AUC0–∞, for review and approval of any proposed generic or follow-on product referencing INVEGA® SUSTENNA®</t>
+          <t>Request for exemption from federal preemption to allow enforcement of California's stricter requirements regarding hearing aid sales by catalog or direct mail.</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Traditional bioequivalence metrics (Cmax and AUC) may not detect clinically meaningful differences in drug release profiles, which could impact patient safety and efficacy; differences in particle size distribution could alter release rates; simulation studies demonstrated that switching to generics without these additional bioequivalence measures could result in significant clinical consequences like relapse or side effects due to under- or overexposure to paliperidone.</t>
+          <t>California's requirements provide greater consumer protections, including requiring sellers to be licensed, prohibiting the provision of professional services without direct examination, mandating ear canal observation, requiring a signed verification statement, and extending document retention periods to seven years to support consumer safety and enable investigations into misconduct.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0615-0001_State_of_California_Department_of_Consumer_Affairs.pdf</t>
+          <t>FDA-2013-P-0631-0001_CorePharma_LLC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>May 30, 2012</t>
+          <t>May 22, 2013</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>California Speech-Language Pathology and Audiology and Hearing Aid Dispensers Board</t>
+          <t>CorePharma, LLC</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5932,39 +5932,39 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>21 CFR 808.20(c); 21 CFR 801.420; 21 CFR 801.421; 21 CFR 808.1(d)(3); California Business and Professions Code (BPC) Sections 2538.23, 2538.36, 2538.38, 2538.49</t>
+          <t>21 CFR 10.25(a); 21 CFR 10.30; 21 CFR 314.161; 21 CFR 25.31</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Federal preemption of state requirements related to the sale of hearing aids via catalog or direct mail</t>
+          <t>Discontinuation of Moban® (molindone hydrochloride) Tablets, NDA 017111, and its listing in the FDA Orange Book</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Request for exemption from federal preemption to allow enforcement of California's stricter requirements regarding hearing aid sales by catalog or direct mail.</t>
+          <t>Request that FDA determine that Moban® Tablets were not withdrawn from sale for reasons of safety or effectiveness, and allow submission of an ANDA referencing Moban®</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>California's requirements provide greater consumer protections, including requiring sellers to be licensed, prohibiting the provision of professional services without direct examination, mandating ear canal observation, requiring a signed verification statement, and extending document retention periods to seven years to support consumer safety and enable investigations into misconduct.</t>
+          <t>CorePharma asserts that Moban® was discontinued due to sourcing issues rather than concerns regarding safety or effectiveness. The petitioner argues that under FDA regulations, this determination is necessary to permit approval of an ANDA referencing the discontinued drug.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0631-0001_CorePharma_LLC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0664-0001_Watson_Laboratories_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>May 22, 2013</t>
+          <t>June 3, 2013</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CorePharma, LLC</t>
+          <t>Watson Laboratories, Inc.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5974,155 +5974,155 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>21 CFR 10.25(a); 21 CFR 10.30; 21 CFR 314.161; 21 CFR 25.31</t>
+          <t>Sections 505 and 505(q) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.25; 21 CFR 10.30; 21 CFR 320.24</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Discontinuation of Moban® (molindone hydrochloride) Tablets, NDA 017111, and its listing in the FDA Orange Book</t>
+          <t>Approval standards for ANDAs for generic versions of CRINONE® (progesterone gel) 4% and 8%</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Request that FDA determine that Moban® Tablets were not withdrawn from sale for reasons of safety or effectiveness, and allow submission of an ANDA referencing Moban®</t>
+          <t>(1) Refuse to approve any ANDA for a generic version of CRINONE® unless the sponsor demonstrates bioequivalence through both a pharmacokinetic (PK) study and a clinical endpoint study; (2) Issue draft guidance on bioequivalence requirements for generic progesterone gels similar to the guidance issued for generic ENDOMETRIN®.</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>CorePharma asserts that Moban® was discontinued due to sourcing issues rather than concerns regarding safety or effectiveness. The petitioner argues that under FDA regulations, this determination is necessary to permit approval of an ANDA referencing the discontinued drug.</t>
+          <t>Watson argues that CRINONE® is a locally acting drug where traditional bioequivalence measures (based only on systemic absorption) are inadequate. Bioequivalence should be demonstrated using both PK and clinical endpoint studies to ensure that generics perform similarly at the site of action. This approach would align with FDA’s existing draft guidance for a similar product, ENDOMETRIN®.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0664-0001_Watson_Laboratories_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0665-0001_Arnall_Golden_Gregory_LLP_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>June 3, 2013</t>
+          <t>May 23, 2013</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Watson Laboratories, Inc.</t>
+          <t>Arnall Golden Gregory LLP</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Not Representing Another Entity</t>
+          <t>Representing an unnamed client (not explicitly stated who the client is, but the petition concerns Sanofi's withdrawn product Intal®)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sections 505 and 505(q) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.25; 21 CFR 10.30; 21 CFR 320.24</t>
+          <t>21 U.S.C. § 355; 21 C.F.R. §§ 10.20, 10.25, 10.30, 314.161</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Approval standards for ANDAs for generic versions of CRINONE® (progesterone gel) 4% and 8%</t>
+          <t>FDA's listing of Intal® (cromolyn sodium) Inhalation Capsule, 20 mg in the Discontinued Drug Product List section of the Orange Book</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(1) Refuse to approve any ANDA for a generic version of CRINONE® unless the sponsor demonstrates bioequivalence through both a pharmacokinetic (PK) study and a clinical endpoint study; (2) Issue draft guidance on bioequivalence requirements for generic progesterone gels similar to the guidance issued for generic ENDOMETRIN®.</t>
+          <t>Request that FDA determine that Intal® was withdrawn from the market for reasons other than safety or effectiveness, thereby permitting abbreviated NDA submissions using Intal® as the reference listed drug (RLD)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Watson argues that CRINONE® is a locally acting drug where traditional bioequivalence measures (based only on systemic absorption) are inadequate. Bioequivalence should be demonstrated using both PK and clinical endpoint studies to ensure that generics perform similarly at the site of action. This approach would align with FDA’s existing draft guidance for a similar product, ENDOMETRIN®.</t>
+          <t>The petitioner states there is no evidence suggesting that Intal® was withdrawn for safety or effectiveness reasons and that, therefore, FDA should permit abbreviated applications referencing Intal® under 505(j) of the FD&amp;C Act.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0665-0001_Arnall_Golden_Gregory_LLP_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0666-0001_Mutual_Pharmaceutical_Company_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>May 23, 2013</t>
+          <t>May 28, 2013</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Arnall Golden Gregory LLP</t>
+          <t>Mutual Pharmaceutical Company, Inc.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Representing an unnamed client (not explicitly stated who the client is, but the petition concerns Sanofi's withdrawn product Intal®)</t>
+          <t>Not Representing Another Entity</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>21 U.S.C. § 355; 21 C.F.R. §§ 10.20, 10.25, 10.30, 314.161</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 25.31</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>FDA's listing of Intal® (cromolyn sodium) Inhalation Capsule, 20 mg in the Discontinued Drug Product List section of the Orange Book</t>
+          <t>FDA approval standards for ANDAs involving changes to dosage strength relative to the listed drug product</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Request that FDA determine that Intal® was withdrawn from the market for reasons other than safety or effectiveness, thereby permitting abbreviated NDA submissions using Intal® as the reference listed drug (RLD)</t>
+          <t>Request that FDA determine that Piroxicam Capsules, 5mg, is suitable for evaluation and approval under an ANDA, allowing Mutual to submit a supplemental application to its approved ANDA for Piroxicam Capsules, 10mg and 20mg.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>The petitioner states there is no evidence suggesting that Intal® was withdrawn for safety or effectiveness reasons and that, therefore, FDA should permit abbreviated applications referencing Intal® under 505(j) of the FD&amp;C Act.</t>
+          <t>The proposed 5mg capsule is dose-proportional to the approved 10mg and 20mg strengths, will use the same formulation, dosage form, route of administration, and will provide a smaller capsule size for patients with swallowing difficulties, maintaining the same therapeutic effect and labeling (except necessary changes such as manufacturer name and 'How Supplied' section).</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0666-0001_Mutual_Pharmaceutical_Company_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0667-0001_American_Clinical_Laboratory_Association_Citizen_P.pdf</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>May 28, 2013</t>
+          <t>June 4, 2013</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mutual Pharmaceutical Company, Inc.</t>
+          <t>American Clinical Laboratory Association (ACLA)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Not Representing Another Entity</t>
+          <t>Not representing another entity</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 314.93; 21 CFR 25.31</t>
+          <t>Federal Food, Drug, and Cosmetic Act (FDCA), Clinical Laboratory Improvement Act of 1967 (CLIA '67), Clinical Laboratory Improvement Amendments of 1988 (CLIA '88), 21 C.F.R. § 807.65(i), 21 C.F.R. § 493.1253(b)(2)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>FDA approval standards for ANDAs involving changes to dosage strength relative to the listed drug product</t>
+          <t>FDA's intention to regulate Laboratory Developed Tests (LDTs) as devices under the FDCA</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Request that FDA determine that Piroxicam Capsules, 5mg, is suitable for evaluation and approval under an ANDA, allowing Mutual to submit a supplemental application to its approved ANDA for Piroxicam Capsules, 10mg and 20mg.</t>
+          <t>Request FDA to refrain from issuing draft or final guidance or a proposed or final rule regulating LDTs as devices and to confirm that LDTs are not devices under the FDCA</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>The proposed 5mg capsule is dose-proportional to the approved 10mg and 20mg strengths, will use the same formulation, dosage form, route of administration, and will provide a smaller capsule size for patients with swallowing difficulties, maintaining the same therapeutic effect and labeling (except necessary changes such as manufacturer name and 'How Supplied' section).</t>
+          <t>FDA lacks statutory authority to regulate LDTs under the FDCA; LDTs are not 'devices' as defined by the Act; regulation of LDTs under FDCA would conflict with CLIA; regulating LDTs would harm public health by reducing access to critical tests and delaying medical innovation; FDA regulation could cause significant economic repercussions for laboratories; concerns about laboratory regulation should be addressed through amendments to CLIA, not through FDCA regulation.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0667-0001_American_Clinical_Laboratory_Association_Citizen_P.pdf</t>
+          <t>FDA-2013-P-0670-0001_Altaire_Pharmaceuticals_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6132,39 +6132,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>American Clinical Laboratory Association (ACLA)</t>
+          <t>Altaire Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Not representing another entity</t>
+          <t>Not Representing Another Entity</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Federal Food, Drug, and Cosmetic Act (FDCA), Clinical Laboratory Improvement Act of 1967 (CLIA '67), Clinical Laboratory Improvement Amendments of 1988 (CLIA '88), 21 C.F.R. § 807.65(i), 21 C.F.R. § 493.1253(b)(2)</t>
+          <t>Section 505(j) of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. §§ 10.20 and 10.30; 21 C.F.R. § 25.31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>FDA's intention to regulate Laboratory Developed Tests (LDTs) as devices under the FDCA</t>
+          <t>Designation of reference listed drug (RLD) for Gentamicin Sulfate Ophthalmic Solution, EQ 0.3% base, in the FDA's Orange Book</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Request FDA to refrain from issuing draft or final guidance or a proposed or final rule regulating LDTs as devices and to confirm that LDTs are not devices under the FDCA</t>
+          <t>Request to designate Gentak® Gentamicin Sulfate Ophthalmic Solution, ANDA 064163 (held by Akorn Inc.), as the RLD for purposes of ANDA submissions</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>FDA lacks statutory authority to regulate LDTs under the FDCA; LDTs are not 'devices' as defined by the Act; regulation of LDTs under FDCA would conflict with CLIA; regulating LDTs would harm public health by reducing access to critical tests and delaying medical innovation; FDA regulation could cause significant economic repercussions for laboratories; concerns about laboratory regulation should be addressed through amendments to CLIA, not through FDCA regulation.</t>
+          <t>The current RLD (ANDA 064048 by Bausch &amp; Lomb) is not Q1Q2 equivalent to the original formulation; Gentak® (ANDA 064163) is Q1Q2 equivalent to the original formulation NDA 050039, which was discontinued. Without designating Gentak® as the RLD, generic applicants cannot pursue ANDA submissions based on the original formulation, effectively shielding Gentak® from competition.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0670-0001_Altaire_Pharmaceuticals_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0671-0001_Lachman_Consultant_Sevices_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Altaire Pharmaceuticals, Inc.</t>
+          <t>Lachman Consultant Services, Inc.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -6184,29 +6184,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Section 505(j) of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. §§ 10.20 and 10.30; 21 C.F.R. § 25.31</t>
+          <t>21 CFR 10.30; 21 CFR 314.161; 21 CFR 314.162</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Designation of reference listed drug (RLD) for Gentamicin Sulfate Ophthalmic Solution, EQ 0.3% base, in the FDA's Orange Book</t>
+          <t>FDA's listing of PARAFLEX (chlorzoxazone) Tablets, 250 mg in the discontinued drug product section of the Orange Book</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Request to designate Gentak® Gentamicin Sulfate Ophthalmic Solution, ANDA 064163 (held by Akorn Inc.), as the RLD for purposes of ANDA submissions</t>
+          <t>Request for the FDA to determine whether PARAFLEX (chlorzoxazone) Tablets, 250 mg was voluntarily withdrawn from sale for reasons of safety or effectiveness, in order to permit approval of ANDAs referencing this product</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>The current RLD (ANDA 064048 by Bausch &amp; Lomb) is not Q1Q2 equivalent to the original formulation; Gentak® (ANDA 064163) is Q1Q2 equivalent to the original formulation NDA 050039, which was discontinued. Without designating Gentak® as the RLD, generic applicants cannot pursue ANDA submissions based on the original formulation, effectively shielding Gentak® from competition.</t>
+          <t>The petitioner argues there is no evidence that the withdrawal was related to safety or efficacy concerns and suggests the product was discontinued for commercial reasons. A favorable determination would allow the approval of generic versions referencing the discontinued product.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0671-0001_Lachman_Consultant_Sevices_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0675-0001_Lachman_Consultant_Sevices_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6221,86 +6221,86 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Not Representing Another Entity</t>
+          <t>Representing an unnamed client</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>21 CFR 10.30; 21 CFR 314.161; 21 CFR 314.162</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.30; 21 CFR 25.31</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>FDA's listing of PARAFLEX (chlorzoxazone) Tablets, 250 mg in the discontinued drug product section of the Orange Book</t>
+          <t>Approval pathway for an ANDA for a modified strength version of Ultracet® (Tramadol Hydrochloride 37.5 mg and Acetaminophen 300 mg Tablets) referencing NDA 021123</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Request for the FDA to determine whether PARAFLEX (chlorzoxazone) Tablets, 250 mg was voluntarily withdrawn from sale for reasons of safety or effectiveness, in order to permit approval of ANDAs referencing this product</t>
+          <t>Request that FDA determine that Tramadol Hydrochloride 37.5 mg and Acetaminophen 300 mg Tablets is suitable for submission as an ANDA based on a change in strength of the acetaminophen component from 325 mg to 300 mg</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>The petitioner argues there is no evidence that the withdrawal was related to safety or efficacy concerns and suggests the product was discontinued for commercial reasons. A favorable determination would allow the approval of generic versions referencing the discontinued product.</t>
+          <t>The petitioner argues that reducing the acetaminophen strength does not raise questions of safety or effectiveness because the proposed maximum daily dose (2.4g) is consistent with safe exposure levels, and that FDA has previously approved other products containing 300 mg of acetaminophen in combination therapies. The indication, usage, and labeling would remain otherwise unchanged.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0675-0001_Lachman_Consultant_Sevices_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0693-0001_Center_for_Medicine_in_the_Public_Interest_Citizen.pdf</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>June 4, 2013</t>
+          <t>June 6, 2013</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lachman Consultant Services, Inc.</t>
+          <t>Center for Medicine in the Public Interest</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Representing an unnamed client</t>
+          <t>Not Representing Another Entity</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.30; 21 CFR 25.31</t>
+          <t>21 C.F.R. § 10.30; Section 505(b)(2) of the Federal Food, Drug, and Cosmetic Act; ICH Guideline Q3B(R2); ICH Guideline Q3C(R5); USP General Chapter &lt;467&gt;</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Approval pathway for an ANDA for a modified strength version of Ultracet® (Tramadol Hydrochloride 37.5 mg and Acetaminophen 300 mg Tablets) referencing NDA 021123</t>
+          <t>Approval of a New Drug Application (NDA) or Supplemental NDA (sNDA) for a liquid formulation of Treanda® (bendamustine hydrochloride)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Request that FDA determine that Tramadol Hydrochloride 37.5 mg and Acetaminophen 300 mg Tablets is suitable for submission as an ANDA based on a change in strength of the acetaminophen component from 325 mg to 300 mg</t>
+          <t>FDA should refrain from approving any NDA or sNDA for a liquid bendamustine formulation unless and until the applicant demonstrates that (1) degradation products are within acceptable limits, (2) excipient safety is proven (particularly for DMA), and (3) the risk of dosing errors due to higher concentration is addressed.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>The petitioner argues that reducing the acetaminophen strength does not raise questions of safety or effectiveness because the proposed maximum daily dose (2.4g) is consistent with safe exposure levels, and that FDA has previously approved other products containing 300 mg of acetaminophen in combination therapies. The indication, usage, and labeling would remain otherwise unchanged.</t>
+          <t>The petitioner argues that a liquid formulation of Treanda could introduce harmful degradation products not present in the lyophilized form, expose patients to unsafe levels of toxic solvents like DMA, and significantly increase the risk of dosing errors due to a much higher drug concentration, all of which require thorough evaluation before any approval.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0693-0001_Center_for_Medicine_in_the_Public_Interest_Citizen.pdf</t>
+          <t>FDA-2013-P-0694-0001_Elite_Laboratories_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>June 6, 2013</t>
+          <t>May 31, 2013</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Center for Medicine in the Public Interest</t>
+          <t>Elite Laboratories, Inc.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -6310,39 +6310,39 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30; Section 505(b)(2) of the Federal Food, Drug, and Cosmetic Act; ICH Guideline Q3B(R2); ICH Guideline Q3C(R5); USP General Chapter &lt;467&gt;</t>
+          <t>21 CFR 314.122; 21 CFR 25.31</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Approval of a New Drug Application (NDA) or Supplemental NDA (sNDA) for a liquid formulation of Treanda® (bendamustine hydrochloride)</t>
+          <t>Designation and use of a Reference Listed Drug (RLD) for an ANDA application where the original RLD (Drixoral) is unavailable in the marketplace</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>FDA should refrain from approving any NDA or sNDA for a liquid bendamustine formulation unless and until the applicant demonstrates that (1) degradation products are within acceptable limits, (2) excipient safety is proven (particularly for DMA), and (3) the risk of dosing errors due to higher concentration is addressed.</t>
+          <t>Request for FDA to determine that the approved and marketed product under ANDA 078648 (Avanthi, Inc.) is suitable for use as a Reference Listed Drug and to allow its use for a product containing an equivalent active ingredient with a different salt form (pseudoephedrine hydrochloride instead of sulfate).</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>The petitioner argues that a liquid formulation of Treanda could introduce harmful degradation products not present in the lyophilized form, expose patients to unsafe levels of toxic solvents like DMA, and significantly increase the risk of dosing errors due to a much higher drug concentration, all of which require thorough evaluation before any approval.</t>
+          <t>The originally listed RLD (Drixoral) has been unavailable since 2008, and there is no indication it was withdrawn for safety reasons. The approved ANDA product (Avanthi’s) is marketed and contains equivalent active ingredients. Additionally, the FDA’s OTC monograph states that pseudoephedrine sulfate and pseudoephedrine hydrochloride are equivalent for nasal decongestant and bronchodilator use.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0694-0001_Elite_Laboratories_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0695-0001_Steven_A_Zecola_Citizen_Petition_Redacted.pdf</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>May 31, 2013</t>
+          <t>June 5, 2013</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Elite Laboratories, Inc.</t>
+          <t>Steven A. Zecola</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6352,333 +6352,333 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>21 CFR 314.122; 21 CFR 25.31</t>
+          <t>21 CFR 10.30; Part 25.30 of the FDA's Administrative Practices and Procedures</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Designation and use of a Reference Listed Drug (RLD) for an ANDA application where the original RLD (Drixoral) is unavailable in the marketplace</t>
+          <t>FDA's current drug approval process and clinical trial design as it pertains to the treatment of metastatic cancer</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Request for FDA to determine that the approved and marketed product under ANDA 078648 (Avanthi, Inc.) is suitable for use as a Reference Listed Drug and to allow its use for a product containing an equivalent active ingredient with a different salt form (pseudoephedrine hydrochloride instead of sulfate).</t>
+          <t>Request for the FDA to (1) internally examine and modify its practices, regulations, and organizational structure for addressing metastatic cancer, (2) establish a Center for the Treatment of Metastatic Cancer, (3) modify trial design for metastatic cancer by collapsing three trial phases into two, and (4) champion an increase in the federal research budget for metastatic cancer from about 8% to 15% of total cancer research spending.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>The originally listed RLD (Drixoral) has been unavailable since 2008, and there is no indication it was withdrawn for safety reasons. The approved ANDA product (Avanthi’s) is marketed and contains equivalent active ingredients. Additionally, the FDA’s OTC monograph states that pseudoephedrine sulfate and pseudoephedrine hydrochloride are equivalent for nasal decongestant and bronchodilator use.</t>
+          <t>The petitioner argues that metastatic cancer is responsible for 90% of cancer deaths and that current FDA trial designs are inappropriate for metastatic cancer compounds, which are aimed at delaying metastasis rather than shrinking primary tumors. Current processes discourage investment and progress. Revised trial structures and greater research focus are needed to improve treatment options and societal outcomes.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0695-0001_Steven_A_Zecola_Citizen_Petition_Redacted.pdf</t>
+          <t>FDA-2013-P-0701-0001_Organic_PasturesDairy_Co_LLC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>June 5, 2013</t>
+          <t>May 31, 2013</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Steven A. Zecola</t>
+          <t>Organic Pastures Dairy Company, LLC</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Not Representing Another Entity</t>
+          <t>Not Represented by Another Entity</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>21 CFR 10.30; Part 25.30 of the FDA's Administrative Practices and Procedures</t>
+          <t>21 C.F.R. 10.25, 10.30, 10.30(j), 10.45(f), 10.20(c)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>FDA's current drug approval process and clinical trial design as it pertains to the treatment of metastatic cancer</t>
+          <t>Denial of the original 2008 citizen petition seeking amendment to 21 C.F.R. 1240.61 (regulation prohibiting interstate sale of raw milk and raw dairy products)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Request for the FDA to (1) internally examine and modify its practices, regulations, and organizational structure for addressing metastatic cancer, (2) establish a Center for the Treatment of Metastatic Cancer, (3) modify trial design for metastatic cancer by collapsing three trial phases into two, and (4) champion an increase in the federal research budget for metastatic cancer from about 8% to 15% of total cancer research spending.</t>
+          <t>Modify the February 26, 2013 denial to allow interstate delivery, sale, or distribution of raw milk and raw dairy products from the seller’s state to the destination state</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>The petitioner argues that metastatic cancer is responsible for 90% of cancer deaths and that current FDA trial designs are inappropriate for metastatic cancer compounds, which are aimed at delaying metastasis rather than shrinking primary tumors. Current processes discourage investment and progress. Revised trial structures and greater research focus are needed to improve treatment options and societal outcomes.</t>
+          <t>Raw milk promotes healthy gut bacteria essential for human health; scientific studies show benefits of raw milk (e.g., reduced asthma, allergies, diabetes risk); existing state regulatory programs ensure safety; FDA treats raw milk unfairly compared to other foods; responsible production standards exist; and modifying the regulation would yield public health, environmental, and economic benefits.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0701-0001_Organic_PasturesDairy_Co_LLC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0703-0001_Center_for_Lawful_Access_and_Abuse_Deterrence_Citi.pdf</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>May 31, 2013</t>
+          <t>June 11, 2013</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Organic Pastures Dairy Company, LLC</t>
+          <t>Center for Lawful Access and Abuse Deterrence (CLAAD), with additional signatories from National Association of Drug Diversion Investigators, Ryan’s Cause, and National Family Partnership</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Not Represented by Another Entity</t>
+          <t>No legal representation mentioned; petition submitted directly by organizations</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>21 C.F.R. 10.25, 10.30, 10.30(j), 10.45(f), 10.20(c)</t>
+          <t>21 C.F.R. §§ 5.10, 10.30; Stop Tampering of Prescription Pills Act of 2013 (H.R. 486, 113th Cong. § 2(b) (2013))</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Denial of the original 2008 citizen petition seeking amendment to 21 C.F.R. 1240.61 (regulation prohibiting interstate sale of raw milk and raw dairy products)</t>
+          <t>FDA policies regarding the approval of opioid drug products and the promotion of Medication-Assisted Treatment (MAT)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Modify the February 26, 2013 denial to allow interstate delivery, sale, or distribution of raw milk and raw dairy products from the seller’s state to the destination state</t>
+          <t>(1) immediately reject NDAs and ANDAs for opioid products lacking predictive or determinative data on abuse deterrence; (2) acknowledge in writing that clinical benefits of MAT include outcomes beyond prolonged abstinence; and (3) prioritize and expedite guidance to industry on effectiveness and abuse-deterrence requirements</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Raw milk promotes healthy gut bacteria essential for human health; scientific studies show benefits of raw milk (e.g., reduced asthma, allergies, diabetes risk); existing state regulatory programs ensure safety; FDA treats raw milk unfairly compared to other foods; responsible production standards exist; and modifying the regulation would yield public health, environmental, and economic benefits.</t>
+          <t>Petitioners justify their request by citing the opioid abuse epidemic, the need for FDA regulatory action aligned with Obama Administration policy promoting abuse-deterrent opioids and MAT, the public health risks associated with approving non-abuse-deterrent opioids, economic impacts of prescription drug abuse, and the necessity for the FDA to support innovation by providing regulatory clarity to pharmaceutical companies.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0703-0001_Center_for_Lawful_Access_and_Abuse_Deterrence_Citi.pdf</t>
+          <t>FDA-2013-P-0711-0001_Allergy_Asthma_Network_Mothers_of_Asthmatics_Citiz.pdf</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>June 11, 2013</t>
+          <t>May 15, 2013</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Center for Lawful Access and Abuse Deterrence (CLAAD), with additional signatories from National Association of Drug Diversion Investigators, Ryan’s Cause, and National Family Partnership</t>
+          <t>Allergy &amp; Asthma Network Mothers of Asthmatics (AANMA)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>No legal representation mentioned; petition submitted directly by organizations</t>
+          <t>AANMA submitted on its own behalf but is joined by other organizations including AAAAI, AARC, ACAAI, ALAA, ATS, and the COPD Foundation</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>21 C.F.R. §§ 5.10, 10.30; Stop Tampering of Prescription Pills Act of 2013 (H.R. 486, 113th Cong. § 2(b) (2013))</t>
+          <t>21 C.F.R. § 10.30; section 505 (21 U.S.C. 355); sections 503(b), 505(d)(1), and 505(d)(4) of the FDCA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>FDA policies regarding the approval of opioid drug products and the promotion of Medication-Assisted Treatment (MAT)</t>
+          <t>FDA's proposed new paradigm 'Using Innovative Technologies and Other Conditions of Safe Use to Expand Which Drug Products Can Be Considered Nonprescription'</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(1) immediately reject NDAs and ANDAs for opioid products lacking predictive or determinative data on abuse deterrence; (2) acknowledge in writing that clinical benefits of MAT include outcomes beyond prolonged abstinence; and (3) prioritize and expedite guidance to industry on effectiveness and abuse-deterrence requirements</t>
+          <t>Request that FDA exempt asthma and anaphylaxis medications from the proposed new paradigm expanding nonprescription drug access, and maintain these products as prescription-only.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Petitioners justify their request by citing the opioid abuse epidemic, the need for FDA regulatory action aligned with Obama Administration policy promoting abuse-deterrent opioids and MAT, the public health risks associated with approving non-abuse-deterrent opioids, economic impacts of prescription drug abuse, and the necessity for the FDA to support innovation by providing regulatory clarity to pharmaceutical companies.</t>
+          <t>Petitioners argue that FDA's proposal is inconsistent with national guidelines (e.g., NAEPP, NIAID), lacks evidence of safe OTC use for asthma and anaphylaxis drugs, could lead to worse health outcomes, undermines physician-patient care models, and risks increased morbidity and mortality by encouraging reliance on quick-relief medications without physician supervision.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0711-0001_Allergy_Asthma_Network_Mothers_of_Asthmatics_Citiz.pdf</t>
+          <t>FDA-2013-P-0761-0001_Poly_Cell_Technologies_LLC___Health_Claim_Petition.pdf</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>May 15, 2013</t>
+          <t>January 31, 2013</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Allergy &amp; Asthma Network Mothers of Asthmatics (AANMA)</t>
+          <t>PolyCell Technologies LLC and DKSH Italia Srl</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>AANMA submitted on its own behalf but is joined by other organizations including AAAAI, AARC, ACAAI, ALAA, ATS, and the COPD Foundation</t>
+          <t>PolyCell Technologies LLC and DKSH Italia Srl are jointly submitting; PolyCell Technologies will serve as the primary correspondent</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30; section 505 (21 U.S.C. 355); sections 503(b), 505(d)(1), and 505(d)(4) of the FDCA</t>
+          <t>Section 403(r)(4) of the Food, Drug, and Cosmetic Act; 21 CFR 101.81; 21 CFR 101.14</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>FDA's proposed new paradigm 'Using Innovative Technologies and Other Conditions of Safe Use to Expand Which Drug Products Can Be Considered Nonprescription'</t>
+          <t>Expansion of the 'Soluble Fiber from Certain Foods and Risk of Coronary Heart Disease Health Claim' to include Glucagel barley beta-glucan fiber</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Request that FDA exempt asthma and anaphylaxis medications from the proposed new paradigm expanding nonprescription drug access, and maintain these products as prescription-only.</t>
+          <t>Expand the health claim to include Glucagel barley beta-glucan fiber as an eligible substance under 21 CFR 101.81, and issue an Interim Final Rule allowing labeling pending finalization</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Petitioners argue that FDA's proposal is inconsistent with national guidelines (e.g., NAEPP, NIAID), lacks evidence of safe OTC use for asthma and anaphylaxis drugs, could lead to worse health outcomes, undermines physician-patient care models, and risks increased morbidity and mortality by encouraging reliance on quick-relief medications without physician supervision.</t>
+          <t>The petitioners argue that Glucagel barley beta-glucan fiber meets the FDA's criteria for a health claim because it is safe, provides nutritive value, is associated with reduced risk of coronary heart disease, and has significant supporting scientific evidence from human and animal studies. They also highlight that soluble fiber intake in the U.S. is below recommended levels, and that allowing Glucagel would help increase public intake of beneficial soluble fibers.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0735-0001_Acknowledgement_Letter_to_Mario_Morais_Redacted.pdf</t>
+          <t>FDA-2013-P-0766-0001_Amedra_Pharmaceuticals_LLC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>June 11, 2013</t>
+          <t>June 18, 2013</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Mario Morais</t>
+          <t>Amedra Pharmaceuticals LLC</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Not Representing Another Entity</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 USC 355; 21 CFR 10.30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Request for the Ombudsman of the Center for Devices and Radiological Health (CDRH) to send a comment to the Executive Secretariat, include the comment inside the FDA folder, and answer the comment with tracking number 0807-1412-913</t>
+          <t>FDA's Draft Guidance on Albendazole bioequivalence requirements</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(1) Send the comment to the Executive Secretariat; (2) Include the comment inside the FDA folder; (3) Respond to the comment associated with tracking number 0807-1412-913</t>
+          <t>Request that FDA refrain from approving any ANDA referencing ALBENZA unless the ANDA demonstrates (i) bioequivalence based on systemic levels of both albendazole and albendazole sulfoxide, (ii) includes labeling identical to ALBENZA's labeling, particularly pediatric safety instructions, and (iii) includes simulated use testing showing the tablet can be crushed, chewed, and swallowed safely by young children without posing a choking hazard</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>Because ALBENZA undergoes significant first-pass metabolism to its active form (albendazole sulfoxide), bioequivalence should be demonstrated on both parent and metabolite; pediatric safety labeling is crucial due to a documented choking hazard; simulated use testing is necessary to confirm generic tablets can be safely administered to young children without increasing choking risk</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0761-0001_Poly_Cell_Technologies_LLC___Health_Claim_Petition.pdf</t>
+          <t>FDA-2013-P-0767-0001_Ascend_Laboratories_LLC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>January 31, 2013</t>
+          <t>June 13, 2013</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PolyCell Technologies LLC and DKSH Italia Srl</t>
+          <t>Ascend Laboratories, LLC</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PolyCell Technologies LLC and DKSH Italia Srl are jointly submitting; PolyCell Technologies will serve as the primary correspondent</t>
+          <t>Not Representing Another Entity</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Section 403(r)(4) of the Food, Drug, and Cosmetic Act; 21 CFR 101.81; 21 CFR 101.14</t>
+          <t>21 CFR 10.25(a); 21 CFR 10.30; 21 CFR 25.31</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Expansion of the 'Soluble Fiber from Certain Foods and Risk of Coronary Heart Disease Health Claim' to include Glucagel barley beta-glucan fiber</t>
+          <t>Approval of a new oral suspension dosage form for tacrolimus in addition to the currently approved capsule and injection forms under NDA 050708 (PROGRAF)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Expand the health claim to include Glucagel barley beta-glucan fiber as an eligible substance under 21 CFR 101.81, and issue an Interim Final Rule allowing labeling pending finalization</t>
+          <t>Request FDA to determine that Tacrolimus Oral Suspension is a suitable additional dosage form for NDA 050708 (PROGRAF) and permit submission of an application for this form</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>The petitioners argue that Glucagel barley beta-glucan fiber meets the FDA's criteria for a health claim because it is safe, provides nutritive value, is associated with reduced risk of coronary heart disease, and has significant supporting scientific evidence from human and animal studies. They also highlight that soluble fiber intake in the U.S. is below recommended levels, and that allowing Glucagel would help increase public intake of beneficial soluble fibers.</t>
+          <t>The current capsule formulation is not suitable for pediatric patients and adults with swallowing difficulties. Extemporaneous suspensions currently used are not prepared under CGMP standards, posing safety and efficacy concerns. An FDA-approved suspension would ensure safe, standardized dosing and protect healthcare providers during compounding processes.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0766-0001_Amedra_Pharmaceuticals_LLC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0768-0001_Salus_Pharma_LLC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>June 18, 2013</t>
+          <t>June 17, 2013</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Amedra Pharmaceuticals LLC</t>
+          <t>Salus Pharma, LLC</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>Not Representing Another Entity</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>21 USC 355; 21 CFR 10.30</t>
+          <t>21 CFR 10.30; 21 CFR 314.161; 21 CFR 314.162; 21 CFR 25.31</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>FDA's Draft Guidance on Albendazole bioequivalence requirements</t>
+          <t>FDA's determination regarding whether Zefazone (cefmetazole sodium) injection, EQ 1 GM base/vial and EQ 2 GM base/vial was withdrawn for safety or effectiveness reasons</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Request that FDA refrain from approving any ANDA referencing ALBENZA unless the ANDA demonstrates (i) bioequivalence based on systemic levels of both albendazole and albendazole sulfoxide, (ii) includes labeling identical to ALBENZA's labeling, particularly pediatric safety instructions, and (iii) includes simulated use testing showing the tablet can be crushed, chewed, and swallowed safely by young children without posing a choking hazard</t>
+          <t>Request that the FDA determine whether Zefazone (cefmetazole sodium) injection, EQ 1 GM base/vial and EQ 2 GM base/vial was voluntarily withdrawn for reasons of safety or effectiveness</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Because ALBENZA undergoes significant first-pass metabolism to its active form (albendazole sulfoxide), bioequivalence should be demonstrated on both parent and metabolite; pediatric safety labeling is crucial due to a documented choking hazard; simulated use testing is necessary to confirm generic tablets can be safely administered to young children without increasing choking risk</t>
+          <t>Zefazone is currently listed as discontinued in the Orange Book; Pharmacia and Upjohn requested withdrawal of the application, but no evidence suggests withdrawal for safety or efficacy reasons. A determination is necessary to permit ANDA submissions referencing Zefazone as the RLD.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0767-0001_Ascend_Laboratories_LLC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0769-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>June 13, 2013</t>
+          <t>June 18, 2013</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ascend Laboratories, LLC</t>
+          <t>Lachman Consultant Services, Inc.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -6688,202 +6688,202 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>21 CFR 10.25(a); 21 CFR 10.30; 21 CFR 25.31</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.20; 21 CFR 10.30; 21 CFR 25.31</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Approval of a new oral suspension dosage form for tacrolimus in addition to the currently approved capsule and injection forms under NDA 050708 (PROGRAF)</t>
+          <t>FDA approval policies regarding the submission of an Abbreviated New Drug Application (ANDA) for Bendamustine Hydrochloride for Injection, 200 mg/vial</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Request FDA to determine that Tacrolimus Oral Suspension is a suitable additional dosage form for NDA 050708 (PROGRAF) and permit submission of an application for this form</t>
+          <t>Request FDA to declare that Bendamustine Hydrochloride for Injection, 200 mg/vial, is suitable for submission in an ANDA</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>The current capsule formulation is not suitable for pediatric patients and adults with swallowing difficulties. Extemporaneous suspensions currently used are not prepared under CGMP standards, posing safety and efficacy concerns. An FDA-approved suspension would ensure safe, standardized dosing and protect healthcare providers during compounding processes.</t>
+          <t>The petitioner argues that the proposed drug product is the same as the listed drug (TREANDA) except for a change in total drug content (strength), and that the change will improve convenience and reduce medication errors and healthcare practitioner exposure during reconstitution. The formulation is otherwise identical when reconstituted, and the labeling changes are minimal (only adjusting for strength). The change raises no new questions of safety or effectiveness.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0768-0001_Salus_Pharma_LLC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0775-0001_Hyman_Phelps_McNamara_PC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>June 17, 2013</t>
+          <t>June 25, 2013</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Salus Pharma, LLC</t>
+          <t>Hyman, Phelps &amp; McNamara, P.C. (on behalf of an unnamed client)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Not Representing Another Entity</t>
+          <t>Representing a client (client's name not disclosed)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>21 CFR 10.30; 21 CFR 314.161; 21 CFR 314.162; 21 CFR 25.31</t>
+          <t>21 C.F.R. §§ 10.25, 10.30, 314.161, 314.162; Sections 505(j) and 505(w) of the Federal Food, Drug, and Cosmetic Act</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>FDA's determination regarding whether Zefazone (cefmetazole sodium) injection, EQ 1 GM base/vial and EQ 2 GM base/vial was withdrawn for safety or effectiveness reasons</t>
+          <t>Determination regarding whether the 12 mg strength of INVEGA (paliperidone) Extended-release Tablets was withdrawn for safety or effectiveness reasons</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Request that the FDA determine whether Zefazone (cefmetazole sodium) injection, EQ 1 GM base/vial and EQ 2 GM base/vial was voluntarily withdrawn for reasons of safety or effectiveness</t>
+          <t>Request that the FDA determine that the 12 mg strength of INVEGA was not withdrawn for reasons of safety or effectiveness</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Zefazone is currently listed as discontinued in the Orange Book; Pharmacia and Upjohn requested withdrawal of the application, but no evidence suggests withdrawal for safety or efficacy reasons. A determination is necessary to permit ANDA submissions referencing Zefazone as the RLD.</t>
+          <t>There is no evidence that the 12 mg strength was ever marketed or withdrawn for safety or effectiveness reasons. It was approved but never marketed, and thus should still be eligible for use as a reference product in ANDA submissions for generic versions.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0769-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0776-0001_Biotechnology_Information_Institute_Citizen_Petiti.pdf</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>June 18, 2013</t>
+          <t>June 21, 2013</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Lachman Consultant Services, Inc.</t>
+          <t>Biotechnology Information Institute</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Not Representing Another Entity</t>
+          <t>No representation of another entity; the petitioner is the President of the submitting organization.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.20; 21 CFR 10.30; 21 CFR 25.31</t>
+          <t>Federal Food, Drug, and Cosmetic Act; Public Health Service Act; 21 CFR 5.10</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FDA approval policies regarding the submission of an Abbreviated New Drug Application (ANDA) for Bendamustine Hydrochloride for Injection, 200 mg/vial</t>
+          <t>FDA’s practice regarding biologics nomenclature and public disclosure of biologic product identity information</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Request FDA to declare that Bendamustine Hydrochloride for Injection, 200 mg/vial, is suitable for submission in an ANDA</t>
+          <t>Request the FDA to assign unique and biosimilar/(bio)generic-type names/identifiers to biologic products and their active agents, and to disclose sufficient public information to enable understanding of product identity.</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>The petitioner argues that the proposed drug product is the same as the listed drug (TREANDA) except for a change in total drug content (strength), and that the change will improve convenience and reduce medication errors and healthcare practitioner exposure during reconstitution. The formulation is otherwise identical when reconstituted, and the labeling changes are minimal (only adjusting for strength). The change raises no new questions of safety or effectiveness.</t>
+          <t>The petitioner argues that biologics lack functional non-proprietary names and sufficient public information concerning product identity, leading to ambiguity and potential public health risks; the FDA is the only organization capable of implementing needed changes to nomenclature and public disclosures without significantly new resources or expenditures.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0775-0001_Hyman_Phelps_McNamara_PC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0799-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>June 25, 2013</t>
+          <t>June 28, 2013</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Hyman, Phelps &amp; McNamara, P.C. (on behalf of an unnamed client)</t>
+          <t>Lachman Consultant Services, Inc.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Representing a client (client's name not disclosed)</t>
+          <t>Submitting on behalf of a client (client not specifically named)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>21 C.F.R. §§ 10.25, 10.30, 314.161, 314.162; Sections 505(j) and 505(w) of the Federal Food, Drug, and Cosmetic Act</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.30; 21 CFR 25.31</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Determination regarding whether the 12 mg strength of INVEGA (paliperidone) Extended-release Tablets was withdrawn for safety or effectiveness reasons</t>
+          <t>Request for approval of a Suitability Petition to allow submission of an ANDA for Griseofulvin Tablets, 187.5 mg and 375 mg, based on the RLD Gris-PEG® 250 mg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Request that the FDA determine that the 12 mg strength of INVEGA was not withdrawn for reasons of safety or effectiveness</t>
+          <t>Request FDA to declare that Griseofulvin Tablets, 187.5 mg and 375 mg, are suitable for submission as an ANDA referencing Gris-PEG® Tablets, 250 mg</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>There is no evidence that the 12 mg strength was ever marketed or withdrawn for safety or effectiveness reasons. It was approved but never marketed, and thus should still be eligible for use as a reference product in ANDA submissions for generic versions.</t>
+          <t>The proposed strengths (187.5 mg and 375 mg) are within the dosing range already described in the RLD's labeling, would provide greater dosing flexibility for pediatric and adult patients, reduce the need for crushing tablets for administration, and help optimize dosing convenience and safety without raising new questions of safety or effectiveness.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0776-0001_Biotechnology_Information_Institute_Citizen_Petiti.pdf</t>
+          <t>FDA-2013-P-0800-0001_Lachman_Consultant_Sevices_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>June 21, 2013</t>
+          <t>June 28, 2013</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Biotechnology Information Institute</t>
+          <t>Lachman Consultant Services, Inc.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>No representation of another entity; the petitioner is the President of the submitting organization.</t>
+          <t>Representing a client (client's name not disclosed)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Federal Food, Drug, and Cosmetic Act; Public Health Service Act; 21 CFR 5.10</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.30; 21 CFR 25.31</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>FDA’s practice regarding biologics nomenclature and public disclosure of biologic product identity information</t>
+          <t>Approval of a Suitability Petition to allow submission of an ANDA for Dapsone Tablets, 50 mg, based on the RLD Dapsone Tablets USP, 100 mg (ANDA 86-842)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Request the FDA to assign unique and biosimilar/(bio)generic-type names/identifiers to biologic products and their active agents, and to disclose sufficient public information to enable understanding of product identity.</t>
+          <t>Request FDA to declare that Dapsone Tablets, 50 mg, are suitable for submission as an ANDA referencing the RLD Dapsone Tablets, 100 mg</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>The petitioner argues that biologics lack functional non-proprietary names and sufficient public information concerning product identity, leading to ambiguity and potential public health risks; the FDA is the only organization capable of implementing needed changes to nomenclature and public disclosures without significantly new resources or expenditures.</t>
+          <t>The 50 mg strength is consistent with dosing instructions in the approved labeling for the RLD, would provide greater flexibility for dosage titration, reduce adverse effects, and does not raise any new questions of safety or effectiveness compared to the approved 100 mg product.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0799-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0813-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>June 28, 2013</t>
+          <t>July 2, 2013</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Submitting on behalf of a client (client not specifically named)</t>
+          <t>Representing a client (client's name not disclosed)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -6903,29 +6903,29 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Request for approval of a Suitability Petition to allow submission of an ANDA for Griseofulvin Tablets, 187.5 mg and 375 mg, based on the RLD Gris-PEG® 250 mg</t>
+          <t>Approval of a Suitability Petition to allow submission of an ANDA for Hydrocodone Bitartrate and Acetaminophen Tablets USP, 4 mg/300 mg, 6 mg/300 mg, and 8 mg/300 mg</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Request FDA to declare that Griseofulvin Tablets, 187.5 mg and 375 mg, are suitable for submission as an ANDA referencing Gris-PEG® Tablets, 250 mg</t>
+          <t>Request FDA to declare that Hydrocodone Bitartrate and Acetaminophen Tablets USP, 4 mg/300 mg, 6 mg/300 mg, and 8 mg/300 mg are suitable for submission as an ANDA</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>The proposed strengths (187.5 mg and 375 mg) are within the dosing range already described in the RLD's labeling, would provide greater dosing flexibility for pediatric and adult patients, reduce the need for crushing tablets for administration, and help optimize dosing convenience and safety without raising new questions of safety or effectiveness.</t>
+          <t>The petitioner argues that the new strengths offer additional dosing flexibility, allow titration to the lowest effective dose to minimize narcotic exposure, and are consistent with the dosing recommendations of the reference listed drugs. The changes do not raise new questions of safety or effectiveness.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0800-0001_Lachman_Consultant_Sevices_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0830-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>June 28, 2013</t>
+          <t>July 9, 2013</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -6945,71 +6945,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Approval of a Suitability Petition to allow submission of an ANDA for Dapsone Tablets, 50 mg, based on the RLD Dapsone Tablets USP, 100 mg (ANDA 86-842)</t>
+          <t>Approval of a Suitability Petition to allow submission of an ANDA for Hydromorphone HCl Extended-Release Tablets, 24 mg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Request FDA to declare that Dapsone Tablets, 50 mg, are suitable for submission as an ANDA referencing the RLD Dapsone Tablets, 100 mg</t>
+          <t>Request FDA to declare that Hydromorphone HCl Extended-Release Tablets, 24 mg, are suitable for submission as an ANDA referencing EXALGO (hydromorphone HCl) Extended-Release Tablets, 32 mg</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>The 50 mg strength is consistent with dosing instructions in the approved labeling for the RLD, would provide greater flexibility for dosage titration, reduce adverse effects, and does not raise any new questions of safety or effectiveness compared to the approved 100 mg product.</t>
+          <t>The petitioner argues that the proposed 24 mg strength is consistent with the dosing recommendations of the RLD, provides improved dosing flexibility for titration and tapering, minimizes adverse reactions, and does not raise new questions of safety or effectiveness. The Pediatric Research Equity Act (PREA) requirements are also asserted not to apply to this petition.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0813-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0846-0001_KL_Gates_LLP_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>July 2, 2013</t>
+          <t>July 10, 2013</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lachman Consultant Services, Inc.</t>
+          <t>K&amp;L Gates LLP</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Representing a client (client's name not disclosed)</t>
+          <t>Yes, K&amp;L Gates LLP is representing a generic drug manufacturer client (not named specifically)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.30; 21 CFR 25.31</t>
+          <t>Section 505(j) of the Federal Food, Drug, and Cosmetic Act (FDCA); 21 C.F.R. § 10.30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Approval of a Suitability Petition to allow submission of an ANDA for Hydrocodone Bitartrate and Acetaminophen Tablets USP, 4 mg/300 mg, 6 mg/300 mg, and 8 mg/300 mg</t>
+          <t>FDA's policy requiring ANDA applicants to use U.S.-sourced reference listed drugs (RLD) for bioequivalence studies</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Request FDA to declare that Hydrocodone Bitartrate and Acetaminophen Tablets USP, 4 mg/300 mg, 6 mg/300 mg, and 8 mg/300 mg are suitable for submission as an ANDA</t>
+          <t>Request FDA to permit the client to use KUVAN drug product obtained in Israel as the reference product for bioequivalence studies in support of an ANDA submission</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>The petitioner argues that the new strengths offer additional dosing flexibility, allow titration to the lowest effective dose to minimize narcotic exposure, and are consistent with the dosing recommendations of the reference listed drugs. The changes do not raise new questions of safety or effectiveness.</t>
+          <t>The petitioner argues that BioMarin, the manufacturer of KUVAN, has implemented a restrictive distribution scheme preventing generic manufacturers from obtaining the U.S.-marketed RLD, and that the KUVAN product marketed in Israel is materially the same as the U.S. product; allowing use of the Israeli product would support generic competition and prevent misuse of the Hatch-Waxman system.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0830-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0847-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>July 9, 2013</t>
+          <t>July 10, 2013</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Representing a client (client's name not disclosed)</t>
+          <t>Yes, representing a client (client's name not disclosed)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -7029,738 +7029,738 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Approval of a Suitability Petition to allow submission of an ANDA for Hydromorphone HCl Extended-Release Tablets, 24 mg</t>
+          <t>FDA’s policy on allowing a new strength drug product to be submitted through an ANDA pathway</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Request FDA to declare that Hydromorphone HCl Extended-Release Tablets, 24 mg, are suitable for submission as an ANDA referencing EXALGO (hydromorphone HCl) Extended-Release Tablets, 32 mg</t>
+          <t>Request FDA to declare that Tizanidine Hydrochloride Tablets, 8 mg, are suitable for submission in an Abbreviated New Drug Application (ANDA) referencing Zanaflex® (4 mg)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>The petitioner argues that the proposed 24 mg strength is consistent with the dosing recommendations of the RLD, provides improved dosing flexibility for titration and tapering, minimizes adverse reactions, and does not raise new questions of safety or effectiveness. The Pediatric Research Equity Act (PREA) requirements are also asserted not to apply to this petition.</t>
+          <t>The petitioner argues that the 8 mg strength aligns with the dosing regimen already recommended for the reference listed drug, improves patient convenience by reducing the number of tablets needed per dose, potentially improves patient compliance, and does not raise new questions of safety or efficacy.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0846-0001_KL_Gates_LLP_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0848-0001_Hyman_Phelps_McNamara_PC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>July 10, 2013</t>
+          <t>July 11, 2013</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>K&amp;L Gates LLP</t>
+          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Yes, K&amp;L Gates LLP is representing a generic drug manufacturer client (not named specifically)</t>
+          <t>Yes, representing an unnamed client</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Section 505(j) of the Federal Food, Drug, and Cosmetic Act (FDCA); 21 C.F.R. § 10.30</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.20(a); 21 CFR 10.30; 21 CFR 314.93</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>FDA's policy requiring ANDA applicants to use U.S.-sourced reference listed drugs (RLD) for bioequivalence studies</t>
+          <t>FDA's designation of reference listed drugs (RLDs) in the Orange Book</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Request FDA to permit the client to use KUVAN drug product obtained in Israel as the reference product for bioequivalence studies in support of an ANDA submission</t>
+          <t>Request FDA to designate Oxacillin for Injection 1g and 2g in ADD-Vantage Vial (approved under ANDA No. 062737) as a Reference Listed Drug (RLD)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>The petitioner argues that BioMarin, the manufacturer of KUVAN, has implemented a restrictive distribution scheme preventing generic manufacturers from obtaining the U.S.-marketed RLD, and that the KUVAN product marketed in Israel is materially the same as the U.S. product; allowing use of the Israeli product would support generic competition and prevent misuse of the Hatch-Waxman system.</t>
+          <t>The petitioner argues that the currently designated RLD (Oxacillin for Injection in a Flip-Top Vial) has different packaging and administration routes compared to the ADD-Vantage Vial product, and that without RLD designation for the ADD-Vantage product, generic competition would be shielded. Citing FDA policy, the petitioner contends there is a sound basis for designating the ADD-Vantage product as an additional RLD.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0847-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0849-0001_Hyman_Phelps_McNamara_PC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>July 10, 2013</t>
+          <t>July 11, 2013</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Lachman Consultant Services, Inc.</t>
+          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Yes, representing a client (client's name not disclosed)</t>
+          <t>Yes, representing an unnamed client</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.30; 21 CFR 25.31</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.20(a); 21 CFR 10.30; 21 CFR 314.93</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>FDA’s policy on allowing a new strength drug product to be submitted through an ANDA pathway</t>
+          <t>Designation of Reference Listed Drugs (RLDs) in the Orange Book</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Request FDA to declare that Tizanidine Hydrochloride Tablets, 8 mg, are suitable for submission in an Abbreviated New Drug Application (ANDA) referencing Zanaflex® (4 mg)</t>
+          <t>Request FDA to designate Ampicillin for Injection 1g and 2g in ADD-Vantage Vial (approved under ANDA No. 062738) as a Reference Listed Drug (RLD)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>The petitioner argues that the 8 mg strength aligns with the dosing regimen already recommended for the reference listed drug, improves patient convenience by reducing the number of tablets needed per dose, potentially improves patient compliance, and does not raise new questions of safety or efficacy.</t>
+          <t>The petitioner argues that the current RLD (Ampicillin for Injection in Flip-Top Vial) is approved for both IM and IV use, whereas the ADD-Vantage Vial product is approved only for IV use in a different container/closure system. Designating the ADD-Vantage Vial as an RLD would promote generic competition specifically for that IV-only product configuration.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0848-0001_Hyman_Phelps_McNamara_PC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0850-0001_Teva_Pharmaceutical_Industries_Ltd_Teva_Respirator.pdf</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>July 11, 2013</t>
+          <t>July 12, 2013</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
+          <t>Teva Pharmaceutical Industries Ltd., Teva Respiratory, LLC</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Yes, representing an unnamed client</t>
+          <t>Teva Respiratory, LLC is a subsidiary of Teva Pharmaceutical Industries Ltd.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.20(a); 21 CFR 10.30; 21 CFR 314.93</t>
+          <t>21 C.F.R. § 10.30; 21 U.S.C. §§ 355(b)(2), 355(j), and 355(q)</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>FDA's designation of reference listed drugs (RLDs) in the Orange Book</t>
+          <t>Approval of any Abbreviated New Drug Application (ANDA) or 505(b)(2) Application referencing ProAir® HFA (albuterol sulfate) Inhalation Aerosol</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Request FDA to designate Oxacillin for Injection 1g and 2g in ADD-Vantage Vial (approved under ANDA No. 062737) as a Reference Listed Drug (RLD)</t>
+          <t>Requesting that FDA refrain from approving any ANDA or 505(b)(2) application referencing ProAir® HFA unless certain conditions regarding dose counters and prevention of canister/actuator mismatches are met</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>The petitioner argues that the currently designated RLD (Oxacillin for Injection in a Flip-Top Vial) has different packaging and administration routes compared to the ADD-Vantage Vial product, and that without RLD designation for the ADD-Vantage product, generic competition would be shielded. Citing FDA policy, the petitioner contends there is a sound basis for designating the ADD-Vantage product as an additional RLD.</t>
+          <t>To ensure safety and efficacy, Teva argues that the presence of a dose counter is critical for patient safety because patients might unknowingly use inhalers past their effective dose limit without it; also stresses the need for in vitro and clinical testing to confirm dose counter functionality and the need to mitigate risks of canister/actuator mismatches to avoid dosing errors.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0849-0001_Hyman_Phelps_McNamara_PC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0862-0001_Spec_Pharma_LLC_Fish_Richardson_PC_Citizen_Petitio.pdf</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>July 11, 2013</t>
+          <t>July 12, 2013</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
+          <t>Spec Pharma, LLC</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Yes, representing an unnamed client</t>
+          <t>Fish &amp; Richardson P.C. representing Spec Pharma, LLC</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 10.20(a); 21 CFR 10.30; 21 CFR 314.93</t>
+          <t>21 U.S.C. § 355 (Section 505 of the Federal Food, Drug, and Cosmetic Act), 21 C.F.R. § 10.30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Designation of Reference Listed Drugs (RLDs) in the Orange Book</t>
+          <t>The New Animal Drug Application (NADA) for BetaVet submitted by Luitpold Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Request FDA to designate Ampicillin for Injection 1g and 2g in ADD-Vantage Vial (approved under ANDA No. 062738) as a Reference Listed Drug (RLD)</t>
+          <t>Requesting that the FDA refrain from granting approval of the BetaVet NADA until arbitration resolves ownership rights in relevant data, advise the applicant of deficiencies in the NADA, and require the applicant to obtain Petitioner's consent if ownership rights are confirmed.</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>The petitioner argues that the current RLD (Ampicillin for Injection in Flip-Top Vial) is approved for both IM and IV use, whereas the ADD-Vantage Vial product is approved only for IV use in a different container/closure system. Designating the ADD-Vantage Vial as an RLD would promote generic competition specifically for that IV-only product configuration.</t>
+          <t>Petitioner alleges that the BetaVet NADA improperly uses or references data owned by Spec Pharma without authorization, violating FDA policies protecting property rights in data. They argue the ownership of the data is under arbitration and the FDA should not approve the application until the matter is resolved to prevent misappropriation and ensure regulatory compliance.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0850-0001_Teva_Pharmaceutical_Industries_Ltd_Teva_Respirator.pdf</t>
+          <t>FDA-2013-P-0884-0001_Eisai_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>July 12, 2013</t>
+          <t>July 25, 2013</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Teva Pharmaceutical Industries Ltd., Teva Respiratory, LLC</t>
+          <t>Eisai Inc.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Teva Respiratory, LLC is a subsidiary of Teva Pharmaceutical Industries Ltd.</t>
+          <t>Eisai Inc. is submitting on its own behalf but has a marketing and supply agreement with Arena Pharmaceuticals GmbH for BELVIQ®.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30; 21 U.S.C. §§ 355(b)(2), 355(j), and 355(q)</t>
+          <t>21 U.S.C. 355(c) and (j); 21 C.F.R. 314.107; 21 C.F.R. 10.30; Controlled Substances Act (CSA); 21 U.S.C. 811; 21 C.F.R. 201.57(a)(2), 201.57(c)(10)(i), and 314.70(b)(2)(v)(C).</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Approval of any Abbreviated New Drug Application (ANDA) or 505(b)(2) Application referencing ProAir® HFA (albuterol sulfate) Inhalation Aerosol</t>
+          <t>The initiation of the five-year New Chemical Entity (NCE) exclusivity period before Eisai could commercially market its products due to pending Controlled Substance scheduling.</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Requesting that FDA refrain from approving any ANDA or 505(b)(2) application referencing ProAir® HFA unless certain conditions regarding dose counters and prevention of canister/actuator mismatches are met</t>
+          <t>(1) Determine the NCE exclusivity for BELVIQ® to start on June 7, 2013; (2) determine the NCE exclusivity for FYCOMPATm to start on the date it can be commercially marketed; (3) provide a substantive response before FYCOMPATm's scheduling is finalized or within five months.</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>To ensure safety and efficacy, Teva argues that the presence of a dose counter is critical for patient safety because patients might unknowingly use inhalers past their effective dose limit without it; also stresses the need for in vitro and clinical testing to confirm dose counter functionality and the need to mitigate risks of canister/actuator mismatches to avoid dosing errors.</t>
+          <t>Eisai argues that FDA incorrectly started the NCE exclusivity periods when products could not yet be legally marketed because Controlled Substance scheduling was incomplete, depriving Eisai of the full exclusivity period intended by Congress, and that this practice is arbitrary, capricious, contrary to law, and undermines innovation incentives.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0862-0001_Spec_Pharma_LLC_Fish_Richardson_PC_Citizen_Petitio.pdf</t>
+          <t>FDA-2013-P-0885-0001_AMAG_Pharmaceuticals_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>July 12, 2013</t>
+          <t>July 24, 2013</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Spec Pharma, LLC</t>
+          <t>AMAG Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Fish &amp; Richardson P.C. representing Spec Pharma, LLC</t>
+          <t>Not Representing Another Entity</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>21 U.S.C. § 355 (Section 505 of the Federal Food, Drug, and Cosmetic Act), 21 C.F.R. § 10.30</t>
+          <t>21 USC 355, 21 CFR 10.30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>The New Animal Drug Application (NADA) for BetaVet submitted by Luitpold Pharmaceuticals, Inc.</t>
+          <t>Draft Guidance on Ferumoxytol (Dec. 2012) and general FDA standards for approving generic versions of nanoparticle intravenous iron products</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Requesting that the FDA refrain from granting approval of the BetaVet NADA until arbitration resolves ownership rights in relevant data, advise the applicant of deficiencies in the NADA, and require the applicant to obtain Petitioner's consent if ownership rights are confirmed.</t>
+          <t>Request that FDA (1) refrain from approving any ANDA referencing Feraheme until Nulecit Post-Market Contract Studies confirm adequacy of FDA's standards for generic IV iron approval; and (2) require any generic applicant to demonstrate equivalence using a comparative clinical endpoint study and additional laboratory assays</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Petitioner alleges that the BetaVet NADA improperly uses or references data owned by Spec Pharma without authorization, violating FDA policies protecting property rights in data. They argue the ownership of the data is under arbitration and the FDA should not approve the application until the matter is resolved to prevent misappropriation and ensure regulatory compliance.</t>
+          <t>Justifications include the complex and incompletely characterized structure of ferumoxytol, inadequacy of plasma/serum measurements to establish bioequivalence, lessons learned from inferior therapeutic equivalence of generic iron sucrose products in the EU, concerns raised in the EMA Reflection Paper, potential public health risks from insufficiently characterized generics, and FDA's own actions soliciting post-market studies for existing generics indicating unresolved scientific concerns.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0884-0001_Eisai_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0886-0001_Arnall_Golden_Gregory_LLP_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>July 25, 2013</t>
+          <t>July 17, 2013</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Eisai Inc.</t>
+          <t>Arnall Golden Gregory LLP</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Eisai Inc. is submitting on its own behalf but has a marketing and supply agreement with Arena Pharmaceuticals GmbH for BELVIQ®.</t>
+          <t>Representing Population Council</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>21 U.S.C. 355(c) and (j); 21 C.F.R. 314.107; 21 C.F.R. 10.30; Controlled Substances Act (CSA); 21 U.S.C. 811; 21 C.F.R. 201.57(a)(2), 201.57(c)(10)(i), and 314.70(b)(2)(v)(C).</t>
+          <t>21 U.S.C. § 355; 21 C.F.R. §§ 10.20, 10.25, 10.30, and 314.161</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>The initiation of the five-year New Chemical Entity (NCE) exclusivity period before Eisai could commercially market its products due to pending Controlled Substance scheduling.</t>
+          <t>Discontinuation of Norplant® II Levonorgestrel Implants (Jadelle®) from the market</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(1) Determine the NCE exclusivity for BELVIQ® to start on June 7, 2013; (2) determine the NCE exclusivity for FYCOMPATm to start on the date it can be commercially marketed; (3) provide a substantive response before FYCOMPATm's scheduling is finalized or within five months.</t>
+          <t>Request for FDA to determine that Norplant® II Levonorgestrel Implants (Jadelle®) was withdrawn from the market for reasons other than safety or effectiveness, allowing it to be used as a Reference Listed Drug (RLD) for 505(b)(2) applications</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Eisai argues that FDA incorrectly started the NCE exclusivity periods when products could not yet be legally marketed because Controlled Substance scheduling was incomplete, depriving Eisai of the full exclusivity period intended by Congress, and that this practice is arbitrary, capricious, contrary to law, and undermines innovation incentives.</t>
+          <t>The petitioner asserts there is no information indicating that the withdrawal was due to safety or effectiveness issues, and thus an NDA may be submitted referencing Norplant® II (Jadelle®) as an RLD.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0885-0001_AMAG_Pharmaceuticals_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0944-0001_Jeffrey_G_Thomas_DBA_Thomas_Law_Company__Citizen_P.pdf</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>July 24, 2013</t>
+          <t>July, 2013</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>AMAG Pharmaceuticals, Inc.</t>
+          <t>Jeffrey G. Thomas DBA Thomas Law Company</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Not Representing Another Entity</t>
+          <t>Petition submitted on behalf of Ms. Marteen Moore</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>21 USC 355, 21 CFR 10.30</t>
+          <t>Section 515(g) of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. §10.30; 21 C.F.R. §814.82(a)(3); 21 C.F.R. §814.47; 21 C.F.R. §820.198; 21 C.F.R. §814.80; 21 C.F.R. §812.140(a)(2); 21 C.F.R. §812.140(b)(2); 21 C.F.R. §820.90(b)(1); 21 C.F.R. §814.9; 21 C.F.R. §820.90(b)(1); 21 C.F.R. §812.38(d); 21 C.F.R. §814.9(a); 21 C.F.R. §814.9(r); Section 515(g)(1) of the Act; Freedom of Information Act (FOIA)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Draft Guidance on Ferumoxytol (Dec. 2012) and general FDA standards for approving generic versions of nanoparticle intravenous iron products</t>
+          <t>Conditions of the Pre-Marketing Approval (PMA) for Duraseal® Spinal Sealant</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Request that FDA (1) refrain from approving any ANDA referencing Feraheme until Nulecit Post-Market Contract Studies confirm adequacy of FDA's standards for generic IV iron approval; and (2) require any generic applicant to demonstrate equivalence using a comparative clinical endpoint study and additional laboratory assays</t>
+          <t>Enforce post-approval conditions including completion of a post-approval study on infection rates; investigation into undisclosed risks; investigation into sponsor's compliance with reporting obligations; revision of labeling and package inserts with stronger warnings (including a black box warning); suspension of the PMA; public hearing on continued violations of procedural and substantive due process</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Justifications include the complex and incompletely characterized structure of ferumoxytol, inadequacy of plasma/serum measurements to establish bioequivalence, lessons learned from inferior therapeutic equivalence of generic iron sucrose products in the EU, concerns raised in the EMA Reflection Paper, potential public health risks from insufficiently characterized generics, and FDA's own actions soliciting post-market studies for existing generics indicating unresolved scientific concerns.</t>
+          <t>Ms. Moore suffered paralysis allegedly due to the Duraseal® Spinal Sealant during clinical trials. She claims undisclosed serious risks (such as harmful interactions with non-autologous agents and product swelling), lack of informed consent, suppression of adverse event reports by the sponsor and FDA, incomplete post-approval studies, misrepresentation of product characteristics (blue dye color retention), and violations of due process rights prevented her from proving causation in her lawsuit. She argues that the agency must investigate these issues to protect public health and enforce compliance.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0886-0001_Arnall_Golden_Gregory_LLP_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0945-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>July 17, 2013</t>
+          <t>August 2, 2013</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Arnall Golden Gregory LLP</t>
+          <t>Lachman Consultant Services, Inc.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Representing Population Council</t>
+          <t>Representing a client (name not disclosed)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>21 U.S.C. § 355; 21 C.F.R. §§ 10.20, 10.25, 10.30, and 314.161</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug and Cosmetic Act; 21 CFR 10.30</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Discontinuation of Norplant® II Levonorgestrel Implants (Jadelle®) from the market</t>
+          <t>Suitability petition for Carisoprodol Tablets, 300 mg, based on reference listed drug Soma® (Carisoprodol) Tablets USP, 250 mg</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Request for FDA to determine that Norplant® II Levonorgestrel Implants (Jadelle®) was withdrawn from the market for reasons other than safety or effectiveness, allowing it to be used as a Reference Listed Drug (RLD) for 505(b)(2) applications</t>
+          <t>Requesting FDA to declare Carisoprodol Tablets, 300 mg, suitable for submission in an ANDA</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>The petitioner asserts there is no information indicating that the withdrawal was due to safety or effectiveness issues, and thus an NDA may be submitted referencing Norplant® II (Jadelle®) as an RLD.</t>
+          <t>The proposed change from 250 mg to 300 mg dosage strength is within the approved dosing range for Soma® (250 mg to 350 mg three times daily and at bedtime), offering greater dosing flexibility without raising safety or effectiveness concerns. The Pediatric Research Equity Act (PREA) does not apply to the petition.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0944-0001_Jeffrey_G_Thomas_DBA_Thomas_Law_Company__Citizen_P.pdf</t>
+          <t>FDA-2013-P-0946-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>July, 2013</t>
+          <t>August 2, 2013</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Jeffrey G. Thomas DBA Thomas Law Company</t>
+          <t>Lachman Consultant Services, Inc.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Petition submitted on behalf of Ms. Marteen Moore</t>
+          <t>Representing an unnamed client (not explicitly identified)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Section 515(g) of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. §10.30; 21 C.F.R. §814.82(a)(3); 21 C.F.R. §814.47; 21 C.F.R. §820.198; 21 C.F.R. §814.80; 21 C.F.R. §812.140(a)(2); 21 C.F.R. §812.140(b)(2); 21 C.F.R. §820.90(b)(1); 21 C.F.R. §814.9; 21 C.F.R. §820.90(b)(1); 21 C.F.R. §812.38(d); 21 C.F.R. §814.9(a); 21 C.F.R. §814.9(r); Section 515(g)(1) of the Act; Freedom of Information Act (FOIA)</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. § 10.30</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Conditions of the Pre-Marketing Approval (PMA) for Duraseal® Spinal Sealant</t>
+          <t>Suitability petition to allow submission of an Abbreviated New Drug Application (ANDA) for a new drug strength</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Enforce post-approval conditions including completion of a post-approval study on infection rates; investigation into undisclosed risks; investigation into sponsor's compliance with reporting obligations; revision of labeling and package inserts with stronger warnings (including a black box warning); suspension of the PMA; public hearing on continued violations of procedural and substantive due process</t>
+          <t>Request for the FDA to declare Hydrocodone Bitartrate and Acetaminophen Tablets USP, 2.5 mg/300 mg suitable for submission as an ANDA</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Ms. Moore suffered paralysis allegedly due to the Duraseal® Spinal Sealant during clinical trials. She claims undisclosed serious risks (such as harmful interactions with non-autologous agents and product swelling), lack of informed consent, suppression of adverse event reports by the sponsor and FDA, incomplete post-approval studies, misrepresentation of product characteristics (blue dye color retention), and violations of due process rights prevented her from proving causation in her lawsuit. She argues that the agency must investigate these issues to protect public health and enforce compliance.</t>
+          <t>The proposed lower strength of hydrocodone bitartrate will provide additional dosing options to healthcare practitioners, enabling more precise pain management while minimizing narcotic exposure, and the proposed change does not raise new safety or efficacy concerns.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0945-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0947-0001_Hyman_Phelps_McNamara_PC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>August 2, 2013</t>
+          <t>August 5, 2013</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Lachman Consultant Services, Inc.</t>
+          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Representing a client (name not disclosed)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug and Cosmetic Act; 21 CFR 10.30</t>
+          <t>505(j)(2)(c) of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. §§ 10.20(a), 10.30, and 314.93</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Suitability petition for Carisoprodol Tablets, 300 mg, based on reference listed drug Soma® (Carisoprodol) Tablets USP, 250 mg</t>
+          <t>Amendment to the Orange Book designation for Cefdinir for Oral Suspension</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Requesting FDA to declare Carisoprodol Tablets, 300 mg, suitable for submission in an ANDA</t>
+          <t>Request that FDA designate one of the approved Abbreviated New Drug Applications (ANDAs) listed for Cefdinir for Oral Suspension as an additional Reference Listed Drug (RLD)</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>The proposed change from 250 mg to 300 mg dosage strength is within the approved dosing range for Soma® (250 mg to 350 mg three times daily and at bedtime), offering greater dosing flexibility without raising safety or effectiveness concerns. The Pediatric Research Equity Act (PREA) does not apply to the petition.</t>
+          <t>The originally designated RLD (OMNICEF) has been discontinued, and the current RLD (Sandoz product) is reportedly no longer available on the market; thus, designating a currently marketed product as an RLD would ensure continued generic competition and availability.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0946-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0948-0001_Pharmaceutics_International_Incorporated_Citizen_P.pdf</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>August 2, 2013</t>
+          <t>August 7, 2013</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Lachman Consultant Services, Inc.</t>
+          <t>Pharmaceutics International, Inc. (Pii)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Representing an unnamed client (not explicitly identified)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. § 10.30</t>
+          <t>505(j)(2)(C), 21 C.F.R. § 10.20, 10.30, 314.122</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Suitability petition to allow submission of an Abbreviated New Drug Application (ANDA) for a new drug strength</t>
+          <t>Acceptance of an Abbreviated New Drug Application (ANDA) for Valproic Acid Delayed Release Capsules after discontinuation of STAVZOR® by Banner Pharmacaps</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Request for the FDA to declare Hydrocodone Bitartrate and Acetaminophen Tablets USP, 2.5 mg/300 mg suitable for submission as an ANDA</t>
+          <t>Request the FDA to determine that Banner Pharmacaps discontinued STAVZOR® (valproic acid delayed release capsules) for reasons unrelated to safety and effectiveness and to accept an ANDA for Valproic Acid Delayed Release Capsules, 125 mg, 250 mg, and 500 mg</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>The proposed lower strength of hydrocodone bitartrate will provide additional dosing options to healthcare practitioners, enabling more precise pain management while minimizing narcotic exposure, and the proposed change does not raise new safety or efficacy concerns.</t>
+          <t>Banner Pharmacaps withdrew STAVZOR® from the market for reasons unrelated to safety or efficacy; the petitioner seeks to allow submission of an ANDA for generic versions at the same strengths to ensure availability.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0947-0001_Hyman_Phelps_McNamara_PC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0949-0001_Reginald_Burgess_Garrett_Skelly_ESQ_Citizen_Petiti.pdf</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>August 5, 2013</t>
+          <t>August 6, 2013</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
+          <t>Reginald Burgess (petition submitted through attorney Garrett Skelly, ESQ)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>Garrett Skelly, ESQ is representing Reginald Burgess</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>505(j)(2)(c) of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. §§ 10.20(a), 10.30, and 314.93</t>
+          <t>21 CFR 801.109; 21 CFR 890.3420; 21 CFR 890.3500; 21 CFR 820.198; 42 USC 12182; 21 CFR 5.10; section 520(e) and 515(d)(1)(B)(ii) of the Federal Food, Drug, and Cosmetic Act</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Amendment to the Orange Book designation for Cefdinir for Oral Suspension</t>
+          <t>FDA's classification and labeling requirements for external prosthetic devices, specifically approval orders like K991590 for the C-leg</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Request that FDA designate one of the approved Abbreviated New Drug Applications (ANDAs) listed for Cefdinir for Oral Suspension as an additional Reference Listed Drug (RLD)</t>
+          <t>Amend the approval order for the C-leg device to include 'OVER THE COUNTER USE' in addition to 'PRESCRIPTION' use for external prosthetic devices</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>The originally designated RLD (OMNICEF) has been discontinued, and the current RLD (Sandoz product) is reportedly no longer available on the market; thus, designating a currently marketed product as an RLD would ensure continued generic competition and availability.</t>
+          <t>The petitioner argues that external prosthetic devices like the C-leg should not be classified solely as prescription devices because this unjustly restricts access for amputees, violates the Americans with Disabilities Act (ADA), and leads to unnecessary monopolistic practices by companies like Otto Bock. He asserts that the devices are safe enough for over-the-counter sale and that requiring prescriptions enables price gouging and discriminatory practices against amputees, citing Olmstead v. L.C. and Executive Order 13217 in support.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0948-0001_Pharmaceutics_International_Incorporated_Citizen_P.pdf</t>
+          <t>FDA-2013-P-0990-0001_Corporate_Social_Responsibility_Advocate_Reprieve_.pdf</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>August 7, 2013</t>
+          <t>8 August 2013</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Pharmaceutics International, Inc. (Pii)</t>
+          <t>Corporate Social Responsibility Advocate at Reprieve</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>No external representation; Reprieve itself is the petitioner</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>505(j)(2)(C), 21 C.F.R. § 10.20, 10.30, 314.122</t>
+          <t>21 C.F.R. 10.30, 21 U.S.C. §355, §355-1, §372, §393</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Acceptance of an Abbreviated New Drug Application (ANDA) for Valproic Acid Delayed Release Capsules after discontinuation of STAVZOR® by Banner Pharmacaps</t>
+          <t>Use of Reglan in force-feeding detainees at Guantanamo Bay</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Request the FDA to determine that Banner Pharmacaps discontinued STAVZOR® (valproic acid delayed release capsules) for reasons unrelated to safety and effectiveness and to accept an ANDA for Valproic Acid Delayed Release Capsules, 125 mg, 250 mg, and 500 mg</t>
+          <t>Suspend approval of Reglan for force-feeding at Guantanamo Bay, investigate compliance by ANI Pharmaceuticals, Inc., and consider requiring a new REMS submission</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Banner Pharmacaps withdrew STAVZOR® from the market for reasons unrelated to safety or efficacy; the petitioner seeks to allow submission of an ANDA for generic versions at the same strengths to ensure availability.</t>
+          <t>Petitioner argues that Reglan has serious side effects (including tardive dyskinesia, depression, suicide risk), that detainees are being administered Reglan without informed consent and potentially for longer than the recommended 12 weeks, and that this practice constitutes an urgent health hazard requiring immediate FDA intervention.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0949-0001_Reginald_Burgess_Garrett_Skelly_ESQ_Citizen_Petiti.pdf</t>
+          <t>FDA-2013-P-0995-0001_Hyman_Phelps_McNamara_PC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>August 6, 2013</t>
+          <t>August 12, 2013</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Reginald Burgess (petition submitted through attorney Garrett Skelly, ESQ)</t>
+          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Garrett Skelly, ESQ is representing Reginald Burgess</t>
+          <t>Representing Monosol Rx, Inc.</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>21 CFR 801.109; 21 CFR 890.3420; 21 CFR 890.3500; 21 CFR 820.198; 42 USC 12182; 21 CFR 5.10; section 520(e) and 515(d)(1)(B)(ii) of the Federal Food, Drug, and Cosmetic Act</t>
+          <t>505(q) of the FDCA; 21 C.F.R. §§ 10.20 and 10.30</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>FDA's classification and labeling requirements for external prosthetic devices, specifically approval orders like K991590 for the C-leg</t>
+          <t>FDA acceptance and approval process for 505(b)(2) NDAs for buprenorphine/naloxone polymer film products</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Amend the approval order for the C-leg device to include 'OVER THE COUNTER USE' in addition to 'PRESCRIPTION' use for external prosthetic devices</t>
+          <t>Request that FDA refuse to file any 505(b)(2) NDA for a buprenorphine/naloxone polymer film product unless it references NDA No. 22-410 (SUBOXONE® sublingual film) and complies with impurity limits for naloxone</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>The petitioner argues that external prosthetic devices like the C-leg should not be classified solely as prescription devices because this unjustly restricts access for amputees, violates the Americans with Disabilities Act (ADA), and leads to unnecessary monopolistic practices by companies like Otto Bock. He asserts that the devices are safe enough for over-the-counter sale and that requiring prescriptions enables price gouging and discriminatory practices against amputees, citing Olmstead v. L.C. and Executive Order 13217 in support.</t>
+          <t>Petitioner argues that any 505(b)(2) NDA for a buprenorphine/naloxone film should properly identify the SUBOXONE® film NDA as the listed drug to ensure patent protections are respected and that the impurity limits for naloxone established by FDA are properly applied; this prevents circumvention of patent laws and safeguards public health.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0990-0001_Corporate_Social_Responsibility_Advocate_Reprieve_.pdf</t>
+          <t>FDA-2013-P-0996-0001_Piedmont_Animal_Health_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>8 August 2013</t>
+          <t>August 12, 2013</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Corporate Social Responsibility Advocate at Reprieve</t>
+          <t>Piedmont Animal Health</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>No external representation; Reprieve itself is the petitioner</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>21 C.F.R. 10.30, 21 U.S.C. §355, §355-1, §372, §393</t>
+          <t>Section 512(n)(3) of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. 25.15; 21 C.F.R. 25.30(h); 21 C.F.R. 25.21</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Use of Reglan in force-feeding detainees at Guantanamo Bay</t>
+          <t>Approval to file an Abbreviated New Animal Drug Application (ANADA) for a different dosage form than the pioneer product SIMPLICEF® (cefpodoxime proxetil).</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Suspend approval of Reglan for force-feeding at Guantanamo Bay, investigate compliance by ANI Pharmaceuticals, Inc., and consider requiring a new REMS submission</t>
+          <t>Permission to file an ANADA for a soft chewable tablet form of cefpodoxime proxetil instead of the pioneer product's film-coated tablet form.</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Petitioner argues that Reglan has serious side effects (including tardive dyskinesia, depression, suicide risk), that detainees are being administered Reglan without informed consent and potentially for longer than the recommended 12 weeks, and that this practice constitutes an urgent health hazard requiring immediate FDA intervention.</t>
+          <t>The petitioner argues that although the generic product will differ in form (soft chewable versus film-coated tablet) and shape (round versus elliptical or round-rectangular), it will have the same active ingredient, dosage, indications, route of administration (oral), and therapeutic effect as the pioneer product, thus qualifying for a suitability petition.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0995-0001_Hyman_Phelps_McNamara_PC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0997-0001_Thomas_J_Quinn_Citizen_Petition_Redacted.pdf</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>August 12, 2013</t>
+          <t>August 9, 2013</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
+          <t>Thomas J. Quinn</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Representing Monosol Rx, Inc.</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>505(q) of the FDCA; 21 C.F.R. §§ 10.20 and 10.30</t>
+          <t>21 U.S.C. Chapter 9 Subchapter V Part C Section 360kk; 21 CFR Section 1030; 21 U.S.C. 351, 352, 360, 360e-360j, 360hh-360ss, 371, 381</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>FDA acceptance and approval process for 505(b)(2) NDAs for buprenorphine/naloxone polymer film products</t>
+          <t>Regulation of performance standards for microwave and radio frequency emitting products (specifically to amend standards to include Nuclear Magnetic Resonance Imaging devices)</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Request that FDA refuse to file any 505(b)(2) NDA for a buprenorphine/naloxone polymer film product unless it references NDA No. 22-410 (SUBOXONE® sublingual film) and complies with impurity limits for naloxone</t>
+          <t>Amend 21 CFR section 1030 to add section 1030.30 establishing performance standards for Nuclear Magnetic Resonance Imaging systems</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Petitioner argues that any 505(b)(2) NDA for a buprenorphine/naloxone film should properly identify the SUBOXONE® film NDA as the listed drug to ensure patent protections are respected and that the impurity limits for naloxone established by FDA are properly applied; this prevents circumvention of patent laws and safeguards public health.</t>
+          <t>There are currently no specific performance standards in 21 CFR for Nuclear Magnetic Resonance Imaging systems, and such standards are necessary because the health effects of microwave energy on the human body are well known and documented; ensuring regulatory control is essential for safety.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0996-0001_Piedmont_Animal_Health_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-0998-0001_Millennium_Pharmaceuticals_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7770,49 +7770,49 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Piedmont Animal Health</t>
+          <t>Millennium Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>No representation of another entity; Millennium is submitting on its own behalf.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Section 512(n)(3) of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. 25.15; 21 C.F.R. 25.30(h); 21 C.F.R. 25.21</t>
+          <t>Section 505(q) of the Federal Food, Drug, and Cosmetic Act (FDCA), 21 C.F.R. 10.30, 21 C.F.R. part 314</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Approval to file an Abbreviated New Animal Drug Application (ANADA) for a different dosage form than the pioneer product SIMPLICEF® (cefpodoxime proxetil).</t>
+          <t>FDA’s acceptance for filing of a New Drug Application (NDA) by Fresenius Kabi USA for a bortezomib injectable product relying on VELCADE® (bortezomib) for Injection.</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Permission to file an ANADA for a soft chewable tablet form of cefpodoxime proxetil instead of the pioneer product's film-coated tablet form.</t>
+          <t>(1) human bioequivalence data from multiple-dose testing proving equivalence to VELCADE, (2) preclinical safety data on boric acid for intravenous and subcutaneous administration, and (3) additional human clinical data as needed; and require Fresenius to reference all sources relied upon for safety.</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>The petitioner argues that although the generic product will differ in form (soft chewable versus film-coated tablet) and shape (round versus elliptical or round-rectangular), it will have the same active ingredient, dosage, indications, route of administration (oral), and therapeutic effect as the pioneer product, thus qualifying for a suitability petition.</t>
+          <t>Petitioner argues that Fresenius’s formulation contains boric acid, which has potential toxicity risks, lacks adequate human testing, and that approval without sufficient human clinical data would endanger patients given the established risks and different formulation compared to VELCADE.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0997-0001_Thomas_J_Quinn_Citizen_Petition_Redacted.pdf</t>
+          <t>FDA-2013-P-0999-0001_Consumer_Healthcare_Products_Association_Citizen_P.pdf</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>August 9, 2013</t>
+          <t>August 15, 2013</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Thomas J. Quinn</t>
+          <t>Consumer Healthcare Products Association (CHPA)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -7822,249 +7822,249 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>21 U.S.C. Chapter 9 Subchapter V Part C Section 360kk; 21 CFR Section 1030; 21 U.S.C. 351, 352, 360, 360e-360j, 360hh-360ss, 371, 381</t>
+          <t>21 C.F.R. Part 330; 21 C.F.R. § 201.66(e); Federal Food, Drug, and Cosmetic Act (FDCA)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Regulation of performance standards for microwave and radio frequency emitting products (specifically to amend standards to include Nuclear Magnetic Resonance Imaging devices)</t>
+          <t>Ongoing internal analgesic, antipyretic, and antirheumatic monograph proceedings related to acetaminophen labeling</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Amend 21 CFR section 1030 to add section 1030.30 establishing performance standards for Nuclear Magnetic Resonance Imaging systems</t>
+          <t>FDA should publish a statement of enforcement policy expressly permitting manufacturers of single-ingredient acetaminophen OTC drugs to include labeling with dosage instructions for children aged six months to two years, and recommend use of a standardized dosing chart</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>There are currently no specific performance standards in 21 CFR for Nuclear Magnetic Resonance Imaging systems, and such standards are necessary because the health effects of microwave energy on the human body are well known and documented; ensuring regulatory control is essential for safety.</t>
+          <t>Lack of dosing information on labels for children aged six months to two years may lead to medication errors; acetaminophen is recognized as safe and effective for this age group by medical associations; FDA advisory committees have recommended inclusion of this dosing information; clear labeling would promote consistency and reduce risk of overdose or misadministration.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0998-0001_Millennium_Pharmaceuticals_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1000-0001_Eclat_Pharmaceuticals_LLC_Patton_Boggs_LLP_Citizen.pdf</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>August 12, 2013</t>
+          <t>August 15, 2013</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Millennium Pharmaceuticals, Inc.</t>
+          <t>Eclat Pharmaceuticals, LLC</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>No representation of another entity; Millennium is submitting on its own behalf.</t>
+          <t>Patton Boggs LLP representing Eclat Pharmaceuticals, LLC</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Section 505(q) of the Federal Food, Drug, and Cosmetic Act (FDCA), 21 C.F.R. 10.30, 21 C.F.R. part 314</t>
+          <t>21 C.F.R. § 10.30; Sections 301(d) and 505(a) of the Federal Food, Drug, and Cosmetic Act</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>FDA’s acceptance for filing of a New Drug Application (NDA) by Fresenius Kabi USA for a bortezomib injectable product relying on VELCADE® (bortezomib) for Injection.</t>
+          <t>Marketing of unapproved neostigmine methylsulfate injectable drug products competing with an FDA-approved drug (Bloxiverz®)</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>(1) human bioequivalence data from multiple-dose testing proving equivalence to VELCADE, (2) preclinical safety data on boric acid for intravenous and subcutaneous administration, and (3) additional human clinical data as needed; and require Fresenius to reference all sources relied upon for safety.</t>
+          <t>Requesting FDA to initiate immediate enforcement action requiring removal of unapproved injectable neostigmine methylsulfate products from the market</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Petitioner argues that Fresenius’s formulation contains boric acid, which has potential toxicity risks, lacks adequate human testing, and that approval without sufficient human clinical data would endanger patients given the established risks and different formulation compared to VELCADE.</t>
+          <t>Petitioner argues that unapproved products challenge the integrity of the FDA drug approval framework, pose safety risks due to differences in labeling and dosage recommendations, and may violate quality control requirements; also claims that the approved product can meet market demand, minimizing concern about shortages.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>FDA-2013-P-0999-0001_Consumer_Healthcare_Products_Association_Citizen_P.pdf</t>
+          <t>FDA-2013-P-1001-0001_Weill_Cornell_Medical_College_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>August 15, 2013</t>
+          <t>August 12, 2013</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Consumer Healthcare Products Association (CHPA)</t>
+          <t>Weill Cornell Medical College</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>No representation; petition submitted directly by Marcus M. Reidenberg, M.D., on behalf of Weill Cornell Medical College</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>21 C.F.R. Part 330; 21 C.F.R. § 201.66(e); Federal Food, Drug, and Cosmetic Act (FDCA)</t>
+          <t>21 C.F.R. 10.30</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ongoing internal analgesic, antipyretic, and antirheumatic monograph proceedings related to acetaminophen labeling</t>
+          <t>Labeling of nonprescription drug products containing ingredients with anticholinergic or histamine H1 inverse agonist effects</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>FDA should publish a statement of enforcement policy expressly permitting manufacturers of single-ingredient acetaminophen OTC drugs to include labeling with dosage instructions for children aged six months to two years, and recommend use of a standardized dosing chart</t>
+          <t>Request for the FDA to add a warning to the labeling of all nonprescription drug products containing ingredients with anticholinergic or histamine H1 inverse agonist effects, warning about potential confusional states including impaired attention, disorientation, and decreased concentration, especially in older people</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Lack of dosing information on labels for children aged six months to two years may lead to medication errors; acetaminophen is recognized as safe and effective for this age group by medical associations; FDA advisory committees have recommended inclusion of this dosing information; clear labeling would promote consistency and reduce risk of overdose or misadministration.</t>
+          <t>The petitioner cites scientific studies, observational studies, and clinical trials showing that drugs with anticholinergic effects cause cognitive impairment, especially in the elderly. They argue that nonprescription drugs with such effects can add to the anticholinergic burden unnoticed, leading to confusional states or delirium, warranting a warning label to inform consumers and prevent harm.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1000-0001_Eclat_Pharmaceuticals_LLC_Patton_Boggs_LLP_Citizen.pdf</t>
+          <t>FDA-2013-P-1002-0001_Zydus_Pharmaceuticals_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>August 15, 2013</t>
+          <t>August 13, 2013</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Eclat Pharmaceuticals, LLC</t>
+          <t>Zydus Pharmaceuticals (USA) Inc.</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Patton Boggs LLP representing Eclat Pharmaceuticals, LLC</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30; Sections 301(d) and 505(a) of the Federal Food, Drug, and Cosmetic Act</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act (FDC Act); 21 C.F.R. § 314.93; 21 C.F.R. § 10.20; 21 C.F.R. § 10.30</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Marketing of unapproved neostigmine methylsulfate injectable drug products competing with an FDA-approved drug (Bloxiverz®)</t>
+          <t>Suitability determination for submission of an Abbreviated New Drug Application (ANDA) for Imatinib Mesylate Tablets, 300 mg strength</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Requesting FDA to initiate immediate enforcement action requiring removal of unapproved injectable neostigmine methylsulfate products from the market</t>
+          <t>Request that FDA determine that Imatinib Mesylate Tablets, 300 mg is suitable for submission in an ANDA</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Petitioner argues that unapproved products challenge the integrity of the FDA drug approval framework, pose safety risks due to differences in labeling and dosage recommendations, and may violate quality control requirements; also claims that the approved product can meet market demand, minimizing concern about shortages.</t>
+          <t>The proposed 300 mg strength is between already approved 100 mg and 400 mg strengths of the reference listed drug (GLEEVEC); it would improve patient compliance by providing an appropriate dosage without the need for splitting tablets; it matches the existing dosage forms and routes of administration; and there are no new safety or efficacy concerns.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1001-0001_Weill_Cornell_Medical_College_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1055-0001_Actavis_Elizabeth_LLC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>August 12, 2013</t>
+          <t>August 16, 2013</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Weill Cornell Medical College</t>
+          <t>Actavis Elizabeth LLC</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>No representation; petition submitted directly by Marcus M. Reidenberg, M.D., on behalf of Weill Cornell Medical College</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>21 C.F.R. 10.30</t>
+          <t>21 C.F.R. §§ 10.30 and 314.161; 21 C.F.R. §§ 314.122, 314.161; 21 C.F.R. § 25.31; 21 C.F.R. § 10.30(b)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Labeling of nonprescription drug products containing ingredients with anticholinergic or histamine H1 inverse agonist effects</t>
+          <t>Determination whether a listed drug has been withdrawn from sale for safety or effectiveness reasons</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Request for the FDA to add a warning to the labeling of all nonprescription drug products containing ingredients with anticholinergic or histamine H1 inverse agonist effects, warning about potential confusional states including impaired attention, disorientation, and decreased concentration, especially in older people</t>
+          <t>Requesting that the FDA determine that SUBUTEX® (buprenorphine hydrochloride) Sublingual Tablets, EQ. 2 mg and 8 mg Base were not voluntarily withdrawn for safety or efficacy reasons</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>The petitioner cites scientific studies, observational studies, and clinical trials showing that drugs with anticholinergic effects cause cognitive impairment, especially in the elderly. They argue that nonprescription drugs with such effects can add to the anticholinergic burden unnoticed, leading to confusional states or delirium, warranting a warning label to inform consumers and prevent harm.</t>
+          <t>Because there is no evidence of commercial distribution of SUBUTEX® 2 mg and 8 mg Sublingual Tablets, the petitioner requests confirmation that their withdrawal was not for reasons of safety or effectiveness to support an ANDA submission</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1002-0001_Zydus_Pharmaceuticals_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1056-0001_Public_Citizen_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>August 13, 2013</t>
+          <t>August 21, 2013</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Zydus Pharmaceuticals (USA) Inc.</t>
+          <t>Public Citizen and Neil A. Holtzman, M.D.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>Public Citizen is representing itself; Neil A. Holtzman is mentioned as a co-petitioner but no external legal representation is indicated.</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act (FDC Act); 21 C.F.R. § 314.93; 21 C.F.R. § 10.20; 21 C.F.R. § 10.30</t>
+          <t>21 U.S.C. Section 355(e)(3), 21 C.F.R. 10.30</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Suitability determination for submission of an Abbreviated New Drug Application (ANDA) for Imatinib Mesylate Tablets, 300 mg strength</t>
+          <t>The continuation of clopidogrel (Plavix) therapy beyond 12 months following implantation of drug-eluting coronary artery stents.</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Request that FDA determine that Imatinib Mesylate Tablets, 300 mg is suitable for submission in an ANDA</t>
+          <t>Add a black-box warning on clopidogrel and its generic equivalents regarding increased risks of major and minor bleeding beyond 12 months, require an updated FDA-approved Medication Guide, and encourage distribution of a 'Dear Doctor' letter.</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>The proposed 300 mg strength is between already approved 100 mg and 400 mg strengths of the reference listed drug (GLEEVEC); it would improve patient compliance by providing an appropriate dosage without the need for splitting tablets; it matches the existing dosage forms and routes of administration; and there are no new safety or efficacy concerns.</t>
+          <t>Petitioners argue that evidence shows no further reduction in thrombotic cardiovascular events beyond 12 months but continued major bleeding risks, necessitating enhanced warnings to protect patients.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1055-0001_Actavis_Elizabeth_LLC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1058-0001_Citizen_Petition_from_IntelGenx_Corporation.pdf</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>August 16, 2013</t>
+          <t>August 21, 2013</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Actavis Elizabeth LLC</t>
+          <t>IntelGenx Corp.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -8074,81 +8074,81 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>21 C.F.R. §§ 10.30 and 314.161; 21 C.F.R. §§ 314.122, 314.161; 21 C.F.R. § 25.31; 21 C.F.R. § 10.30(b)</t>
+          <t>21 C.F.R. 10.30, Section 505(b)(2) of the Federal Food, Drug, and Cosmetic Act</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Determination whether a listed drug has been withdrawn from sale for safety or effectiveness reasons</t>
+          <t>Approval and designation of Rizatriptan Oral Film as AB-rated relative to the Reference Listed Drug (RLD), Maxalt-MLT® (Merck, NDA 20-865)</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Requesting that the FDA determine that SUBUTEX® (buprenorphine hydrochloride) Sublingual Tablets, EQ. 2 mg and 8 mg Base were not voluntarily withdrawn for safety or efficacy reasons</t>
+          <t>Request for the FDA to designate Rizatriptan Oral Film, upon approval, as AB-rated relative to the RLD Maxalt-MLT®</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Because there is no evidence of commercial distribution of SUBUTEX® 2 mg and 8 mg Sublingual Tablets, the petitioner requests confirmation that their withdrawal was not for reasons of safety or effectiveness to support an ANDA submission</t>
+          <t>The petitioner argues that Rizatriptan Oral Film meets FDA’s criteria for therapeutic equivalence because it contains the same active ingredient in the same strength, has similar performance and administration characteristics, is bioequivalent to the RLD, will be adequately labeled, and will be manufactured in compliance with Current Good Manufacturing Practice regulations.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1056-0001_Public_Citizen_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1061-0001_Navinta_LLC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>August 21, 2013</t>
+          <t>August 28, 2013</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Public Citizen and Neil A. Holtzman, M.D.</t>
+          <t>Navinta LLC</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Public Citizen is representing itself; Neil A. Holtzman is mentioned as a co-petitioner but no external legal representation is indicated.</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>21 U.S.C. Section 355(e)(3), 21 C.F.R. 10.30</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act (FDC Act); 21 C.F.R. § 314.93; 21 C.F.R. § 10.30</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>The continuation of clopidogrel (Plavix) therapy beyond 12 months following implantation of drug-eluting coronary artery stents.</t>
+          <t>Suitability petition to allow submission of an ANDA for a new dosage form (solution instead of lyophilized powder)</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Add a black-box warning on clopidogrel and its generic equivalents regarding increased risks of major and minor bleeding beyond 12 months, require an updated FDA-approved Medication Guide, and encourage distribution of a 'Dear Doctor' letter.</t>
+          <t>Request FDA to find that Ganciclovir Injection, 500 mg/10 ml (50 mg/mL) solution is suitable for submission as an ANDA</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Petitioners argue that evidence shows no further reduction in thrombotic cardiovascular events beyond 12 months but continued major bleeding risks, necessitating enhanced warnings to protect patients.</t>
+          <t>The proposed solution form has the same active ingredient, concentration, route of administration, and therapeutic effect as the reconstituted reference listed drug (RLD) Cytovene®; eliminates the need for reconstitution; no additional investigations needed to demonstrate safety and effectiveness.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1058-0001_Citizen_Petition_from_IntelGenx_Corporation.pdf</t>
+          <t>FDA-2013-P-1078-0001_Parnell_Technologies_Pty_Ltd_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>August 21, 2013</t>
+          <t>August 27, 2013</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>IntelGenx Corp.</t>
+          <t>Parnell Technologies Pty Ltd</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -8158,113 +8158,113 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>21 C.F.R. 10.30, Section 505(b)(2) of the Federal Food, Drug, and Cosmetic Act</t>
+          <t>21 CFR §10.30; Federal Food, Drug, and Cosmetic Act Section 512 §360b(n)(3)(A)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Approval and designation of Rizatriptan Oral Film as AB-rated relative to the Reference Listed Drug (RLD), Maxalt-MLT® (Merck, NDA 20-865)</t>
+          <t>Amendment to ANADA 200-541 to delete one route of administration</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Request for the FDA to designate Rizatriptan Oral Film, upon approval, as AB-rated relative to the RLD Maxalt-MLT®</t>
+          <t>Allow amendment to delete the intravenous route of administration from the currently approved routes for Gonabreed (gonadorelin 100 µg/mL)</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>The petitioner argues that Rizatriptan Oral Film meets FDA’s criteria for therapeutic equivalence because it contains the same active ingredient in the same strength, has similar performance and administration characteristics, is bioequivalent to the RLD, will be adequately labeled, and will be manufactured in compliance with Current Good Manufacturing Practice regulations.</t>
+          <t>The removal of the intravenous route does not pose questions of safety or effectiveness because the product remains indicated for intramuscular administration identical to the pioneer product (Cystorelin®)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1061-0001_Navinta_LLC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1079-0001_Citizen_Petition_from_Medical_Information_Working_.pdf</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>August 28, 2013</t>
+          <t>September 3, 2013</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Navinta LLC</t>
+          <t>Medical Information Working Group (MIWG)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>Sidley Austin LLP and Ropes &amp; Gray LLP representing the MIWG members, which include Allergan, Bayer, Boehringer Ingelheim, Eli Lilly, Genentech, GlaxoSmithKline, Johnson &amp; Johnson, Novartis, Novo Nordisk, Pfizer, Purdue Pharma, and Sanofi US</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act (FDC Act); 21 C.F.R. § 314.93; 21 C.F.R. § 10.30</t>
+          <t>21 C.F.R. § 10.30; also references to 21 U.S.C. § 360(k), 21 U.S.C. § 321(m), 21 U.S.C. §§ 352(n), (r), and 21 U.S.C. § 351(f)(1)</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Suitability petition to allow submission of an ANDA for a new dosage form (solution instead of lyophilized powder)</t>
+          <t>FDA regulations and policies regarding manufacturer dissemination of off-label use information and related communications (responses to unsolicited requests, scientific exchange, communications to payors, dissemination of clinical practice guidelines)</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Request FDA to find that Ganciclovir Injection, 500 mg/10 ml (50 mg/mL) solution is suitable for submission as an ANDA</t>
+          <t>Request for FDA to fully respond to prior citizen petition requests concerning off-label communications, to initiate rulemaking for payor communications and clinical guidelines, and to comprehensively review and revise regulations to align with constitutional and statutory requirements</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>The proposed solution form has the same active ingredient, concentration, route of administration, and therapeutic effect as the reconstituted reference listed drug (RLD) Cytovene®; eliminates the need for reconstitution; no additional investigations needed to demonstrate safety and effectiveness.</t>
+          <t>The petition argues that the FDA’s current regulatory approach to manufacturer communication about off-label uses is outdated, unclear, and unconstitutional under recent First and Fifth Amendment case law (citing Sorrell v. IMS Health, FCC v. Fox, and U.S. v. Caronia). It emphasizes that clearer regulations would benefit public health, respect free speech, and support informed decision-making by patients, providers, and payors.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1078-0001_Parnell_Technologies_Pty_Ltd_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1080-0001_Reginald_Burgess_Garrett_Skelly_ESQ_Citizen_Petiti.pdf</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>August 27, 2013</t>
+          <t>August 29, 2013</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Parnell Technologies Pty Ltd</t>
+          <t>Reginald Burgess (submitted through Garrett Skelly, ESQ)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>Garrett Skelly, Attorney for Reginald Burgess</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>21 CFR §10.30; Federal Food, Drug, and Cosmetic Act Section 512 §360b(n)(3)(A)</t>
+          <t>21 CFR 820.198, 21 CFR 820.200, 21 CFR 801.109, 21 CFR 890.3420, 21 CFR 890.3500, 42 USC 12182, 21 USC 331(a), 21 USC 360c, 21 USC 360k, 21 USC 829</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Amendment to ANADA 200-541 to delete one route of administration</t>
+          <t>FDA regulations regarding classification of external prosthetics, particularly the lack of over-the-counter availability and the misuse of 'prescription' labeling</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Allow amendment to delete the intravenous route of administration from the currently approved routes for Gonabreed (gonadorelin 100 µg/mL)</t>
+          <t>Amend 21 CFR 820.198 to add a new section (a)(4) requiring manufacturers to provide direct access to parts and repair information for external prosthetics to users, ensuring no unnecessary restrictions under internal distribution models unless justified by malfunction or safety concerns</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>The removal of the intravenous route does not pose questions of safety or effectiveness because the product remains indicated for intramuscular administration identical to the pioneer product (Cystorelin®)</t>
+          <t>The petitioner argues that external prosthetic devices are incorrectly treated as prescription devices when no prescription restriction legally applies, resulting in discrimination against amputees under the ADA; the prosthetics industry uses distribution models to monopolize service and parts access, forcing users into unnecessary, costly service arrangements and restricting user autonomy in violation of the Americans with Disabilities Act and principles established in Olmstead v. L.C.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1079-0001_Citizen_Petition_from_Medical_Information_Working_.pdf</t>
+          <t>FDA-2013-P-1082-0001_Horizon_Pharma_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -8274,585 +8274,585 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Medical Information Working Group (MIWG)</t>
+          <t>Horizon Pharma, Inc.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Sidley Austin LLP and Ropes &amp; Gray LLP representing the MIWG members, which include Allergan, Bayer, Boehringer Ingelheim, Eli Lilly, Genentech, GlaxoSmithKline, Johnson &amp; Johnson, Novartis, Novo Nordisk, Pfizer, Purdue Pharma, and Sanofi US</t>
+          <t>Not Represented by Another Entity</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30; also references to 21 U.S.C. § 360(k), 21 U.S.C. § 321(m), 21 U.S.C. §§ 352(n), (r), and 21 U.S.C. § 351(f)(1)</t>
+          <t>21 C.F.R. § 10.30, 505(j)(2) of the Federal Food, Drug, and Cosmetic Act</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>FDA regulations and policies regarding manufacturer dissemination of off-label use information and related communications (responses to unsolicited requests, scientific exchange, communications to payors, dissemination of clinical practice guidelines)</t>
+          <t>Bioequivalence standards for ANDAs referencing NDA No. 202020 for RAYOS® (prednisone) Delayed-Release Tablets</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Request for FDA to fully respond to prior citizen petition requests concerning off-label communications, to initiate rulemaking for payor communications and clinical guidelines, and to comprehensively review and revise regulations to align with constitutional and statutory requirements</t>
+          <t>Request that FDA require ANDA applicants to demonstrate bioequivalence by showing the same delayed-release profile (lag time and Tmax) and bioavailability (BA) profile after 4 hours, under fed conditions, for generic versions of RAYOS® tablets</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>The petition argues that the FDA’s current regulatory approach to manufacturer communication about off-label uses is outdated, unclear, and unconstitutional under recent First and Fifth Amendment case law (citing Sorrell v. IMS Health, FCC v. Fox, and U.S. v. Caronia). It emphasizes that clearer regulations would benefit public health, respect free speech, and support informed decision-making by patients, providers, and payors.</t>
+          <t>RAYOS® tablets are specially formulated with a delayed-release mechanism to synchronize with the circadian rhythm of inflammatory symptoms in diseases like rheumatoid arthritis; generics with different delayed-release mechanisms could have different pharmacokinetic profiles, affecting therapeutic outcomes; thus, strict bioequivalence requirements under fed conditions are necessary to ensure therapeutic equivalence.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1080-0001_Reginald_Burgess_Garrett_Skelly_ESQ_Citizen_Petiti.pdf</t>
+          <t>FDA-2013-P-1101-0001_Piedmont_Animal_Health_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>August 29, 2013</t>
+          <t>May 22, 2013</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Reginald Burgess (submitted through Garrett Skelly, ESQ)</t>
+          <t>Piedmont Animal Health</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Garrett Skelly, Attorney for Reginald Burgess</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>21 CFR 820.198, 21 CFR 820.200, 21 CFR 801.109, 21 CFR 890.3420, 21 CFR 890.3500, 42 USC 12182, 21 USC 331(a), 21 USC 360c, 21 USC 360k, 21 USC 829</t>
+          <t>Section 512(n)(3) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 25.24(a)(8)</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>FDA regulations regarding classification of external prosthetics, particularly the lack of over-the-counter availability and the misuse of 'prescription' labeling</t>
+          <t>Permission to file an Abbreviated New Animal Drug Application (ANADA) for a generic new animal drug differing in dosage form (capsule vs. soft chewable tablet) from the pioneer product</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Amend 21 CFR 820.198 to add a new section (a)(4) requiring manufacturers to provide direct access to parts and repair information for external prosthetics to users, ensuring no unnecessary restrictions under internal distribution models unless justified by malfunction or safety concerns</t>
+          <t>Permission to file an Abbreviated New Animal Drug Application (ANADA) for a soft chewable tablet form of clindamycin hydrochloride instead of a capsule</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>The petitioner argues that external prosthetic devices are incorrectly treated as prescription devices when no prescription restriction legally applies, resulting in discrimination against amputees under the ADA; the prosthetics industry uses distribution models to monopolize service and parts access, forcing users into unnecessary, costly service arrangements and restricting user autonomy in violation of the Americans with Disabilities Act and principles established in Olmstead v. L.C.</t>
+          <t>The generic product will maintain the same active ingredient, dosage, route of administration, indications, therapeutic effects, and warnings as the pioneer product, differing only in dosage form (soft chewable tablet vs. capsule). Piedmont Animal Health argues that the change does not affect the product's intended use or effectiveness.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1082-0001_Horizon_Pharma_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1126-0001_Citizen_Petition_from_Lachman_Consultant_Services_.pdf</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>September 3, 2013</t>
+          <t>September 6, 2013</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Horizon Pharma, Inc.</t>
+          <t>Lachman Consultant Services, Inc.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Not Represented by Another Entity</t>
+          <t>Not representing another entity; petition submitted on behalf of Lachman Consultant Services, Inc.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30, 505(j)(2) of the Federal Food, Drug, and Cosmetic Act</t>
+          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act (FDC Act), 21 CFR 314.93, 21 CFR §10.20, 21 CFR §10.30</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bioequivalence standards for ANDAs referencing NDA No. 202020 for RAYOS® (prednisone) Delayed-Release Tablets</t>
+          <t>Determination of suitability for submission of an Abbreviated New Drug Application (ANDA) for Capecitabine Tablets in 300 mg and 1000 mg strengths</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Request that FDA require ANDA applicants to demonstrate bioequivalence by showing the same delayed-release profile (lag time and Tmax) and bioavailability (BA) profile after 4 hours, under fed conditions, for generic versions of RAYOS® tablets</t>
+          <t>Request that FDA determine that Capecitabine Tablets, 300 mg and 1000 mg, are suitable for submission in an ANDA</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>RAYOS® tablets are specially formulated with a delayed-release mechanism to synchronize with the circadian rhythm of inflammatory symptoms in diseases like rheumatoid arthritis; generics with different delayed-release mechanisms could have different pharmacokinetic profiles, affecting therapeutic outcomes; thus, strict bioequivalence requirements under fed conditions are necessary to ensure therapeutic equivalence.</t>
+          <t>The new strengths differ only in strength (not in dosage form, route of administration, or intended use) from the approved Reference Listed Drug (XELODA 500 mg and 150 mg); no questions of safety or efficacy are raised; availability of additional strengths would facilitate dosing, increase compliance, and reduce medication errors.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1101-0001_Piedmont_Animal_Health_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1127-0001_Tobacco_Control_Legal_Consortium_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>May 22, 2013</t>
+          <t>September 3, 2013</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Piedmont Animal Health</t>
+          <t>Tobacco Control Legal Consortium</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>American Academy of Pediatrics, American Cancer Society Cancer Action Network, American Heart Association, American Lung Association, American Public Health Association, Campaign for Tobacco-Free Kids, Legacy, National Association of City and County Health Officials, National Association of Local Boards of Health, and others</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Section 512(n)(3) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 25.24(a)(8)</t>
+          <t>Title 21, Chapter 9, Subchapter V, Part A of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. § 10.30; Family Smoking Prevention and Tobacco Control Act (codified at 21 U.S.C. § 387)</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Permission to file an Abbreviated New Animal Drug Application (ANADA) for a generic new animal drug differing in dosage form (capsule vs. soft chewable tablet) from the pioneer product</t>
+          <t>FDA's lack of regulation over 'other tobacco products' (OTPs) such as cigars, dissolvables, e-cigarettes, and hookah</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Permission to file an Abbreviated New Animal Drug Application (ANADA) for a soft chewable tablet form of clindamycin hydrochloride instead of a capsule</t>
+          <t>Petitioners request that FDA assert jurisdiction over and regulate all tobacco products meeting the Tobacco Control Act's definition, and apply existing cigarette and smokeless tobacco restrictions to those products</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>The generic product will maintain the same active ingredient, dosage, route of administration, indications, therapeutic effects, and warnings as the pioneer product, differing only in dosage form (soft chewable tablet vs. capsule). Piedmont Animal Health argues that the change does not affect the product's intended use or effectiveness.</t>
+          <t>The petition argues that unregulated non-cigarette tobacco products present serious public health risks, entice youth, and undermine existing public health measures; asserts that FDA has both the authority and responsibility under the Tobacco Control Act to regulate these products to protect public health</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1126-0001_Citizen_Petition_from_Lachman_Consultant_Services_.pdf</t>
+          <t>FDA-2013-P-1128-0001_Teva_Pharmaceutical_Industries_Ltd_Citizen_Petitio.pdf</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>September 6, 2013</t>
+          <t>September 12, 2013</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Lachman Consultant Services, Inc.</t>
+          <t>Teva Pharmaceutical Industries Ltd. and Teva Neuroscience, Inc.</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Not representing another entity; petition submitted on behalf of Lachman Consultant Services, Inc.</t>
+          <t>Teva Neuroscience, Inc. is a subsidiary representing Teva Pharmaceutical Industries Ltd.</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act (FDC Act), 21 CFR 314.93, 21 CFR §10.20, 21 CFR §10.30</t>
+          <t>21 C.F.R. § 10.30, 21 U.S.C. §§ 355(j) and 355(q)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Determination of suitability for submission of an Abbreviated New Drug Application (ANDA) for Capecitabine Tablets in 300 mg and 1000 mg strengths</t>
+          <t>Approval of any Abbreviated New Drug Application (ANDA) referencing Copaxone® (glatiramer acetate injection)</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Request that FDA determine that Capecitabine Tablets, 300 mg and 1000 mg, are suitable for submission in an ANDA</t>
+          <t>Requesting FDA to refrain from approving any ANDA referencing Copaxone® unless certain scientific conditions regarding sameness, bioequivalence, and immunogenicity are met</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>The new strengths differ only in strength (not in dosage form, route of administration, or intended use) from the approved Reference Listed Drug (XELODA 500 mg and 150 mg); no questions of safety or efficacy are raised; availability of additional strengths would facilitate dosing, increase compliance, and reduce medication errors.</t>
+          <t>Because Copaxone® is a complex colloidal suspension with two distinct nano-sized polypeptide populations that cannot be fully characterized, Teva argues that generic versions cannot demonstrate sameness, bioequivalence, or immunological equivalence without extensive clinical and non-clinical studies, thus posing potential safety and efficacy risks.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1127-0001_Tobacco_Control_Legal_Consortium_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1153-0001_Generic_Pharmaceutical_Association_Citizen_Petitio.pdf</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>September 3, 2013</t>
+          <t>September 17, 2013</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Tobacco Control Legal Consortium</t>
+          <t>Generic Pharmaceutical Association (GPhA)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>American Academy of Pediatrics, American Cancer Society Cancer Action Network, American Heart Association, American Lung Association, American Public Health Association, Campaign for Tobacco-Free Kids, Legacy, National Association of City and County Health Officials, National Association of Local Boards of Health, and others</t>
+          <t>Not representing another entity; GPhA submitted on its own behalf</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Title 21, Chapter 9, Subchapter V, Part A of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. § 10.30; Family Smoking Prevention and Tobacco Control Act (codified at 21 U.S.C. § 387)</t>
+          <t>21 C.F.R. § 10.30, Biologics Price Competition and Innovation Act (BPCIA)</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>FDA's lack of regulation over 'other tobacco products' (OTPs) such as cigars, dissolvables, e-cigarettes, and hookah</t>
+          <t>FDA policy on International Non-proprietary Naming (INN) for biologics and biosimilars</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Petitioners request that FDA assert jurisdiction over and regulate all tobacco products meeting the Tobacco Control Act's definition, and apply existing cigarette and smokeless tobacco restrictions to those products</t>
+          <t>Implement FDA’s INN naming policy equally for all biologics and allow biosimilars approved under the 351(k) pathway to share the same INN as their reference protein products (RPPs)</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>The petition argues that unregulated non-cigarette tobacco products present serious public health risks, entice youth, and undermine existing public health measures; asserts that FDA has both the authority and responsibility under the Tobacco Control Act to regulate these products to protect public health</t>
+          <t>Shared INNs would ensure consistency, promote competition, enhance patient access to affordable biologics, and maintain pharmacovigilance without introducing confusion; unique INNs would imply clinical differences where there are none, hinder market competition, create unnecessary regulatory burdens, and potentially compromise patient safety.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1128-0001_Teva_Pharmaceutical_Industries_Ltd_Citizen_Petitio.pdf</t>
+          <t>FDA-2013-P-1199-0001_CorePharma_LLC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>September 12, 2013</t>
+          <t>September 19, 2013</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Teva Pharmaceutical Industries Ltd. and Teva Neuroscience, Inc.</t>
+          <t>CorePharma, LLC</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Teva Neuroscience, Inc. is a subsidiary representing Teva Pharmaceutical Industries Ltd.</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30, 21 U.S.C. §§ 355(j) and 355(q)</t>
+          <t>21 CFR 10.25(a), 21 CFR 10.30, 21 CFR 314.161(a)(1)</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Approval of any Abbreviated New Drug Application (ANDA) referencing Copaxone® (glatiramer acetate injection)</t>
+          <t>Determination regarding whether the discontinuation of Skelaxin® 400 mg (NDA 013217) by King Pharmaceuticals, Inc. was due to safety or effectiveness reasons</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Requesting FDA to refrain from approving any ANDA referencing Copaxone® unless certain scientific conditions regarding sameness, bioequivalence, and immunogenicity are met</t>
+          <t>Request that the FDA determine that Skelaxin® 400 mg was not withdrawn from sale for reasons related to safety or effectiveness, to permit approval of an Abbreviated New Drug Application (ANDA)</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Because Copaxone® is a complex colloidal suspension with two distinct nano-sized polypeptide populations that cannot be fully characterized, Teva argues that generic versions cannot demonstrate sameness, bioequivalence, or immunological equivalence without extensive clinical and non-clinical studies, thus posing potential safety and efficacy risks.</t>
+          <t>The petitioner asserts that Skelaxin® 800 mg remains available under the same NDA and can be divided due to scoring, suggesting the 400 mg dosage form was not withdrawn for safety or efficacy concerns; therefore, FDA should permit ANDA referencing the discontinued drug.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1153-0001_Generic_Pharmaceutical_Association_Citizen_Petitio.pdf</t>
+          <t>FDA-2013-P-1202-0001_Olsson_Frank_Weeda_OFW_et_al_Law_PC_Citizen_Petiti.pdf</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>September 17, 2013</t>
+          <t>September 26, 2013</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Generic Pharmaceutical Association (GPhA)</t>
+          <t>Olsson Frank Weeda Terman Matz PC (on behalf of a client, not specifically named)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Not representing another entity; GPhA submitted on its own behalf</t>
+          <t>Olsson Frank Weeda Terman Matz PC is representing an unnamed client (not specified in document)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30, Biologics Price Competition and Innovation Act (BPCIA)</t>
+          <t>505(j)(2)(C), 21 C.F.R. §§ 10.20, 10.30, 314.93</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>FDA policy on International Non-proprietary Naming (INN) for biologics and biosimilars</t>
+          <t>Requesting FDA action to allow submission of an ANDA for a new strength of an approved drug (Vancomycin Hydrochloride For Injection, USP, Fliptop Vial For Intravenous Use)</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Implement FDA’s INN naming policy equally for all biologics and allow biosimilars approved under the 351(k) pathway to share the same INN as their reference protein products (RPPs)</t>
+          <t>Determine that Vancomycin Hydrochloride USP, 1.5 grams (base)/vial is suitable for ANDA submission as a new strength</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Shared INNs would ensure consistency, promote competition, enhance patient access to affordable biologics, and maintain pharmacovigilance without introducing confusion; unique INNs would imply clinical differences where there are none, hinder market competition, create unnecessary regulatory burdens, and potentially compromise patient safety.</t>
+          <t>The petitioner argues that the proposed product will have the same active ingredient, concentration after reconstitution, route of administration, dosage, and indications as the reference listed drug (RLD), differing only in total drug content, and that it would benefit clinical dosing without raising safety or effectiveness concerns.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1199-0001_CorePharma_LLC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1203-0001_McGuireWoods_LLP_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>September 19, 2013</t>
+          <t>September 25, 2013</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CorePharma, LLC</t>
+          <t>McGuireWoods LLP</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>Representing an unnamed client (not disclosed in the petition)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>21 CFR 10.25(a), 21 CFR 10.30, 21 CFR 314.161(a)(1)</t>
+          <t>505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. §§ 10.30 and 314.93</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Determination regarding whether the discontinuation of Skelaxin® 400 mg (NDA 013217) by King Pharmaceuticals, Inc. was due to safety or effectiveness reasons</t>
+          <t>Suitability determination for submission of an Abbreviated New Drug Application (ANDA) for a different fill volume of Ropivacaine Hydrochloride Injection</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Request that the FDA determine that Skelaxin® 400 mg was not withdrawn from sale for reasons related to safety or effectiveness, to permit approval of an Abbreviated New Drug Application (ANDA)</t>
+          <t>The petitioner requests that the FDA determine that Ropivacaine Hydrochloride Injection 2mg/mL in a 500 mL infusion bag is suitable for submission as an ANDA</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>The petitioner asserts that Skelaxin® 800 mg remains available under the same NDA and can be divided due to scoring, suggesting the 400 mg dosage form was not withdrawn for safety or efficacy concerns; therefore, FDA should permit ANDA referencing the discontinued drug.</t>
+          <t>The petitioner argues that the proposed product differs from the reference listed drug (NAROPIN) only in total fill volume (500 mL vs. 200 mL), with no change in concentration, active ingredient, dosage form, route of administration, or indications; further, it improves patient and hospital convenience, reduces risk of error and contamination, and decreases pharmacy workload and waste.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1202-0001_Olsson_Frank_Weeda_OFW_et_al_Law_PC_Citizen_Petiti.pdf</t>
+          <t>FDA-2013-P-1283-0001_Horizon_Pharma_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>September 26, 2013</t>
+          <t>October 4, 2013</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Olsson Frank Weeda Terman Matz PC (on behalf of a client, not specifically named)</t>
+          <t>Horizon Pharma, Inc.</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Olsson Frank Weeda Terman Matz PC is representing an unnamed client (not specified in document)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>505(j)(2)(C), 21 C.F.R. §§ 10.20, 10.30, 314.93</t>
+          <t>21 C.F.R. § 10.30; Section 505(j)(2) of the Federal Food, Drug, and Cosmetic Act (FD&amp;C Act); 21 C.F.R. §§ 314.127(a)(7) and 314.127(a)(6)(i); 21 CFR 320.1(e) and 320.23(b)</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Requesting FDA action to allow submission of an ANDA for a new strength of an approved drug (Vancomycin Hydrochloride For Injection, USP, Fliptop Vial For Intravenous Use)</t>
+          <t>Approval process for Abbreviated New Drug Applications (ANDAs) referencing RAYOS® (prednisone) delayed-release tablets as the reference listed drug (RLD)</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Determine that Vancomycin Hydrochloride USP, 1.5 grams (base)/vial is suitable for ANDA submission as a new strength</t>
+          <t>Require that any ANDA referencing RAYOS® must demonstrate (1) no release of prednisone until approximately four hours after intake (equivalent lag time and Tmax) and (2) equivalent bioavailability (BA) profile after the four-hour delay, under fed conditions</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>The petitioner argues that the proposed product will have the same active ingredient, concentration after reconstitution, route of administration, dosage, and indications as the reference listed drug (RLD), differing only in total drug content, and that it would benefit clinical dosing without raising safety or effectiveness concerns.</t>
+          <t>RAYOS® tablets employ a unique delayed-release mechanism synchronized with the circadian rise in pro-inflammatory cytokines, critical for therapeutic effect in inflammatory diseases like rheumatoid arthritis; differing delayed-release mechanisms (e.g., enteric coating) could result in different pharmacokinetic profiles, impacting efficacy; thus, bioequivalence must demonstrate equivalent lag time, Tmax, and BA under fed conditions to ensure comparable therapeutic effect.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1203-0001_McGuireWoods_LLP_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1286-0001_Proctor_Gamble_Company_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>September 25, 2013</t>
+          <t>October 11, 2013</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>McGuireWoods LLP</t>
+          <t>The Procter &amp; Gamble Company</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Representing an unnamed client (not disclosed in the petition)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. §§ 10.30 and 314.93</t>
+          <t>21 C.F.R. § 10.30, 21 C.F.R. Part 314, 21 U.S.C. §§ 351 and 355</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Suitability determination for submission of an Abbreviated New Drug Application (ANDA) for a different fill volume of Ropivacaine Hydrochloride Injection</t>
+          <t>Approval and labeling standards for over-the-counter proton pump inhibitors (PPIs), particularly related to Prilosec OTC and pending applications like Nexium OTC</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>The petitioner requests that the FDA determine that Ropivacaine Hydrochloride Injection 2mg/mL in a 500 mL infusion bag is suitable for submission as an ANDA</t>
+          <t>(1) Continue requiring consistent labeling standards for all OTC PPIs similar to Prilosec OTC; (2) Impose rigorous standards on pending or future OTC PPI applications; (3) Require clinically significant evidence if label differences are proposed, and prevent false or misleading claims about relative safety or efficacy</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>The petitioner argues that the proposed product differs from the reference listed drug (NAROPIN) only in total fill volume (500 mL vs. 200 mL), with no change in concentration, active ingredient, dosage form, route of administration, or indications; further, it improves patient and hospital convenience, reduces risk of error and contamination, and decreases pharmacy workload and waste.</t>
+          <t>P&amp;G argues that different labeling among similar OTC PPI products could mislead consumers into thinking certain products are more effective without adequate substantiation, potentially violating the Administrative Procedure Act by treating similarly situated products differently; therefore, consistent class labeling or consistent regulatory standards are necessary to avoid consumer confusion and ensure fair competition.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1283-0001_Horizon_Pharma_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1287-0001_Aptalis_Pharma_US_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>October 4, 2013</t>
+          <t>October 15, 2013</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Horizon Pharma, Inc.</t>
+          <t>Aptalis Pharma US, Inc.</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>No representation; Aptalis submitted directly.</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30; Section 505(j)(2) of the Federal Food, Drug, and Cosmetic Act (FD&amp;C Act); 21 C.F.R. §§ 314.127(a)(7) and 314.127(a)(6)(i); 21 CFR 320.1(e) and 320.23(b)</t>
+          <t>Sections 505 and 505(q) of the Federal Food, Drug, and Cosmetic Act (FDC Act); 21 C.F.R. §§ 10.25 and 10.30</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Approval process for Abbreviated New Drug Applications (ANDAs) referencing RAYOS® (prednisone) delayed-release tablets as the reference listed drug (RLD)</t>
+          <t>Approval standards for Abbreviated New Drug Applications (ANDAs) for generic versions of Canasa® (mesalamine) Rectal Suppositories, 500 mg and 1000 mg</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Require that any ANDA referencing RAYOS® must demonstrate (1) no release of prednisone until approximately four hours after intake (equivalent lag time and Tmax) and (2) equivalent bioavailability (BA) profile after the four-hour delay, under fed conditions</t>
+          <t>(1) Refuse to receive or approve any ANDA for a generic Canasa® unless bioequivalence is demonstrated through a clinical endpoint study; (2) Withdraw current bioequivalence guidance and issue new guidance requiring such study; (3) Require assessment of critical quality attributes, including Q1, Q2, Q3 sameness and dissolution testing; (4) Hold final approvals in abeyance until ongoing FDA studies are completed and reviewed.</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>RAYOS® tablets employ a unique delayed-release mechanism synchronized with the circadian rise in pro-inflammatory cytokines, critical for therapeutic effect in inflammatory diseases like rheumatoid arthritis; differing delayed-release mechanisms (e.g., enteric coating) could result in different pharmacokinetic profiles, impacting efficacy; thus, bioequivalence must demonstrate equivalent lag time, Tmax, and BA under fed conditions to ensure comparable therapeutic effect.</t>
+          <t>Aptalis argues that systemic pharmacokinetic data are inadequate to demonstrate bioequivalence for locally acting rectal suppositories like Canasa®; clinical endpoint studies are necessary due to the drug’s local action; significant variability in systemic absorption exists; and critical quality attributes (like spreadability and irritation potential) must be properly assessed to ensure therapeutic equivalence.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1286-0001_Proctor_Gamble_Company_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1288-0001_National_Advocates_for_Pregnant_Women_Citizen_Peti.pdf</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>October 11, 2013</t>
+          <t>October 7, 2013</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>The Procter &amp; Gamble Company</t>
+          <t>National Advocates for Pregnant Women (NAPW)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>Not representing another entity; submitted directly by NAPW along with support from various individuals and organizations</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30, 21 C.F.R. Part 314, 21 U.S.C. §§ 351 and 355</t>
+          <t>21 C.F.R. § 10.30; references also to 21 U.S.C. § 355, 21 U.S.C. § 355(o)(4), 21 U.S.C. § 355-1(b)(3), 21 C.F.R. § 201, 21 C.F.R. § 25.31</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Approval and labeling standards for over-the-counter proton pump inhibitors (PPIs), particularly related to Prilosec OTC and pending applications like Nexium OTC</t>
+          <t>FDA's neonatal opioid withdrawal syndrome (NOWS)-related labeling changes for extended-release and long-acting (ER/LA) opioid analgesics announced on September 10, 2013</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>(1) Continue requiring consistent labeling standards for all OTC PPIs similar to Prilosec OTC; (2) Impose rigorous standards on pending or future OTC PPI applications; (3) Require clinically significant evidence if label differences are proposed, and prevent false or misleading claims about relative safety or efficacy</t>
+          <t>Petitioner requests the FDA to refrain from implementing NOWS-related labeling changes, remove references to NOWS as life-threatening, modify full prescribing information regarding opioid dependence treatment during pregnancy, and present supporting literature to an advisory committee for evaluation</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>P&amp;G argues that different labeling among similar OTC PPI products could mislead consumers into thinking certain products are more effective without adequate substantiation, potentially violating the Administrative Procedure Act by treating similarly situated products differently; therefore, consistent class labeling or consistent regulatory standards are necessary to avoid consumer confusion and ensure fair competition.</t>
+          <t>The petitioner argues that the NOWS-related warnings are medically inaccurate, not supported by substantial evidence, misleading, inconsistent with expert consensus, likely to result in denial of appropriate treatment for pregnant women, and may lead to punitive child welfare interventions against women receiving opioid substitution therapy</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1287-0001_Aptalis_Pharma_US_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1289-0001_National_Advocates_for_Pregnant_Women_Citizen_Peti.pdf</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>October 15, 2013</t>
+          <t>October 7, 2013</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Aptalis Pharma US, Inc.</t>
+          <t>National Advocates for Pregnant Women (NAPW)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>No representation; Aptalis submitted directly.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sections 505 and 505(q) of the Federal Food, Drug, and Cosmetic Act (FDC Act); 21 C.F.R. §§ 10.25 and 10.30</t>
+          <t>21 C.F.R. § 10.35; 21 C.F.R. § 10.30; 21 U.S.C. § 355(o)(4); 21 C.F.R. § 201.56(a)(2); 21 C.F.R. § 201.56(a)(3); 21 U.S.C. § 355-1(b)(3); 21 U.S.C. § 355-1(b)(4)(A); 21 U.S.C. § 355-1(b)(4)(B); 21 U.S.C. § 355(d)(5); 21 U.S.C. § 355(d)(7); 21 U.S.C. § 355(e); 42 C.F.R. § 8.12(g)(1); 42 C.F.R. § 8.12(e)(3)</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Approval standards for Abbreviated New Drug Applications (ANDAs) for generic versions of Canasa® (mesalamine) Rectal Suppositories, 500 mg and 1000 mg</t>
+          <t>The FDA's neonatal opioid withdrawal syndrome–related labeling changes for extended-release and long-acting opioid analgesics announced on September 10, 2013</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>(1) Refuse to receive or approve any ANDA for a generic Canasa® unless bioequivalence is demonstrated through a clinical endpoint study; (2) Withdraw current bioequivalence guidance and issue new guidance requiring such study; (3) Require assessment of critical quality attributes, including Q1, Q2, Q3 sameness and dissolution testing; (4) Hold final approvals in abeyance until ongoing FDA studies are completed and reviewed.</t>
+          <t>An indefinite stay of implementation of the NOWS-related labeling changes for ER/LA opioid analgesics</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aptalis argues that systemic pharmacokinetic data are inadequate to demonstrate bioequivalence for locally acting rectal suppositories like Canasa®; clinical endpoint studies are necessary due to the drug’s local action; significant variability in systemic absorption exists; and critical quality attributes (like spreadability and irritation potential) must be properly assessed to ensure therapeutic equivalence.</t>
+          <t>The warnings are medically inaccurate and unsupported by substantial evidence, conflict with FDA labeling requirements and expert consensus, risk discouraging necessary pain and addiction treatments for pregnant women, and may lead to harmful child welfare interventions</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1288-0001_National_Advocates_for_Pregnant_Women_Citizen_Peti.pdf</t>
+          <t>FDA-2013-P-1290-0001_FDA_CDER_Response_to_Hogan_Lovells_US_LLP_Petition.pdf</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -8867,296 +8867,296 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Not representing another entity; submitted directly by NAPW along with support from various individuals and organizations</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30; references also to 21 U.S.C. § 355, 21 U.S.C. § 355(o)(4), 21 U.S.C. § 355-1(b)(3), 21 C.F.R. § 201, 21 C.F.R. § 25.31</t>
+          <t>21 C.F.R. § 10.35; 21 C.F.R. § 10.30; 21 U.S.C. § 355(o)(4); 21 C.F.R. § 201.56(a)(2); 21 C.F.R. § 201.56(a)(3); 21 U.S.C. § 355-1(b)(3); 21 U.S.C. § 355-1(b)(4)(A); 21 U.S.C. § 355-1(b)(4)(B); 21 U.S.C. § 355(d)(5); 21 U.S.C. § 355(d)(7); 21 U.S.C. § 355(e); 42 C.F.R. § 8.12(g)(1); 42 C.F.R. § 8.12(e)(3)</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>FDA's neonatal opioid withdrawal syndrome (NOWS)-related labeling changes for extended-release and long-acting (ER/LA) opioid analgesics announced on September 10, 2013</t>
+          <t>The FDA’s neonatal opioid withdrawal syndrome–related labeling changes for extended-release and long-acting opioid analgesics announced on September 10, 2013</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Petitioner requests the FDA to refrain from implementing NOWS-related labeling changes, remove references to NOWS as life-threatening, modify full prescribing information regarding opioid dependence treatment during pregnancy, and present supporting literature to an advisory committee for evaluation</t>
+          <t>An indefinite stay of implementation of the NOWS-related labeling changes for ER/LA opioid analgesics</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>The petitioner argues that the NOWS-related warnings are medically inaccurate, not supported by substantial evidence, misleading, inconsistent with expert consensus, likely to result in denial of appropriate treatment for pregnant women, and may lead to punitive child welfare interventions against women receiving opioid substitution therapy</t>
+          <t>The NOWS-related warnings are medically inaccurate, unsupported by substantial evidence, conflict with FDA labeling requirements and expert consensus, risk discouraging necessary pain and addiction treatments for pregnant women, and may lead to harmful child welfare interventions</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1289-0001_National_Advocates_for_Pregnant_Women_Citizen_Peti.pdf</t>
+          <t>FDA-2013-P-1291-0001_American_Herbal_Products_Association_Citizen_Petit.pdf</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>October 7, 2013</t>
+          <t>October 17, 2013</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>National Advocates for Pregnant Women (NAPW)</t>
+          <t>American Herbal Products Association (AHPA)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>AHPA represents companies that market herbs, herbal and botanical products, and other health-related products regulated by the FDA</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.35; 21 C.F.R. § 10.30; 21 U.S.C. § 355(o)(4); 21 C.F.R. § 201.56(a)(2); 21 C.F.R. § 201.56(a)(3); 21 U.S.C. § 355-1(b)(3); 21 U.S.C. § 355-1(b)(4)(A); 21 U.S.C. § 355-1(b)(4)(B); 21 U.S.C. § 355(d)(5); 21 U.S.C. § 355(d)(7); 21 U.S.C. § 355(e); 42 C.F.R. § 8.12(g)(1); 42 C.F.R. § 8.12(e)(3)</t>
+          <t>21 C.F.R. § 10.30; 21 C.F.R. Part 111; 21 C.F.R. Parts 110 &amp; 111; 21 U.S.C. § 704(b); 21 C.F.R. § 25.30; 21 C.F.R. § 10.30(b)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>The FDA's neonatal opioid withdrawal syndrome–related labeling changes for extended-release and long-acting opioid analgesics announced on September 10, 2013</t>
+          <t>FDA policy in the Inspections Operations Manual prohibiting investigators from quoting or citing cGMP regulations in Form FDA-483 inspectional observations</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>An indefinite stay of implementation of the NOWS-related labeling changes for ER/LA opioid analgesics</t>
+          <t>Formally rescind the policy prohibiting investigators from quoting or citing cGMP regulations in 483s and revise the Inspections Operations Manual to require that 483s reference each relevant cGMP regulation</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>The warnings are medically inaccurate and unsupported by substantial evidence, conflict with FDA labeling requirements and expert consensus, risk discouraging necessary pain and addiction treatments for pregnant women, and may lead to harmful child welfare interventions</t>
+          <t>Because omission of regulatory citations slows resolution of compliance issues, undermines agency transparency, forces industry to guess at regulatory requirements, and inclusion of citations would promote understanding, compliance, transparency, and harmonize FDA policies without imposing additional work</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1290-0001_FDA_CDER_Response_to_Hogan_Lovells_US_LLP_Petition.pdf</t>
+          <t>FDA-2013-P-1292-0001_Sun_Pharmaceutical_Industries_Ltd_Winston_Strawn_L.pdf</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>October 7, 2013</t>
+          <t>October 17, 2013</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>National Advocates for Pregnant Women (NAPW)</t>
+          <t>Sun Pharmaceutical Industries, Ltd.</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Winston &amp; Strawn LLP representing Sun Pharmaceutical Industries, Ltd.</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.35; 21 C.F.R. § 10.30; 21 U.S.C. § 355(o)(4); 21 C.F.R. § 201.56(a)(2); 21 C.F.R. § 201.56(a)(3); 21 U.S.C. § 355-1(b)(3); 21 U.S.C. § 355-1(b)(4)(A); 21 U.S.C. § 355-1(b)(4)(B); 21 U.S.C. § 355(d)(5); 21 U.S.C. § 355(d)(7); 21 U.S.C. § 355(e); 42 C.F.R. § 8.12(g)(1); 42 C.F.R. § 8.12(e)(3)</t>
+          <t>21 U.S.C. § 301 et seq.; 21 C.F.R. § 10.30; 21 C.F.R. § 25.31(a),(c); 21 C.F.R. § 10.30(b); 21 U.S.C. § 331(a); 21 C.F.R. § 201.5; 21 C.F.R. § 201.128</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>The FDA’s neonatal opioid withdrawal syndrome–related labeling changes for extended-release and long-acting opioid analgesics announced on September 10, 2013</t>
+          <t>The FDA approval and labeling of Ganirelix Acetate Injection indication regarding use as a female contraceptive</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>An indefinite stay of implementation of the NOWS-related labeling changes for ER/LA opioid analgesics</t>
+          <t>Confirm that Ganirelix is not approved by the FDA for use as a female contraceptive and that the FDA-labeled indication for Ganirelix is not equivalent to a method of female contraception</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>The NOWS-related warnings are medically inaccurate, unsupported by substantial evidence, conflict with FDA labeling requirements and expert consensus, risk discouraging necessary pain and addiction treatments for pregnant women, and may lead to harmful child welfare interventions</t>
+          <t>To correct misleading legal positions by Organon suggesting Ganirelix is approved as contraception, to prevent off-label marketing and misbranding, and to protect public health by clarifying approved use</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1291-0001_American_Herbal_Products_Association_Citizen_Petit.pdf</t>
+          <t>FDA-2013-P-1294-0001_Luitpold_Pharmaceuticals_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>October 17, 2013</t>
+          <t>September 30, 2013</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>American Herbal Products Association (AHPA)</t>
+          <t>Sheppard Mullin Richter &amp; Hampton LLP</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>AHPA represents companies that market herbs, herbal and botanical products, and other health-related products regulated by the FDA</t>
+          <t>Yes; representing Luitpold Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30; 21 C.F.R. Part 111; 21 C.F.R. Parts 110 &amp; 111; 21 U.S.C. § 704(b); 21 C.F.R. § 25.30; 21 C.F.R. § 10.30(b)</t>
+          <t>21 U.S.C. § 301 et seq.; 21 C.F.R. § 10.30; 21 C.F.R. §§ 25.30(h), 25.31(a); 21 C.F.R. § 10.30(b)</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>FDA policy in the Inspections Operations Manual prohibiting investigators from quoting or citing cGMP regulations in Form FDA-483 inspectional observations</t>
+          <t>The FDA’s approval and labeling of injectable iron products for treatment of iron deficiency anemia outside of chronic kidney disease (e.g., NDA 203565 for Injectafer®)</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Formally rescind the policy prohibiting investigators from quoting or citing cGMP regulations in 483s and revise the Inspections Operations Manual to require that 483s reference each relevant cGMP regulation</t>
+          <t>Require that any NDA or NDA supplement for injectable iron products for IDA outside CKD be approved only if pivotal studies include an objective oral iron run-in demonstrating intolerance or unsatisfactory response, and require contraindications for patients with prior allergic reactions to iron products or multiple drug allergies</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Because omission of regulatory citations slows resolution of compliance issues, undermines agency transparency, forces industry to guess at regulatory requirements, and inclusion of citations would promote understanding, compliance, transparency, and harmonize FDA policies without imposing additional work</t>
+          <t>Because of significant safety risks of injectable iron, the need to restrict use to patients objectively intolerant or unresponsive to oral iron, to avoid arbitrary approval practices, and to protect hypersensitive patients from serious allergic reactions</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1292-0001_Sun_Pharmaceutical_Industries_Ltd_Winston_Strawn_L.pdf</t>
+          <t>FDA-2013-P-1296-0001_Lannett_Company_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>October 17, 2013</t>
+          <t>October 2, 2013</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Sun Pharmaceutical Industries, Ltd.</t>
+          <t>Lannett Company, Inc.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Winston &amp; Strawn LLP representing Sun Pharmaceutical Industries, Ltd.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>21 U.S.C. § 301 et seq.; 21 C.F.R. § 10.30; 21 C.F.R. § 25.31(a),(c); 21 C.F.R. § 10.30(b); 21 U.S.C. § 331(a); 21 C.F.R. § 201.5; 21 C.F.R. § 201.128</t>
+          <t>21 U.S.C. § 355(j); 21 C.F.R. § 314.93; 21 C.F.R. § 25.31(a)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>The FDA approval and labeling of Ganirelix Acetate Injection indication regarding use as a female contraceptive</t>
+          <t>The requirement under FDCA 505(j) and 21 C.F.R. § 314.93 that an ANDA match the dosage form of the RLD</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Confirm that Ganirelix is not approved by the FDA for use as a female contraceptive and that the FDA-labeled indication for Ganirelix is not equivalent to a method of female contraception</t>
+          <t>That the Commissioner determine an ANDA for Acetazolamide Extended-Release Tablets may be submitted using DIAMOX® SEQUELS® (capsules) as the RLD</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>To correct misleading legal positions by Organon suggesting Ganirelix is approved as contraception, to prevent off-label marketing and misbranding, and to protect public health by clarifying approved use</t>
+          <t>Both the RLD capsules and proposed tablets are solid oral dosage forms with the same route and are expected to have the same therapeutic effect under identical conditions of use</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1293-0001_Correction_Acknowledgement_Letter_to_United_Therap.pdf</t>
+          <t>FDA-2013-P-1297-0001_Harmony_Cone_Ear_Candles_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>October 17, 2013</t>
+          <t>September 26, 2013</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>United Therapeutics Corp.</t>
+          <t>Kevin Boulton</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Yes; representing the families of Harmony Cone Ear Candles</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>21 U.S.C. § 321(h) (FDCA § 201(h)); 21 C.F.R. § 10.30; 21 C.F.R. § 101.93(g)(2)</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Approval of any ANDA for treprostinil that does not include the safety information found in Remodulin labeling</t>
+          <t>The FDA’s classification of Harmony Cone Ear Candles as medical devices under FDCA § 201(h)</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Refrain from approving any ANDA for treprostinil that does not contain the safety information found in Remodulin labeling</t>
+          <t>Issue a declaratory order that HCEC are not medical devices under FDCA § 201(h), hold a public hearing, and temporarily stay any enforcement actions against HCEC manufacturers, distributors, or sellers during pendency</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>To ensure that generic treprostinil products include the critical safety information present in the approved Remodulin labeling</t>
+          <t>Because HCECs fall outside the device definition (not recognized in USP/NF, not intended for medical use, no chemical action, not metabolized), are safe relaxation products with no adverse event reports, and consumers have a right to use them free from unwarranted FDA enforcement</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1294-0001_Luitpold_Pharmaceuticals_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1373-0001_Terry_L_Tennant_Citizen_Petition_Redacted.pdf</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>September 30, 2013</t>
+          <t>September 19, 2013</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Sheppard Mullin Richter &amp; Hampton LLP</t>
+          <t>Terry L. Tennant</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Yes; representing Luitpold Pharmaceuticals, Inc.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>21 U.S.C. § 301 et seq.; 21 C.F.R. § 10.30; 21 C.F.R. §§ 25.30(h), 25.31(a); 21 C.F.R. § 10.30(b)</t>
+          <t>Federal Food, Drug, and Cosmetic Act; Public Health Service Act; 21 C.F.R. § 5.10; 21 C.F.R. § 804.3(d)</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>The FDA’s approval and labeling of injectable iron products for treatment of iron deficiency anemia outside of chronic kidney disease (e.g., NDA 203565 for Injectafer®)</t>
+          <t>The definition of 'distributor' in the device-tracking regulations (21 C.F.R. Part 804)</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Require that any NDA or NDA supplement for injectable iron products for IDA outside CKD be approved only if pivotal studies include an objective oral iron run-in demonstrating intolerance or unsatisfactory response, and require contraindications for patients with prior allergic reactions to iron products or multiple drug allergies</t>
+          <t>Amend 21 C.F.R. § 804.3(d) (and related sections) to expand the definition of 'distributor' to cover any person who furthers marketing of a device from the original manufacturer's installation or importation to the ultimate user</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Because of significant safety risks of injectable iron, the need to restrict use to patients objectively intolerant or unresponsive to oral iron, to avoid arbitrary approval practices, and to protect hypersensitive patients from serious allergic reactions</t>
+          <t>Because devices sold off the device master record after initial installation or importation are not currently tracked, creating gaps that undermine patient safety and the FDA’s ability to locate devices for notification or recall</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1296-0001_Lannett_Company_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1374-0001_Citizen_Petition_from_Pharmacists_Planning_Service.pdf</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>October 2, 2013</t>
+          <t>October 4, 2013</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Lannett Company, Inc.</t>
+          <t>Pharmacists Planning Services, Inc.</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -9166,155 +9166,155 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>21 U.S.C. § 355(j); 21 C.F.R. § 314.93; 21 C.F.R. § 25.31(a)</t>
+          <t>21 C.F.R. § 10.20; 21 C.F.R. § 10.30; 21 C.F.R. § 5.10; Federal Food, Drug, and Cosmetic Act; Public Health Service Act</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>The requirement under FDCA 505(j) and 21 C.F.R. § 314.93 that an ANDA match the dosage form of the RLD</t>
+          <t>The FDA’s failure to hold public hearings and establish updated regulatory standards on cellphone radiation exposure (SAR and RFR/EMF)</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>That the Commissioner determine an ANDA for Acetazolamide Extended-Release Tablets may be submitted using DIAMOX® SEQUELS® (capsules) as the RLD</t>
+          <t>Hold public hearings; open a federal registry; modernize federal cellphone radiation standards; require 12-point warning labels; educate consumers on reducing exposure</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Both the RLD capsules and proposed tablets are solid oral dosage forms with the same route and are expected to have the same therapeutic effect under identical conditions of use</t>
+          <t>Emerging scientific evidence links RFR/EMF and cellphone use to health risks (glioma, acoustic neuroma, behavioral disorders, autism, etc.); IARC classification as possible carcinogen; need to protect vulnerable populations and inform consumers of precautions</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1297-0001_Harmony_Cone_Ear_Candles_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1375-0001_Purdue_Pharma_LP_Kleinfeld_Kaplan_and_Becker_LLP_C.pdf</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>September 26, 2013</t>
+          <t>October 21, 2013</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Kevin Boulton</t>
+          <t>Purdue Pharma L.P.</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Yes; representing the families of Harmony Cone Ear Candles</t>
+          <t>Kleinfeld, Kaplan and Becker LLP representing Purdue Pharma L.P.</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>21 U.S.C. § 321(h) (FDCA § 201(h)); 21 C.F.R. § 10.30; 21 C.F.R. § 101.93(g)(2)</t>
+          <t>21 C.F.R. §§ 10.30, 314.53, 314.94, 314.127; 21 C.F.R. Part 320; Section 505 and Section 505(j) of the FDCA (21 U.S.C. § 355); 5 U.S.C. § 706(2)(A); 21 C.F.R. § 25.31; 21 C.F.R. § 10.30(b)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>The FDA’s classification of Harmony Cone Ear Candles as medical devices under FDCA § 201(h)</t>
+          <t>FDA’s development of guidance and standards for approving generic versions of reformulated OxyContin, including acceptance or approval of ANDAs citing OxyContin and the draft bioequivalence guidance on oxycodone ER tablets</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Issue a declaratory order that HCEC are not medical devices under FDCA § 201(h), hold a public hearing, and temporarily stay any enforcement actions against HCEC manufacturers, distributors, or sellers during pendency</t>
+          <t>Adopt a guidance specifying comparative in vitro and in vivo abuse-deterrence tests for generic OxyContin, refuse to approve any ANDA that lacks or fails these tests, and revise the draft bioequivalence guidance accordingly</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Because HCECs fall outside the device definition (not recognized in USP/NF, not intended for medical use, no chemical action, not metabolized), are safe relaxation products with no adverse event reports, and consumers have a right to use them free from unwarranted FDA enforcement</t>
+          <t>Generic products without equivalent abuse-deterrent attributes would pose higher abuse risk and a different risk–benefit profile, so rigorous testing is needed to protect public health and to meet FDCA and APA requirements</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1373-0001_Terry_L_Tennant_Citizen_Petition_Redacted.pdf</t>
+          <t>FDA-2013-P-1376-0001_Covis_Pharma_Sarl_Buchanan_Ingersoll_Rooney_PC_Cit.pdf</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>September 19, 2013</t>
+          <t>October 21, 2013</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Terry L. Tennant</t>
+          <t>Covis Pharma Sarl</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Submitted by the law firm Buchanan Ingersoll &amp; Rooney PC on behalf of Covis Pharma Sarl</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Federal Food, Drug, and Cosmetic Act; Public Health Service Act; 21 C.F.R. § 5.10; 21 C.F.R. § 804.3(d)</t>
+          <t>Section 505(j) of the FDCA (21 U.S.C. § 355(j)); 21 C.F.R. §§ 10.20, 10.30, 314.108, 25.31(a)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>The definition of 'distributor' in the device-tracking regulations (21 C.F.R. Part 804)</t>
+          <t>FDA’s handling of Lanoxin (digoxin) Tablets NDA 20-405—specifically the Agency’s listings in the Orange Book and its policies on approving ANDAs and recognizing marketing exclusivity for the 0.0625 mg and 0.1875 mg strengths</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Amend 21 C.F.R. § 804.3(d) (and related sections) to expand the definition of 'distributor' to cover any person who furthers marketing of a device from the original manufacturer's installation or importation to the ultimate user</t>
+          <t>Confirm that those two strengths were never fully approved in 1997, that their three-year exclusivity therefore never ran, and that Covis now holds a full three-year marketing exclusivity period for them beginning with FDA’s October 17 2013 PAS approval</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Because devices sold off the device master record after initial installation or importation are not currently tracked, creating gaps that undermine patient safety and the FDA’s ability to locate devices for notification or recall</t>
+          <t>Because FDA required a PAS, new draft labeling, CMC dissolution data, and a prior-approval inspection before allowing marketing, the two strengths were not fully approved or marketed; exclusivity awarded in 1997 could not have started, so Covis is entitled to the full three-year term now to protect its investment and ensure consistent regulatory treatment</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1374-0001_Citizen_Petition_from_Pharmacists_Planning_Service.pdf</t>
+          <t>FDA-2013-P-1377-0001_Covis_Pharma_Sarl_Buchanan_Ingersoll_Rooney_PC_Cit.pdf</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>October 4, 2013</t>
+          <t>October 21, 2013</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Pharmacists Planning Services, Inc.</t>
+          <t>Buchanan Ingersoll &amp; Rooney PC (Edward John Allera, Barbara Binzak Blumenfeld, Tina Hu)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Law firm submitting on behalf of Covis Pharma Sarl</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.20; 21 C.F.R. § 10.30; 21 C.F.R. § 5.10; Federal Food, Drug, and Cosmetic Act; Public Health Service Act</t>
+          <t>§ 505(j) of the Federal Food, Drug, and Cosmetic Act (21 U.S.C. § 355(j)); 21 C.F.R. § 10.20; 21 C.F.R. § 10.30; 21 C.F.R. Part 320</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>The FDA’s failure to hold public hearings and establish updated regulatory standards on cellphone radiation exposure (SAR and RFR/EMF)</t>
+          <t>FDA’s practice of allowing waivers of dissolution and blend-uniformity testing for generic digoxin tablets under its bioequivalence guidance</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Hold public hearings; open a federal registry; modernize federal cellphone radiation standards; require 12-point warning labels; educate consumers on reducing exposure</t>
+          <t>Require every ANDA for 0.0625 mg and 0.1875 mg digoxin tablets referencing Lanoxin to perform and pass dissolution and blend-uniformity validation testing, and deny any waiver requests for those tests</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Emerging scientific evidence links RFR/EMF and cellphone use to health risks (glioma, acoustic neuroma, behavioral disorders, autism, etc.); IARC classification as possible carcinogen; need to protect vulnerable populations and inform consumers of precautions</t>
+          <t>Digoxin is a narrow-therapeutic-index drug with extremely high excipient-to-API ratios, making dissolution and blend uniformity critical to safety and bioequivalence; FDA compelled Covis to perform these tests before marketing, so equal treatment, public health protection, and due-process fairness demand the same requirements for all generic sponsors</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1375-0001_Purdue_Pharma_LP_Kleinfeld_Kaplan_and_Becker_LLP_C.pdf</t>
+          <t>FDA-2013-P-1379-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -9324,464 +9324,464 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Purdue Pharma L.P.</t>
+          <t>Lachman Consultant Services, Inc.</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Kleinfeld, Kaplan and Becker LLP representing Purdue Pharma L.P.</t>
+          <t>Representing a client (client name not disclosed)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>21 C.F.R. §§ 10.30, 314.53, 314.94, 314.127; 21 C.F.R. Part 320; Section 505 and Section 505(j) of the FDCA (21 U.S.C. § 355); 5 U.S.C. § 706(2)(A); 21 C.F.R. § 25.31; 21 C.F.R. § 10.30(b)</t>
+          <t>21 C.F.R. § 10.30, 21 C.F.R. § 314.161, 21 C.F.R. § 314.162, 21 C.F.R. § 25.31</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>FDA’s development of guidance and standards for approving generic versions of reformulated OxyContin, including acceptance or approval of ANDAs citing OxyContin and the draft bioequivalence guidance on oxycodone ER tablets</t>
+          <t>Determination whether PREZISTA® (darunavir) Tablets, 400 mg, has been voluntarily withdrawn from sale for safety or effectiveness reasons</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Adopt a guidance specifying comparative in vitro and in vivo abuse-deterrence tests for generic OxyContin, refuse to approve any ANDA that lacks or fails these tests, and revise the draft bioequivalence guidance accordingly</t>
+          <t>Request FDA to determine if PREZISTA® (darunavir) Tablets, 400 mg, was withdrawn for safety or efficacy reasons to enable action on an ANDA</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Generic products without equivalent abuse-deterrent attributes would pose higher abuse risk and a different risk–benefit profile, so rigorous testing is needed to protect public health and to meet FDCA and APA requirements</t>
+          <t>Janssen announced discontinuation of the 400 mg dosage strength for commercial reasons favoring the 800 mg strength; no evidence of safety or efficacy concerns related to the withdrawal.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1376-0001_Covis_Pharma_Sarl_Buchanan_Ingersoll_Rooney_PC_Cit.pdf</t>
+          <t>FDA-2013-P-1397-0001_UCB_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>October 21, 2013</t>
+          <t>October 28, 2013</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Covis Pharma Sarl</t>
+          <t>UCB, Inc.</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Submitted by the law firm Buchanan Ingersoll &amp; Rooney PC on behalf of Covis Pharma Sarl</t>
+          <t>No third-party representation; UCB, Inc. submitted the petition directly.</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Section 505(j) of the FDCA (21 U.S.C. § 355(j)); 21 C.F.R. §§ 10.20, 10.30, 314.108, 25.31(a)</t>
+          <t>505(j) of the FDCA, 21 C.F.R. §10.30, 21 U.S.C. §355(c)(3)(E), 21 U.S.C. §355(j)(5)(F), 5 U.S.C. §801(a)(1)(A), 21 C.F.R. §314.101(d), 21 C.F.R. §314.108(a), 21 C.F.R. §314.105(a), 21 C.F.R. §314.70(b)(2)(v)(C), 21 C.F.R. §201.57(a)(2)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>FDA’s handling of Lanoxin (digoxin) Tablets NDA 20-405—specifically the Agency’s listings in the Orange Book and its policies on approving ANDAs and recognizing marketing exclusivity for the 0.0625 mg and 0.1875 mg strengths</t>
+          <t>Timing of triggering new chemical entity (NCE) exclusivity relative to Drug Enforcement Administration (DEA) scheduling under the Controlled Substances Act (CSA)</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Confirm that those two strengths were never fully approved in 1997, that their three-year exclusivity therefore never ran, and that Covis now holds a full three-year marketing exclusivity period for them beginning with FDA’s October 17 2013 PAS approval</t>
+          <t>(1) Determine that NCE exclusivity for lacosamide began on June 9, 2009 (instead of October 28, 2008) and will end on June 9, 2014; (2) Confirm that approval of certain ANDAs will be stayed until December 7, 2016; (3) Respond substantively to this petition within 150 days.</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Because FDA required a PAS, new draft labeling, CMC dissolution data, and a prior-approval inspection before allowing marketing, the two strengths were not fully approved or marketed; exclusivity awarded in 1997 could not have started, so Covis is entitled to the full three-year term now to protect its investment and ensure consistent regulatory treatment</t>
+          <t>UCB lost 223 days of NCE exclusivity because lacosamide could not be legally marketed until it was scheduled under the CSA; exclusivity should start from the date the drug could be legally marketed to preserve the full 5 years intended by statute; FDA's current practice undermines incentives for innovation and causes inequitable treatment for sponsors of scheduled drugs.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1377-0001_Covis_Pharma_Sarl_Buchanan_Ingersoll_Rooney_PC_Cit.pdf</t>
+          <t>FDA-2013-P-1398-0001_Novartis_Group_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>October 21, 2013</t>
+          <t>October 28, 2013</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Buchanan Ingersoll &amp; Rooney PC (Edward John Allera, Barbara Binzak Blumenfeld, Tina Hu)</t>
+          <t>Novartis Group of Companies</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Law firm submitting on behalf of Covis Pharma Sarl</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>§ 505(j) of the Federal Food, Drug, and Cosmetic Act (21 U.S.C. § 355(j)); 21 C.F.R. § 10.20; 21 C.F.R. § 10.30; 21 C.F.R. Part 320</t>
+          <t>21 C.F.R. § 10.30</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>FDA’s practice of allowing waivers of dissolution and blend-uniformity testing for generic digoxin tablets under its bioequivalence guidance</t>
+          <t>Policy regarding naming of biosimilars (i.e., whether biosimilars should share the same international nonproprietary name (INN) as the reference product)</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Require every ANDA for 0.0625 mg and 0.1875 mg digoxin tablets referencing Lanoxin to perform and pass dissolution and blend-uniformity validation testing, and deny any waiver requests for those tests</t>
+          <t>Require that a biosimilar be identified by the same international nonproprietary name (INN) as the reference product</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Digoxin is a narrow-therapeutic-index drug with extremely high excipient-to-API ratios, making dissolution and blend uniformity critical to safety and bioequivalence; FDA compelled Covis to perform these tests before marketing, so equal treatment, public health protection, and due-process fairness demand the same requirements for all generic sponsors</t>
+          <t>Assigning unique INNs to biosimilars would cause unnecessary confusion, undermine established FDA practices, harm pharmacovigilance, confuse healthcare providers, misrepresent regulatory decisions about biosimilarity and interchangeability, and create barriers to patient access to affordable biologics.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1379-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1399-0001_Sigmapharm_Laboratories_LLC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>October 21, 2013</t>
+          <t>October 30, 2013</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Lachman Consultant Services, Inc.</t>
+          <t>Sigmapharm Laboratories, LLC</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Representing a client (client name not disclosed)</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30, 21 C.F.R. § 314.161, 21 C.F.R. § 314.162, 21 C.F.R. § 25.31</t>
+          <t>Section 505 of the Federal Food, Drug, and Cosmetic Act (21 U.S.C. § 355), 21 C.F.R. Part 314, 21 C.F.R. § 10.30</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Determination whether PREZISTA® (darunavir) Tablets, 400 mg, has been voluntarily withdrawn from sale for safety or effectiveness reasons</t>
+          <t>Acceptance and filing standards for Abbreviated New Drug Applications (ANDAs) for Asenapine Maleate Sublingual Tablets</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Request FDA to determine if PREZISTA® (darunavir) Tablets, 400 mg, was withdrawn for safety or efficacy reasons to enable action on an ANDA</t>
+          <t>Request that FDA refuse to receive (RTR) any ANDA for Asenapine Maleate Sublingual Tablets that does not include a bioequivalence study performed per FDA’s June 2013 product-specific bioequivalence guidance, and to set the filing date for 180-day exclusivity based on submission of a complying study</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Janssen announced discontinuation of the 400 mg dosage strength for commercial reasons favoring the 800 mg strength; no evidence of safety or efficacy concerns related to the withdrawal.</t>
+          <t>Sigmapharm argues that FDA issued specific bioequivalence guidance for Asenapine Maleate Sublingual Tablets in June 2013, that this guidance was necessary for patient safety and study reliability, that there was enough time to comply before the NCE-1 date, and that allowing non-compliant applications would be inequitable to those who followed FDA guidance</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1397-0001_UCB_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1505-0001_Teva_Respiratory_LLC_Teva_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>October 28, 2013</t>
+          <t>November 15, 2013</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>UCB, Inc.</t>
+          <t>Teva Respiratory, LLC (on behalf of Teva Pharmaceutical Industries Ltd.)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>No third-party representation; UCB, Inc. submitted the petition directly.</t>
+          <t>Teva Respiratory, LLC is submitting on behalf of Teva Pharmaceutical Industries Ltd.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>505(j) of the FDCA, 21 C.F.R. §10.30, 21 U.S.C. §355(c)(3)(E), 21 U.S.C. §355(j)(5)(F), 5 U.S.C. §801(a)(1)(A), 21 C.F.R. §314.101(d), 21 C.F.R. §314.108(a), 21 C.F.R. §314.105(a), 21 C.F.R. §314.70(b)(2)(v)(C), 21 C.F.R. §201.57(a)(2)</t>
+          <t>21 C.F.R. § 10.30, Section 505 of the Federal Food, Drug, and Cosmetic Act (21 U.S.C. § 355)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Timing of triggering new chemical entity (NCE) exclusivity relative to Drug Enforcement Administration (DEA) scheduling under the Controlled Substances Act (CSA)</t>
+          <t>FDA's policy regarding the inclusion of integrated dose counters on rescue inhalers (both brand and generic), and approval standards for such products</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>(1) Determine that NCE exclusivity for lacosamide began on June 9, 2009 (instead of October 28, 2008) and will end on June 9, 2014; (2) Confirm that approval of certain ANDAs will be stayed until December 7, 2016; (3) Respond substantively to this petition within 150 days.</t>
+          <t>Refrain from approving any new rescue inhalers (brand or generic) unless they include an integrated dose counter; 2. Implement a plan to transition currently approved rescue inhalers without a dose counter to versions with integrated dose counters</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>UCB lost 223 days of NCE exclusivity because lacosamide could not be legally marketed until it was scheduled under the CSA; exclusivity should start from the date the drug could be legally marketed to preserve the full 5 years intended by statute; FDA's current practice undermines incentives for innovation and causes inequitable treatment for sponsors of scheduled drugs.</t>
+          <t>Integrated dose counters are critical to patient safety because they allow patients and caregivers to accurately track the amount of medication remaining in rescue inhalers, reducing risks of inhaler failure during life-threatening asthma attacks; studies show dose counters reduce emergency room visits, improve asthma control, and the FDA’s previous encouragement for dose counters has been insufficiently enforced.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1398-0001_Novartis_Group_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1507-0001_Dr_S_Albert_Edwards_Citizen_Petition_Redacted.pdf</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>October 28, 2013</t>
+          <t>September 30, 2013</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Novartis Group of Companies</t>
+          <t>Dr. S. Albert Edwards, PharmD, RAC, FRAPS</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>No representation of another entity; petitioner states no business interest in a CRSO.</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30</t>
+          <t>Prescription Drug Amendments to the Federal Food, Drug, and Cosmetic Act; 21 CFR Parts 312 &amp; 314; 21 CFR 5.10; 21 CFR 25.34; 21 CFR 10.30(e)(2).</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Policy regarding naming of biosimilars (i.e., whether biosimilars should share the same international nonproprietary name (INN) as the reference product)</t>
+          <t>FDA Office of Business Informatics' handling of webtrader accounts for Contract Research/Service Organizations (CRSOs) submitting eCTDs for sponsors.</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Require that a biosimilar be identified by the same international nonproprietary name (INN) as the reference product</t>
+          <t>Uniformly institute a policy allowing single webtrader accounts for all CRSOs rather than requiring separate accounts for each sponsor.</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Assigning unique INNs to biosimilars would cause unnecessary confusion, undermine established FDA practices, harm pharmacovigilance, confuse healthcare providers, misrepresent regulatory decisions about biosimilarity and interchangeability, and create barriers to patient access to affordable biologics.</t>
+          <t>Closing single accounts is disruptive; multiple accounts create unnecessary business burdens, risk wrong account selection leading to errors, will increase workload as eCTD/RPS submissions become mandatory, and will strain FDA resources especially under staffing limitations.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1399-0001_Sigmapharm_Laboratories_LLC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1508-0001_Cadence_Pharmaceuticals_Inc_Craig_Pharma_Solutions.pdf</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>October 30, 2013</t>
+          <t>November 4, 2013</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Sigmapharm Laboratories, LLC</t>
+          <t>Craig Pharma Solutions LLC on behalf of Cadence Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>Craig Pharma Solutions LLC is representing Cadence Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Section 505 of the Federal Food, Drug, and Cosmetic Act (21 U.S.C. § 355), 21 C.F.R. Part 314, 21 C.F.R. § 10.30</t>
+          <t>505(b), 505(j), 505(q) of the FDCA; 21 C.F.R. § 10.30</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Acceptance and filing standards for Abbreviated New Drug Applications (ANDAs) for Asenapine Maleate Sublingual Tablets</t>
+          <t>Approval of ANDAs or 505(b)(2) NDAs for intravenous acetaminophen solutions differing in inactive ingredients from Ofirmev®</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Request that FDA refuse to receive (RTR) any ANDA for Asenapine Maleate Sublingual Tablets that does not include a bioequivalence study performed per FDA’s June 2013 product-specific bioequivalence guidance, and to set the filing date for 180-day exclusivity based on submission of a complying study</t>
+          <t>FDA is requested to refrain from approving any ANDA or 505(b)(2) application for an acetaminophen solution for injection that does not have the same inactive ingredients as Ofirmev® unless supported by evidence from nonclinical studies and adequate and well-controlled clinical trials showing comparable safety and efficacy</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Sigmapharm argues that FDA issued specific bioequivalence guidance for Asenapine Maleate Sublingual Tablets in June 2013, that this guidance was necessary for patient safety and study reliability, that there was enough time to comply before the NCE-1 date, and that allowing non-compliant applications would be inequitable to those who followed FDA guidance</t>
+          <t>Because aqueous acetaminophen solutions are chemically unstable, changes in inactive ingredients could compromise product stability, safety, and effectiveness by increasing hydrolysis and oxidation, leading to unknown degradants with potential toxicity; thus, differences must be justified with appropriate clinical and nonclinical evidence.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1505-0001_Teva_Respiratory_LLC_Teva_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1509-0001_Dr_S_Albert_Edwards_Citizen_Petition_Redacted.pdf</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>November 15, 2013</t>
+          <t>October 27, 2013</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Teva Respiratory, LLC (on behalf of Teva Pharmaceutical Industries Ltd.)</t>
+          <t>Dr. S. Albert Edwards, Pharm.D., RAC, FRAPS</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Teva Respiratory, LLC is submitting on behalf of Teva Pharmaceutical Industries Ltd.</t>
+          <t>No representation of another entity; petitioner is an individual submitting on their own behalf</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30, Section 505 of the Federal Food, Drug, and Cosmetic Act (21 U.S.C. § 355)</t>
+          <t>Prescription Drug Amendments to the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. Part 314; 21 C.F.R. 5.10; 21 C.F.R. 10.30; 21 C.F.R. 25.34</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>FDA's policy regarding the inclusion of integrated dose counters on rescue inhalers (both brand and generic), and approval standards for such products</t>
+          <t>Development and harmonization of electronic Common Technical Document (eCTD) Module 1 between the U.S. FDA and Health Canada</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Refrain from approving any new rescue inhalers (brand or generic) unless they include an integrated dose counter; 2. Implement a plan to transition currently approved rescue inhalers without a dose counter to versions with integrated dose counters</t>
+          <t>Request for the FDA to meet with Canada's Health Products and Food Branch (HPB) to craft a common Module 1 for the eCTD/RPS submissions</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Integrated dose counters are critical to patient safety because they allow patients and caregivers to accurately track the amount of medication remaining in rescue inhalers, reducing risks of inhaler failure during life-threatening asthma attacks; studies show dose counters reduce emergency room visits, improve asthma control, and the FDA’s previous encouragement for dose counters has been insufficiently enforced.</t>
+          <t>Facilitating easier electronic submissions between the U.S. and Canada; reducing the administrative burden for companies filing in both countries; supporting regulatory harmonization due to geographic proximity; and acknowledging unique FDA-specific requirements that would remain separate</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1507-0001_Dr_S_Albert_Edwards_Citizen_Petition_Redacted.pdf</t>
+          <t>FDA-2013-P-1510-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>September 30, 2013</t>
+          <t>November 4, 2013</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Dr. S. Albert Edwards, PharmD, RAC, FRAPS</t>
+          <t>Lachman Consultant Services, Inc.</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>No representation of another entity; petitioner states no business interest in a CRSO.</t>
+          <t>Representing an unnamed client</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Prescription Drug Amendments to the Federal Food, Drug, and Cosmetic Act; 21 CFR Parts 312 &amp; 314; 21 CFR 5.10; 21 CFR 25.34; 21 CFR 10.30(e)(2).</t>
+          <t>21 C.F.R. 10.30, 21 C.F.R. 314.161, 21 C.F.R. 314.162, 21 C.F.R. 25.31</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>FDA Office of Business Informatics' handling of webtrader accounts for Contract Research/Service Organizations (CRSOs) submitting eCTDs for sponsors.</t>
+          <t>Determination of whether a listed drug has been voluntarily withdrawn for safety or effectiveness reasons</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Uniformly institute a policy allowing single webtrader accounts for all CRSOs rather than requiring separate accounts for each sponsor.</t>
+          <t>Request the FDA to determine that the Lupron Depot-Ped dual vial products were voluntarily withdrawn for reasons other than safety or effectiveness, to enable ANDA submissions, and to annotate the Orange Book accordingly</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Closing single accounts is disruptive; multiple accounts create unnecessary business burdens, risk wrong account selection leading to errors, will increase workload as eCTD/RPS submissions become mandatory, and will strain FDA resources especially under staffing limitations.</t>
+          <t>Petitioner argues that the withdrawal was not due to safety or effectiveness concerns but rather because Abbvie shifted to a different packaging configuration; no evidence of safety or efficacy problems found in public domain or court records</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1508-0001_Cadence_Pharmaceuticals_Inc_Craig_Pharma_Solutions.pdf</t>
+          <t>FDA-2013-P-1511-0001_PetaStrip_LLC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>November 4, 2013</t>
+          <t>November 1, 2013</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Craig Pharma Solutions LLC on behalf of Cadence Pharmaceuticals, Inc.</t>
+          <t>PetaStrip, LLC</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Craig Pharma Solutions LLC is representing Cadence Pharmaceuticals, Inc.</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>505(b), 505(j), 505(q) of the FDCA; 21 C.F.R. § 10.30</t>
+          <t>Section 512(n)(3) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 520.1193(d)(2)(ii); 21 CFR 25.30(h)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Approval of ANDAs or 505(b)(2) NDAs for intravenous acetaminophen solutions differing in inactive ingredients from Ofirmev®</t>
+          <t>Suitability Petition for a different dosage form (soluble film) of an approved pioneer animal drug product</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>FDA is requested to refrain from approving any ANDA or 505(b)(2) application for an acetaminophen solution for injection that does not have the same inactive ingredients as Ofirmev® unless supported by evidence from nonclinical studies and adequate and well-controlled clinical trials showing comparable safety and efficacy</t>
+          <t>Request for permission to file an Abbreviated New Animal Drug Application (ANADA) for a soluble film dosage form differing from the pioneer product Heartguard® for Cats</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Because aqueous acetaminophen solutions are chemically unstable, changes in inactive ingredients could compromise product stability, safety, and effectiveness by increasing hydrolysis and oxidation, leading to unknown degradants with potential toxicity; thus, differences must be justified with appropriate clinical and nonclinical evidence.</t>
+          <t>The proposed generic product (soluble film) has the same active ingredient, dosage, administration route, indications, and therapeutic effect as the pioneer chewable product; it only differs in dosage form, does not raise new safety or effectiveness questions, and thus meets the criteria for a Suitability Petition under the law.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1509-0001_Dr_S_Albert_Edwards_Citizen_Petition_Redacted.pdf</t>
+          <t>FDA-2013-P-1512-0001_PetaStrip_LLC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>October 27, 2013</t>
+          <t>November 1, 2013</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Dr. S. Albert Edwards, Pharm.D., RAC, FRAPS</t>
+          <t>PetaStrip, LLC</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>No representation of another entity; petitioner is an individual submitting on their own behalf</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Prescription Drug Amendments to the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. Part 314; 21 C.F.R. 5.10; 21 C.F.R. 10.30; 21 C.F.R. 25.34</t>
+          <t>Section 512(n)(3) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 25.30(h); Section 512(n)(1)(E) of the Act</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Development and harmonization of electronic Common Technical Document (eCTD) Module 1 between the U.S. FDA and Health Canada</t>
+          <t>Suitability Petition for approval of a different dosage form for a generic animal drug</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Request for the FDA to meet with Canada's Health Products and Food Branch (HPB) to craft a common Module 1 for the eCTD/RPS submissions</t>
+          <t>Permission for PetaStrip, LLC to file an Abbreviated New Animal Drug Application (ANADA) for a soluble film dosage form instead of the chewable tablet form of the pioneer product Heartguard®</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Facilitating easier electronic submissions between the U.S. and Canada; reducing the administrative burden for companies filing in both countries; supporting regulatory harmonization due to geographic proximity; and acknowledging unique FDA-specific requirements that would remain separate</t>
+          <t>The proposed generic product would have the same active ingredient (ivermectin), dosage, route of administration, and therapeutic effect as the pioneer product, differing only in dosage form; prior FDA approvals of soluble film dosage forms (e.g., Suboxone®, Onsolis®) are cited as precedent; bioequivalence requirements will be satisfied and labeling differences are minimal.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1510-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1515-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>November 4, 2013</t>
+          <t>November 15, 2013</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -9791,244 +9791,244 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Representing an unnamed client</t>
+          <t>Lachman Consultant Services, Inc. submitted on behalf of a client (name not disclosed).</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>21 C.F.R. 10.30, 21 C.F.R. 314.161, 21 C.F.R. 314.162, 21 C.F.R. 25.31</t>
+          <t>21 C.F.R. § 10.30, 21 C.F.R. § 314.161, 21 C.F.R. § 314.162, 21 C.F.R. § 25.31</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Determination of whether a listed drug has been voluntarily withdrawn for safety or effectiveness reasons</t>
+          <t>Determination whether ZOVIRAX® (acyclovir sodium) for Injection, eq. 1 g base/vial, was withdrawn for safety or efficacy reasons.</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Request the FDA to determine that the Lupron Depot-Ped dual vial products were voluntarily withdrawn for reasons other than safety or effectiveness, to enable ANDA submissions, and to annotate the Orange Book accordingly</t>
+          <t>Request for FDA to determine whether ZOVIRAX® (acyclovir sodium) for Injection, eq. 1 g base/vial, was voluntarily withdrawn from sale for safety or efficacy reasons.</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Petitioner argues that the withdrawal was not due to safety or effectiveness concerns but rather because Abbvie shifted to a different packaging configuration; no evidence of safety or efficacy problems found in public domain or court records</t>
+          <t>The drug is listed in the Orange Book’s discontinued section, and the petitioner believes it was discontinued for commercial reasons rather than safety or efficacy concerns. This determination is needed to proceed with an ANDA referencing the drug.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1511-0001_PetaStrip_LLC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1516-0001_Spectron_mrc_LLC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>November 1, 2013</t>
+          <t>November 19, 2013</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>PetaStrip, LLC</t>
+          <t>Spectron mrc, LLC</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>No, Spectron mrc, LLC is submitting on its own behalf</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Section 512(n)(3) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 520.1193(d)(2)(ii); 21 CFR 25.30(h)</t>
+          <t>21 U.S.C. 355(j)(7); 21 CFR 314.161; 21 CFR 314.162</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Suitability Petition for a different dosage form (soluble film) of an approved pioneer animal drug product</t>
+          <t>Determination regarding whether Sodium Pertechnetate Tc-99m (technetium Tc-99m sodium pertechnetate) was withdrawn from sale for reasons of safety or effectiveness</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Request for permission to file an Abbreviated New Animal Drug Application (ANADA) for a soluble film dosage form differing from the pioneer product Heartguard® for Cats</t>
+          <t>Issue a notice stating that Sodium Pertechnetate Tc-99m was not withdrawn from sale for reasons of safety or effectiveness, allowing approval of ANDAs referring to this drug</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>The proposed generic product (soluble film) has the same active ingredient, dosage, administration route, indications, and therapeutic effect as the pioneer chewable product; it only differs in dosage form, does not raise new safety or effectiveness questions, and thus meets the criteria for a Suitability Petition under the law.</t>
+          <t>To alleviate shortages caused by decreased global nuclear reactor output, to assist in national efforts to reduce the use of highly enriched uranium, and because historical withdrawal was not due to safety or effectiveness concerns</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1512-0001_PetaStrip_LLC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1552-0001_Citizen_Petition_from_Hearing_Industries_Associati.pdf</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>November 1, 2013</t>
+          <t>November 21, 2013</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>PetaStrip, LLC</t>
+          <t>Hearing Industries Association (HIA)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>Not representing another entity; the petitioner is HIA itself</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Section 512(n)(3) of the Federal Food, Drug, and Cosmetic Act; 21 CFR 25.30(h); Section 512(n)(1)(E) of the Act</t>
+          <t>Section 513(e) of the Federal Food, Drug, and Cosmetic Act (FDC Act); 21 C.F.R. § 860.123</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Suitability Petition for approval of a different dosage form for a generic animal drug</t>
+          <t>FDA’s classification of wireless air conduction hearing aids as Class II devices</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Permission for PetaStrip, LLC to file an Abbreviated New Animal Drug Application (ANADA) for a soluble film dosage form instead of the chewable tablet form of the pioneer product Heartguard®</t>
+          <t>Reclassify wireless air conduction hearing aids possessing specific features from Class II to Class I</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>The proposed generic product would have the same active ingredient (ivermectin), dosage, route of administration, and therapeutic effect as the pioneer product, differing only in dosage form; prior FDA approvals of soluble film dosage forms (e.g., Suboxone®, Onsolis®) are cited as precedent; bioequivalence requirements will be satisfied and labeling differences are minimal.</t>
+          <t>Wireless air conduction hearing aids with certain features (ear-to-ear communication and wireless streaming) have been safely used for decades without incident; current general controls are sufficient for safety and effectiveness; no evidence of risk from electromagnetic exposure; amplification functionality remains independent even if wireless features fail; standard safety protocols and EMC compliance are already practiced by manufacturers.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1515-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1554-0001_Sigmapharm_Laboratories_LLC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>November 15, 2013</t>
+          <t>November 26, 2013</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Lachman Consultant Services, Inc.</t>
+          <t>Sigmapharm Laboratories, LLC</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Lachman Consultant Services, Inc. submitted on behalf of a client (name not disclosed).</t>
+          <t>Not representing another entity</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30, 21 C.F.R. § 314.161, 21 C.F.R. § 314.162, 21 C.F.R. § 25.31</t>
+          <t>Section 505 and 505(q) of the Federal Food, Drug and Cosmetic Act (21 U.S.C. § 355), 21 C.F.R. Part 314, 21 C.F.R. § 10.30</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Determination whether ZOVIRAX® (acyclovir sodium) for Injection, eq. 1 g base/vial, was withdrawn for safety or efficacy reasons.</t>
+          <t>Acceptance or refusal to receive Abbreviated New Drug Applications (ANDAs) for Asenapine Maleate Sublingual Tablets based on compliance with FDA's June 2013 product-specific bioequivalence guidance</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Request for FDA to determine whether ZOVIRAX® (acyclovir sodium) for Injection, eq. 1 g base/vial, was voluntarily withdrawn from sale for safety or efficacy reasons.</t>
+          <t>FDA should consider incomplete and refuse to receive any ANDA for Asenapine Maleate Sublingual Tablets that does not contain bioequivalence study results conforming to the June 2013 guidance; filing acceptance date should be based on compliance with the guidance</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>The drug is listed in the Orange Book’s discontinued section, and the petitioner believes it was discontinued for commercial reasons rather than safety or efficacy concerns. This determination is needed to proceed with an ANDA referencing the drug.</t>
+          <t>Sigmapharm argues that allowing non-complying ANDAs disadvantages companies that submitted complete applications, could cause inequitable 180-day exclusivity determinations, and that sponsors had enough time to complete studies based on the June 2013 guidance; FDA's own RTR guidance supports refusing non-complying studies</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1516-0001_Spectron_mrc_LLC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1606-0001_Citizen_Petition_from_Pharmacists_Planning_Service.pdf</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>November 19, 2013</t>
+          <t>November 25, 2013</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Spectron mrc, LLC</t>
+          <t>Pharmacists Planning Services, Inc. (PPSI)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>No, Spectron mrc, LLC is submitting on its own behalf</t>
+          <t>PPSI is representing itself but works in conjunction with National Coalition Against Prescription Drug Abuse (NCA-PDA), Marin County Pharmacists Drug Abuse Task Force (MCPDATF), and Marin County Pharmacists Association (MCPhA)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>21 U.S.C. 355(j)(7); 21 CFR 314.161; 21 CFR 314.162</t>
+          <t>21 CFR 10.20, 21 CFR 10.30, Federal Food Drug and Cosmetic Act (FDA Act), 21 CFR 1306.04, Health and Safety Code Section 11153</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Determination regarding whether Sodium Pertechnetate Tc-99m (technetium Tc-99m sodium pertechnetate) was withdrawn from sale for reasons of safety or effectiveness</t>
+          <t>FDA regulatory decisions regarding reformulation of opioid drug products and implementation of standards for pharmacists regarding hydrocodone schedule II products</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Issue a notice stating that Sodium Pertechnetate Tc-99m was not withdrawn from sale for reasons of safety or effectiveness, allowing approval of ANDAs referring to this drug</t>
+          <t>Requesting FDA to add drug-abuse deterrent technology to all hydrocodone schedule II products and to implement standards of practice and corresponding responsibilities for pharmacists</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>To alleviate shortages caused by decreased global nuclear reactor output, to assist in national efforts to reduce the use of highly enriched uranium, and because historical withdrawal was not due to safety or effectiveness concerns</t>
+          <t>Petitioners argue that prescription drug abuse, especially opioid abuse, is a public health epidemic; hydrocodone products are heavily prescribed and abused; FDA has previously acted to deter abuse with other opioids; pharmacists have a professional duty to help prevent inappropriate use; standards for prescription monitoring programs (PMPs) should be federally mandated to assist in preventing drug diversion and abuse</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1552-0001_Citizen_Petition_from_Hearing_Industries_Associati.pdf</t>
+          <t>FDA-2013-P-1609-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>November 21, 2013</t>
+          <t>November 25, 2013</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Hearing Industries Association (HIA)</t>
+          <t>Lachman Consultant Services, Inc.</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Not representing another entity; the petitioner is HIA itself</t>
+          <t>Lachman Consultant Services, Inc. is representing an unnamed client.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Section 513(e) of the Federal Food, Drug, and Cosmetic Act (FDC Act); 21 C.F.R. § 860.123</t>
+          <t>21 C.F.R. 10.30, 21 C.F.R. 314.161, 21 C.F.R. 314.162, 21 C.F.R. 25.31</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>FDA’s classification of wireless air conduction hearing aids as Class II devices</t>
+          <t>FDA's determination whether the two-vial container closure system used for Lupron Depot and Lupron Depot-PED Injection drug products was withdrawn for reasons of safety or effectiveness.</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Reclassify wireless air conduction hearing aids possessing specific features from Class II to Class I</t>
+          <t>Requesting the FDA to determine that the two-vial container closure system for Lupron Depot and Lupron Depot-PED Injection drug products was not withdrawn for reasons of safety or effectiveness, and to enable ANDA submissions referring to the two-vial system as the Reference Listed Drug.</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Wireless air conduction hearing aids with certain features (ear-to-ear communication and wireless streaming) have been safely used for decades without incident; current general controls are sufficient for safety and effectiveness; no evidence of risk from electromagnetic exposure; amplification functionality remains independent even if wireless features fail; standard safety protocols and EMC compliance are already practiced by manufacturers.</t>
+          <t>The petitioner argues that the two-vial system was discontinued voluntarily and not due to safety or effectiveness concerns, citing lack of evidence from trade press, court cases, or FDA actions suggesting otherwise.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1554-0001_Sigmapharm_Laboratories_LLC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1611-0001_Citizen_Petition_from_Clarissa_Clarke___Redacted.pdf</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -10038,576 +10038,408 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Sigmapharm Laboratories, LLC</t>
+          <t>Clarissa Clarke</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Not representing another entity</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Section 505 and 505(q) of the Federal Food, Drug and Cosmetic Act (21 U.S.C. § 355), 21 C.F.R. Part 314, 21 C.F.R. § 10.30</t>
+          <t>Federal Food, Drug, and Cosmetic Act Subchapter A Part 10 Subpart B Section 10.20; Title 21 CFR Part 872</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Acceptance or refusal to receive Abbreviated New Drug Applications (ANDAs) for Asenapine Maleate Sublingual Tablets based on compliance with FDA's June 2013 product-specific bioequivalence guidance</t>
+          <t>Amendments to regulations within Title 21 CFR Part 872—Dental Devices (specifically §§ 872.3690 and 872.6070)</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>FDA should consider incomplete and refuse to receive any ANDA for Asenapine Maleate Sublingual Tablets that does not contain bioequivalence study results conforming to the June 2013 guidance; filing acceptance date should be based on compliance with the guidance</t>
+          <t>Amend §§ 872.3690 and 872.6070 to include Special Controls Guidance concerning material properties, performance reporting, energy requirements for polymerization, and reporting for dental curing lights</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Sigmapharm argues that allowing non-complying ANDAs disadvantages companies that submitted complete applications, could cause inequitable 180-day exclusivity determinations, and that sponsors had enough time to complete studies based on the June 2013 guidance; FDA's own RTR guidance supports refusing non-complying studies</t>
+          <t>Incomplete polymerization of tooth shade resin materials can lead to restoration failure, increased dental treatment costs, and patient dissatisfaction. Current labeling and information provided with dental materials and curing lights do not sufficiently ensure safe and effective polymerization. Amending the regulations would provide dentists with critical information necessary to optimize curing and material performance, ultimately improving patient outcomes and reducing healthcare costs.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1606-0001_Citizen_Petition_from_Pharmacists_Planning_Service.pdf</t>
+          <t>FDA-2013-P-1614-0001_Citizen_Petition_from_Alliance_of_African_Shea_Ass.pdf</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>November 25, 2013</t>
+          <t>November 5, 2013</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Pharmacists Planning Services, Inc. (PPSI)</t>
+          <t>Alliance of African Shea Associations (AASA)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>PPSI is representing itself but works in conjunction with National Coalition Against Prescription Drug Abuse (NCA-PDA), Marin County Pharmacists Drug Abuse Task Force (MCPDATF), and Marin County Pharmacists Association (MCPhA)</t>
+          <t>Sidley Austin LLP representing the Alliance of African Shea Associations (AASA)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>21 CFR 10.20, 21 CFR 10.30, Federal Food Drug and Cosmetic Act (FDA Act), 21 CFR 1306.04, Health and Safety Code Section 11153</t>
+          <t>Section 401 of the Federal Food, Drug, and Cosmetic Act (FDCA), 21 U.S.C. § 341; 21 C.F.R. §§ 163.123, 163.124, 163.130</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>FDA regulatory decisions regarding reformulation of opioid drug products and implementation of standards for pharmacists regarding hydrocodone schedule II products</t>
+          <t>Standards of identity for chocolate (specifically sweet chocolate, milk chocolate, and white chocolate) prohibiting alternatives to cacao fat</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Requesting FDA to add drug-abuse deterrent technology to all hydrocodone schedule II products and to implement standards of practice and corresponding responsibilities for pharmacists</t>
+          <t>Amend the standards of identity for chocolate to allow the optional use of shea-based ingredients (blends of sheanut oil and palm oil) as alternatives to cacao fat</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Petitioners argue that prescription drug abuse, especially opioid abuse, is a public health epidemic; hydrocodone products are heavily prescribed and abused; FDA has previously acted to deter abuse with other opioids; pharmacists have a professional duty to help prevent inappropriate use; standards for prescription monitoring programs (PMPs) should be federally mandated to assist in preventing drug diversion and abuse</t>
+          <t>Shea-based blends have similar triglycerides and physical properties to cacao fat, preserving the basic nature and essential characteristics of chocolate; the change would support economic opportunities for West African women, harmonize U.S. standards with international regulations, and align with FDA's modernization initiatives without negatively impacting consumer expectations or product quality.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1609-0001_Lachman_Consultant_Services_Inc_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1623-0001_Sigmapharm_Laboratories_LLC_Citizen_Petition.pdf</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>November 25, 2013</t>
+          <t>December 6, 2013</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Lachman Consultant Services, Inc.</t>
+          <t>Sigmapharm Laboratories, LLC</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Lachman Consultant Services, Inc. is representing an unnamed client.</t>
+          <t>Not representing another entity; petition submitted on behalf of Sigmapharm itself</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>21 C.F.R. 10.30, 21 C.F.R. 314.161, 21 C.F.R. 314.162, 21 C.F.R. 25.31</t>
+          <t>505, 505(q) of the FDCA (21 U.S.C. § 355), 21 C.F.R. Part 314, 21 C.F.R. § 10.30</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>FDA's determination whether the two-vial container closure system used for Lupron Depot and Lupron Depot-PED Injection drug products was withdrawn for reasons of safety or effectiveness.</t>
+          <t>Acceptance and filing standards for Abbreviated New Drug Applications (ANDAs), specifically for Asenapine Maleate Sublingual Tablets</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Requesting the FDA to determine that the two-vial container closure system for Lupron Depot and Lupron Depot-PED Injection drug products was not withdrawn for reasons of safety or effectiveness, and to enable ANDA submissions referring to the two-vial system as the Reference Listed Drug.</t>
+          <t>Request that the FDA refuse to receive (RTR) any ANDA for Asenapine Maleate Sublingual Tablets that does not contain bioequivalence study results compliant with FDA’s June 2013 product-specific bioequivalence guidance, and base exclusivity eligibility on the submission date of a compliant ANDA</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>The petitioner argues that the two-vial system was discontinued voluntarily and not due to safety or effectiveness concerns, citing lack of evidence from trade press, court cases, or FDA actions suggesting otherwise.</t>
+          <t>Sigmapharm argues that allowing non-compliant ANDAs would be inequitable to applicants who submitted complete and compliant applications on the designated filing date, potentially impacting 180-day exclusivity rights, and that FDA’s own RTR guidance and bioequivalence standards mandate adherence to the issued June 2013 bioequivalence requirements</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1611-0001_Citizen_Petition_from_Clarissa_Clarke___Redacted.pdf</t>
+          <t>FDA-2013-P-1636-0001_Citizen_Petition_from_Lannett_Company_Inc.pdf</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>November 26, 2013</t>
+          <t>December 4, 2013</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Clarissa Clarke</t>
+          <t>Lannett Company, Inc.</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Not representing another entity; Lannett Company, Inc. is the petitioner.</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Federal Food, Drug, and Cosmetic Act Subchapter A Part 10 Subpart B Section 10.20; Title 21 CFR Part 872</t>
+          <t>Sections 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act (FDCA), 21 CFR § 314.93, and 21 CFR § 25.31(a).</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Amendments to regulations within Title 21 CFR Part 872—Dental Devices (specifically §§ 872.3690 and 872.6070)</t>
+          <t>Submission and approval process for Abbreviated New Drug Applications (ANDAs) differing from the Reference Listed Drug (RLD) in active ingredient strength.</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Amend §§ 872.3690 and 872.6070 to include Special Controls Guidance concerning material properties, performance reporting, energy requirements for polymerization, and reporting for dental curing lights</t>
+          <t>The petitioner requests the FDA to determine that ANDAs may be submitted for Hydromorphone Hydrochloride Tablets, 1 mg (scored tablets) and Hydromorphone Hydrochloride Oral Solution, 1 mg per 5 mL.</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Incomplete polymerization of tooth shade resin materials can lead to restoration failure, increased dental treatment costs, and patient dissatisfaction. Current labeling and information provided with dental materials and curing lights do not sufficiently ensure safe and effective polymerization. Amending the regulations would provide dentists with critical information necessary to optimize curing and material performance, ultimately improving patient outcomes and reducing healthcare costs.</t>
+          <t>The petitioner argues that the changes in strength do not pose safety or efficacy concerns because the dose, use, and route of administration are identical to the RLD; elderly and geriatric patient references support the therapeutic need for lower doses; and existing approved doses in the RLD package insert suggest the safety and utility of lower strength formulations.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1612-0001_Acknowledgement_Letter_from_FDA_DDM_to_Bruce_Holla.pdf</t>
+          <t>FDA-2013-P-1637-0001_Attachment_1_Alemtuzumab_The_Eagle_Has_Landed_In_E.pdf</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>December 5, 2013</t>
+          <t>Not explicitly stated in the document.</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Bruce Holland</t>
+          <t>The Eagle Has Landed in Europe').</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>Not mentioned.</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>None cited.</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Decision to rescind the Special Protocol Assessment for VASCEPA and to delay the PDUFA date for ANCHOR sNDA (sNDA 20257/S-005)</t>
+          <t>The document does not comment on an FDA action; it is a medical article discussing the approval and clinical use of Alemtuzumab for multiple sclerosis in Europe.</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Overturn the decision to rescind the Special Protocol Assessment and delay the PDUFA date for ANCHOR sNDA</t>
+          <t>None requested.</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>Not applicable since this is an informational/clinical article and not a citizen petition.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1614-0001_Citizen_Petition_from_Alliance_of_African_Shea_Ass.pdf</t>
+          <t>FDA-2013-P-1640-0001_Citizen_Petition_from_Hyman_Phelps_and_Mcnamara_PC.pdf</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>November 5, 2013</t>
+          <t>December 5, 2013</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Alliance of African Shea Associations (AASA)</t>
+          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Sidley Austin LLP representing the Alliance of African Shea Associations (AASA)</t>
+          <t>The submitting entity (Hyman, Phelps &amp; McNamara, P.C.) is representing an unnamed client.</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Section 401 of the Federal Food, Drug, and Cosmetic Act (FDCA), 21 U.S.C. § 341; 21 C.F.R. §§ 163.123, 163.124, 163.130</t>
+          <t>505 of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. §§ 10.25 and 10.30</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Standards of identity for chocolate (specifically sweet chocolate, milk chocolate, and white chocolate) prohibiting alternatives to cacao fat</t>
+          <t>FDA regulations for Over-the-Counter (OTC) Transdermal Nicotine Patches (TNPs) regarding labeling and safety</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Amend the standards of identity for chocolate to allow the optional use of shea-based ingredients (blends of sheanut oil and palm oil) as alternatives to cacao fat</t>
+          <t>Require the sponsors of all OTC TNPs to include permanent, smudge-resistant product identifying labeling on the backing membrane to help avoid accidental pediatric exposures to nicotine.</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Shea-based blends have similar triglycerides and physical properties to cacao fat, preserving the basic nature and essential characteristics of chocolate; the change would support economic opportunities for West African women, harmonize U.S. standards with international regulations, and align with FDA's modernization initiatives without negatively impacting consumer expectations or product quality.</t>
+          <t>Accidental pediatric exposures to nicotine from OTC TNPs are increasing and can have serious health consequences; permanent product identification on patches would help avoid accidental exposure and assist healthcare professionals in emergencies.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1623-0001_Sigmapharm_Laboratories_LLC_Citizen_Petition.pdf</t>
+          <t>FDA-2013-P-1641-0001_Citizen_Petition_from_TEVA_Pharmaceuticals.pdf</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>December 6, 2013</t>
+          <t>December 5, 2013</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Sigmapharm Laboratories, LLC</t>
+          <t>Teva Pharmaceutical Industries Ltd. and Teva Neuroscience, Inc.</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Not representing another entity; petition submitted on behalf of Sigmapharm itself</t>
+          <t>Teva Neuroscience, Inc. is a subsidiary representing Teva Pharmaceutical Industries Ltd.</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>505, 505(q) of the FDCA (21 U.S.C. § 355), 21 C.F.R. Part 314, 21 C.F.R. § 10.30</t>
+          <t>21 C.F.R. § 10.30, 21 U.S.C. §§ 355(j) and 355(q)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Acceptance and filing standards for Abbreviated New Drug Applications (ANDAs), specifically for Asenapine Maleate Sublingual Tablets</t>
+          <t>FDA approval of any Abbreviated New Drug Application (ANDA) referencing Copaxone® (glatiramer acetate injection)</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Request that the FDA refuse to receive (RTR) any ANDA for Asenapine Maleate Sublingual Tablets that does not contain bioequivalence study results compliant with FDA’s June 2013 product-specific bioequivalence guidance, and base exclusivity eligibility on the submission date of a compliant ANDA</t>
+          <t>Requesting that FDA refrain from approving any ANDA referencing Copaxone® unless certain conditions are met, including proof of identical active ingredient, comparable immunogenicity, and bioequivalence via clinical studies</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Sigmapharm argues that allowing non-compliant ANDAs would be inequitable to applicants who submitted complete and compliant applications on the designated filing date, potentially impacting 180-day exclusivity rights, and that FDA’s own RTR guidance and bioequivalence standards mandate adherence to the issued June 2013 bioequivalence requirements</t>
+          <t>Teva argues that due to the complexity and immunogenicity of Copaxone®, and the limitations of current analytical technologies, it is not possible to definitively establish sameness of the active ingredient without extensive clinical testing, and that approval without meeting these stringent standards could compromise safety and efficacy</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1636-0001_Citizen_Petition_from_Lannett_Company_Inc.pdf</t>
+          <t>FDA-2013-P-1654-0001_Gordon_Johnston_Regulatory_Consultants_LLC_Citizen.pdf</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>December 4, 2013</t>
+          <t>December 13, 2013</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Lannett Company, Inc.</t>
+          <t>Gordon Johnston Regulatory Consultants, LLC</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Not representing another entity; Lannett Company, Inc. is the petitioner.</t>
+          <t>Representing an interested party (name not specified)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Sections 505(j)(2)(C) of the Federal Food, Drug, and Cosmetic Act (FDCA), 21 CFR § 314.93, and 21 CFR § 25.31(a).</t>
+          <t>21 CFR 10.30, 21 CFR 314.161, 21 CFR 314.162, 21 CFR 25.31</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Submission and approval process for Abbreviated New Drug Applications (ANDAs) differing from the Reference Listed Drug (RLD) in active ingredient strength.</t>
+          <t>Determination whether Leucovorin Calcium Injection-Preservative Free, 10 mg/mL, 10 mL total fill volume (ANDA 40147) has been withdrawn for reasons of safety or efficacy</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>The petitioner requests the FDA to determine that ANDAs may be submitted for Hydromorphone Hydrochloride Tablets, 1 mg (scored tablets) and Hydromorphone Hydrochloride Oral Solution, 1 mg per 5 mL.</t>
+          <t>Requesting FDA to determine if Hospira's Leucovorin Calcium Injection-Preservative Free, 10 mg/mL, 10 mL total fill volume (ANDA 40147) has been voluntarily withdrawn or withheld from sale for reasons of safety or efficacy</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>The petitioner argues that the changes in strength do not pose safety or efficacy concerns because the dose, use, and route of administration are identical to the RLD; elderly and geriatric patient references support the therapeutic need for lower doses; and existing approved doses in the RLD package insert suggest the safety and utility of lower strength formulations.</t>
+          <t>Because the product appears in the Discontinued Section of the Orange Book and a determination is needed before any ANDA referencing it can be approved; regulatory requirement under 21 CFR 314.161(a)(1)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1637-0001_Attachment_1_Alemtuzumab_The_Eagle_Has_Landed_In_E.pdf</t>
+          <t>FDA-2013-P-1710-0001_Citizen_Petition_From_Noven_Pharmaceuticals_Inc.pdf</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Not explicitly stated in the document.</t>
+          <t>December 23, 2013</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>The Eagle Has Landed in Europe').</t>
+          <t>Noven Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Not mentioned.</t>
+          <t>No representation of another entity; submitting on its own behalf</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>None cited.</t>
+          <t>505(q) of the Federal Food, Drug, and Cosmetic Act, 21 C.F.R. § 10.30</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>The document does not comment on an FDA action; it is a medical article discussing the approval and clinical use of Alemtuzumab for multiple sclerosis in Europe.</t>
+          <t>Approval of Abbreviated New Drug Applications (ANDAs) for generic Daytrana® (Methylphenidate) Transdermal System</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>None requested.</t>
+          <t>Refuse to approve any ANDA for a generic version of Daytrana® unless the ANDA sponsor conducts a usability study in adults, adolescents, and children under 'real world' conditions demonstrating non-inferior patch adhesion performance compared to Daytrana® TDS</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Not applicable since this is an informational/clinical article and not a citizen petition.</t>
+          <t>Patch detachment risks efficacy loss and safety concerns (e.g., accidental exposure to children); real-world adhesion issues not adequately captured by current bioequivalence and in vitro tests; FDA acknowledged importance of real-world usability studies particularly for pediatric patients; need to ensure therapeutic equivalence and public health safety</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>FDA-2013-P-1640-0001_Citizen_Petition_from_Hyman_Phelps_and_Mcnamara_PC.pdf</t>
+          <t>FDA-2013-P-1711-0001_Citizen_Petition_From_Morgan_Lewis_Bockius_LLP.pdf</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>December 5, 2013</t>
+          <t>December 26, 2013</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
+          <t>Morgan, Lewis &amp; Bockius LLP</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>The submitting entity (Hyman, Phelps &amp; McNamara, P.C.) is representing an unnamed client.</t>
+          <t>Unnamed client (representation details not disclosed)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>505 of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. §§ 10.25 and 10.30</t>
+          <t>21 U.S.C. § 505, 21 U.S.C. § 811 et seq., 21 C.F.R. § 10.30, 21 C.F.R. Part 300 et seq., 21 C.F.R. Part 1300 et seq.</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>FDA regulations for Over-the-Counter (OTC) Transdermal Nicotine Patches (TNPs) regarding labeling and safety</t>
+          <t>FDA's plan to recommend to HHS to reclassify hydrocodone combination products from Schedule III to Schedule II</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Require the sponsors of all OTC TNPs to include permanent, smudge-resistant product identifying labeling on the backing membrane to help avoid accidental pediatric exposures to nicotine.</t>
+          <t>Request that hydrocodone combination products containing less than 5 mg of hydrocodone remain in Schedule III and not be rescheduled to Schedule II</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
-        <is>
-          <t>Accidental pediatric exposures to nicotine from OTC TNPs are increasing and can have serious health consequences; permanent product identification on patches would help avoid accidental exposure and assist healthcare professionals in emergencies.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>FDA-2013-P-1641-0001_Citizen_Petition_from_TEVA_Pharmaceuticals.pdf</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>December 5, 2013</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Teva Pharmaceutical Industries Ltd. and Teva Neuroscience, Inc.</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Teva Neuroscience, Inc. is a subsidiary representing Teva Pharmaceutical Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>21 C.F.R. § 10.30, 21 U.S.C. §§ 355(j) and 355(q)</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>FDA approval of any Abbreviated New Drug Application (ANDA) referencing Copaxone® (glatiramer acetate injection)</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>Requesting that FDA refrain from approving any ANDA referencing Copaxone® unless certain conditions are met, including proof of identical active ingredient, comparable immunogenicity, and bioequivalence via clinical studies</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Teva argues that due to the complexity and immunogenicity of Copaxone®, and the limitations of current analytical technologies, it is not possible to definitively establish sameness of the active ingredient without extensive clinical testing, and that approval without meeting these stringent standards could compromise safety and efficacy</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>FDA-2013-P-1654-0001_Gordon_Johnston_Regulatory_Consultants_LLC_Citizen.pdf</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>December 13, 2013</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Gordon Johnston Regulatory Consultants, LLC</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Representing an interested party (name not specified)</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>21 CFR 10.30, 21 CFR 314.161, 21 CFR 314.162, 21 CFR 25.31</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Determination whether Leucovorin Calcium Injection-Preservative Free, 10 mg/mL, 10 mL total fill volume (ANDA 40147) has been withdrawn for reasons of safety or efficacy</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>Requesting FDA to determine if Hospira's Leucovorin Calcium Injection-Preservative Free, 10 mg/mL, 10 mL total fill volume (ANDA 40147) has been voluntarily withdrawn or withheld from sale for reasons of safety or efficacy</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Because the product appears in the Discontinued Section of the Orange Book and a determination is needed before any ANDA referencing it can be approved; regulatory requirement under 21 CFR 314.161(a)(1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>FDA-2013-P-1710-0001_Citizen_Petition_From_Noven_Pharmaceuticals_Inc.pdf</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>December 23, 2013</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Noven Pharmaceuticals, Inc.</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>No representation of another entity; submitting on its own behalf</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>505(q) of the Federal Food, Drug, and Cosmetic Act, 21 C.F.R. § 10.30</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Approval of Abbreviated New Drug Applications (ANDAs) for generic Daytrana® (Methylphenidate) Transdermal System</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>Refuse to approve any ANDA for a generic version of Daytrana® unless the ANDA sponsor conducts a usability study in adults, adolescents, and children under 'real world' conditions demonstrating non-inferior patch adhesion performance compared to Daytrana® TDS</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Patch detachment risks efficacy loss and safety concerns (e.g., accidental exposure to children); real-world adhesion issues not adequately captured by current bioequivalence and in vitro tests; FDA acknowledged importance of real-world usability studies particularly for pediatric patients; need to ensure therapeutic equivalence and public health safety</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>FDA-2013-P-1711-0001_Citizen_Petition_From_Morgan_Lewis_Bockius_LLP.pdf</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>December 26, 2013</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Morgan, Lewis &amp; Bockius LLP</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Unnamed client (representation details not disclosed)</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>21 U.S.C. § 505, 21 U.S.C. § 811 et seq., 21 C.F.R. § 10.30, 21 C.F.R. Part 300 et seq., 21 C.F.R. Part 1300 et seq.</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>FDA's plan to recommend to HHS to reclassify hydrocodone combination products from Schedule III to Schedule II</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>Request that hydrocodone combination products containing less than 5 mg of hydrocodone remain in Schedule III and not be rescheduled to Schedule II</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
         <is>
           <t>Upscheduling lower-strength hydrocodone products would burden vulnerable patient populations (e.g., chronic pain, hospice, palliative care patients) by limiting access to needed medications, increase healthcare burdens, and would not effectively curb drug misuse and abuse; maintaining lower-strength products in Schedule III strikes a balance between control and accessibility.</t>
         </is>
@@ -10633,15 +10465,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col width="14.5" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="19" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="29" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="25.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="25.296875" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="30.5" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="29" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="20.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="20.69921875" bestFit="1" customWidth="1" min="7" max="7"/>
     <col width="26.5" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -16293,15 +16125,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col width="14.5" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="19" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="29" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="25.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="25.296875" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="30.5" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="29" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="20.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="20.69921875" bestFit="1" customWidth="1" min="7" max="7"/>
     <col width="26.5" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>

--- a/outputs_citizens.xlsx
+++ b/outputs_citizens.xlsx
@@ -16119,7 +16119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -18171,27 +18171,2337 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Not representing another entity</t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 14.29, 21 C.F.R. § 312.32(a), 45 C.F.R. §§ 46.103(a), 46.103(b)(5)</t>
+          <t>21 CFR 14.29; 21 CFR 312.32(a); 45 CFR 46.103(a); 45 CFR 46.103(b)(5)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Planned advisory committee meeting related to the Lykos Therapeutics New Drug Application for MDMA-Assisted Therapy</t>
+          <t>FDA's planned advisory committee meeting on the Lykos Therapeutics MDMA-Assisted Therapy New Drug Application</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Convene an advisory committee meeting on MDMA-Assisted Therapy with an extended open public hearing to include perspectives of stakeholders concerned about the Lykos NDA’s shortcomings and risks</t>
+          <t>Convene an advisory committee meeting on MDMA-Assisted Therapy with an extended Open Public Hearing prioritizing concerns about Lykos Therapeutics' application</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>The petition argues that the Lykos NDA involves a novel drug-psychotherapy hybrid, raises serious safety and efficacy concerns, lacks impartiality in trial reporting, and has significant public interest; it highlights alleged adverse event suppression and recommends cross-disciplinary expert input</t>
+          <t>Petitioner argues that the MDMA-assisted therapy application is novel and precedent-setting, involves significant safety concerns, unresolved scientific issues, and high public interest. The petitioner also raises ethical and regulatory concerns over data reporting, protocol safety, and internal culture at Lykos/MAPS, calling for independent expert input and transparency.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2150-0001_Envelope.pdf</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>04/25/2024</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Parenteral Technologies, LLC</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Michael A. Creaturo, submitting on behalf of Parenteral Technologies, LLC</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Not Mentioned</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Not Mentioned</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Not Mentioned</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Not Mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2151-0001_Citizen_Petition_from_UnidosUS.pdf</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>May 7, 2024</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>UnidosUS</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No, UnidosUS is not representing another entity but has co-signatories from other organizations</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>5 U.S.C. § 553(e), 21 C.F.R. § 10.30, Section 403(a) of the Food, Drug, and Cosmetic Act</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Voluntary fortification policy and labeling practices for unfortified corn masa flour and products</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Require a warning label on all unfortified corn masa flour and products made with corn masa to inform consumers of the lack of folic acid and associated risk of neural tube defects</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Voluntary fortification has failed to ensure adequate folic acid intake among Hispanic women, resulting in persistent health disparities; a warning label is needed to alert consumers and drive public health improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2215-0001_Citizen_Petition_from_Metaltronica_Spa.pdf</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>May 2, 2024</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Metaltronica Spa</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No, the submitting entity is not representing another entity</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21 CFR §10.25(a), 21 CFR §10.30, IEC 60601-1, IEC 60601-2, IEC 60601-2-28, IEC 60601-1-3, IEC 60601-2-45, IEC 62304, ISO 14971</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>FDA classification and premarket submission requirements for tomo digital mammography devices (product code OTE)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Reclassify tomo digital mammography devices (product code OTE) from Class III (PMA) to Class II (510(k)), aligning them with Full Field Digital Mammography (FFDM) devices (product code MUE)</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>The petitioner argues that risks and necessary evidence for OTE devices are similar to those for MUE devices, both of which use ionizing radiation and share hardware/software components. The technology is mature, widely adopted globally, and supported by harmonized standards. Market data and adverse event analysis show no significant safety differences, and reclassification would reduce costs for manufacturers, regulators, and users while maintaining safety and effectiveness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2220-0001_Citizen_Petition_from_Encube_Ethicals_Private_Limi.pdf</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>May 6, 2024</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Encube Ethicals Private Limited</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>No, the submitting entity is not representing another entity</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21 C.F.R. § 10.25(a), 21 C.F.R. § 10.30, 21 C.F.R. § 314.161, 21 C.F.R. § 314.122, 21 C.F.R. § 25.31(a)</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Determination of whether the Reference Listed Drug (RLD) PENNSAID (diclofenac sodium topical solution 2%) has been withdrawn for reasons of safety or effectiveness</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Determine whether PENNSAID (diclofenac sodium topical solution 2% w/w, NDA# N204623) has been withdrawn for reasons of safety or effectiveness</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>The petitioner believes the discontinuation was for commercial reasons and not related to safety or effectiveness. A determination from the FDA is required to allow referencing the RLD in an ANDA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2242-0001_Citizen_Petition_from_David_Behar_Redacted.pdf</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>April 28, 2024</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>David Behar, M.D.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>No, the submitting entity is not representing another entity</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21 C.F.R. § 10.30, 21 C.F.R. § 10.40(e)(1), Administrative Procedure Act</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>FDA requirement for a prescription to obtain CPAP machines</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Make CPAP (Continuous Positive Airway Pressure) machines available over the counter without a prescription, and require sellers to provide instruction manuals at a 6th-grade reading level with illustrations</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>The petitioner argues that requiring prescriptions for CPAP machines results in high costs, delays, and limited access, contributing to untreated sleep apnea, increased healthcare costs, preventable accidents, and health disparities. The petitioner cites successful price drops following over-the-counter access to hearing aids, points to racial and economic inequities, and contends that self-diagnosis is feasible with support from sleep apps and partner observations. The petition invokes urgent public health and economic consequences to justify bypassing traditional rulemaking procedures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2272-0001_Citizen_Petition_from_Aurobindo_Pharma_USA__Inc_.pdf</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>May 7, 2024</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Aurobindo Pharma Limited</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Blessy Johns, US Agent for Aurobindo Pharma Limited (Aurobindo Pharma USA, Inc.)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Section 505(j) of the FDCA, 21 CFR § 10.25(a), 21 CFR § 10.30, 21 CFR § 314.122, 21 CFR § 314.161, 21 CFR § 25.31(a), 21 CFR § 25.15(d), 21 CFR § 10.30(b)</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Determination regarding whether INVEGA® (Paliperidone) Extended-Release Tablets 1.5 mg, NDA #021999, has been withdrawn for safety or effectiveness reasons</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Request the FDA to determine whether INVEGA® (Paliperidone) Extended-Release Tablets 1.5 mg has been withdrawn for reasons of safety or effectiveness</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>The petitioner notes that the drug appears in the discontinued section of the Orange Book and seeks confirmation that the discontinuation was not due to safety or effectiveness concerns in order to support an Abbreviated New Drug Application (ANDA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2314-0001_Citizen_Petition_from_Aurobindo_Pharma_USA_Inc_.pdf</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>May 9, 2024</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Aurobindo Pharma Limited</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Blessy Johns, US Agent for Aurobindo Pharma Limited (Aurobindo Pharma USA, Inc.)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Section 505(j) of the FDCA, 21 CFR § 10.25(a), 21 CFR § 10.30, 21 CFR § 314.122, 21 CFR § 314.161, 21 CFR § 314.162, 21 CFR § 25.31(a), 21 CFR § 25.15(d), 21 CFR § 10.30(b)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Determination regarding whether Augmentin XR (amoxicillin and clavulanate potassium) extended-release tablets, NDA 050785, has been withdrawn for reasons of safety or effectiveness</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Request the FDA to determine whether Augmentin XR (amoxicillin and clavulanate potassium) extended-release tablets, NDA 050785, has been voluntarily withdrawn from sale for reasons of safety or effectiveness</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>The petitioner notes that Augmentin XR now appears in the discontinued section of the Orange Book and requests confirmation that the withdrawal was not due to safety or effectiveness concerns, in order to support an Abbreviated New Drug Application (ANDA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2326-0001_Citizen_Petition_from_Hyman__Phelps___McNamara__P_.pdf</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>May 10, 2024</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>United Therapeutics Corporation</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21 C.F.R. §§ 10.30 and 10.31, 21 U.S.C. §§ 355(b)(1)(A)(iv), 355(d)(3), 355(e), 351(a)(2)(B); 21 C.F.R. §§ 314.50(d), 314.105(a), 314.107(b)(4), 314.110(a), 314.125(a)(3)-(b)(1), (b)(4), (b)(13); 21 C.F.R. § 25.31(a)</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>FDA’s tentative approval of Liquidia’s section 505(b)(2) NDA for YUTREPIA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Rescind tentative approval of Liquidia's NDA for YUTREPIA, issue a Complete Response Letter, and withhold any final approval until compliance with CGMP is ensured</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>The sole API supplier for YUTREPIA, LGM Pharma, has a history of severe and ongoing CGMP violations, and remains under a Consent Decree. These violations threaten the safety, quality, and compliance of YUTREPIA’s supply chain, and thus the product should not be approved or tentatively approved until all issues are remediated and FDA confirms compliance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2379-0001_Citizen_Petition_from_The_Humane_Society_of_the_Un.pdf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>May 15, 2024</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>The Humane Society of the United States and the Humane Society Legislative Fund</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Not representing another entity; the petition is submitted on behalf of HSUS and HSLF themselves</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21 U.S.C. § 301 et seq., 5 U.S.C. § 553(e), 21 C.F.R. § 10.30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>FDA's regulatory policies and guidance that imply animal testing is required for drug approval</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Amend FDA regulations and guidance to clarify that animal testing is not required, issue a new guidance document detailing accepted non-animal methods (NAMs), and update all future guidance documents to reference the new NAMs guidance</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Animal testing is often unnecessary, expensive, time-consuming, and not required by law. Non-animal methods (NAMs) are more efficient, reliable, and ethical. Current FDA language creates confusion and incentivizes unnecessary animal tests, hindering drug innovation and violating Congressional intent under FDORA</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2461-0001_Citizen_Petition_from_Ho_Chunk__Inc__on_behalf_of_.pdf</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>May 17, 2024</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ho-Chunk, Inc.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Yes, Ho-Chunk, Inc. is submitting on behalf of Rock River Manufacturing Company</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21 U.S.C. § 301 et seq., 21 C.F.R. § 10.30, Executive Order 13175, HHS Tribal Consultation Policy</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Requirements for Tobacco Product Manufacturing Practice (FDA-2013-N-0227), specifically part 1120</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Amend the Proposed Rule to include an exemption from part 1120 for tribally-owned cigarette manufacturers such as Rock River Manufacturing</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>The petitioner argues that the proposed rule imposes significant economic burdens on small tribal manufacturers like Rock River, threatening their viability. Rock River is one of only two tribally-owned tobacco manufacturers in the U.S., and it already operates under strict tribal regulation and high compliance standards. An exemption would allow the tribe to preserve jobs and economic activity on the Winnebago Reservation without materially affecting overall tobacco regulation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2482-0001_Citizen_Petition_from_Age_Reversal_Unity.pdf</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>May 7, 2024</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Age Reversal Unity</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>No, the submitting entity is not representing another entity</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>21 C.F.R. § 10.30, 21 C.F.R. § 25.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Lack of regulation classifying aging as a disease</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Request the FDA to promulgate a new regulation classifying aging as a disease for purposes of research, treatment, and prevention</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Aging is the primary risk factor for many chronic diseases and has identifiable biological hallmarks that are targetable. Recognizing aging as a disease could shift the healthcare paradigm to proactive aging management, increase research funding, and streamline regulatory pathways for relevant therapies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2513-0001_Citizen_Petition_from_Innogenix_LLC.pdf</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>May 21, 2024</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Innogenix LLC</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>No, the submitting entity is not representing another entity</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21 C.F.R. §§ 10.25, 10.30, 314.122, 314.161; Sections 505(j) and 505(w) of the Federal Food, Drug, and Cosmetic Act</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Determination of whether the Reference Listed Drug (RLD), Flagyl® (metronidazole) Tablets 250 mg and 500 mg (NDA N012623), has been withdrawn for safety or effectiveness reasons</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Request that the FDA determine whether Flagyl® Tablets 250 mg and 500 mg, approved under NDA N012623, has been voluntarily withdrawn for safety or effectiveness reasons</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>The petitioner believes the discontinuation was due to commercial reasons and is not aware of any safety or effectiveness concerns. A determination by FDA is required to enable ANDA submissions referencing the RLD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2514-0001_Citizen_Petition_from_Zydus_Pharmaceuticals__USA__.pdf</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>May 22, 2024</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Zydus Pharmaceuticals (USA) Inc.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>No, the submitting entity is not representing another entity</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21 C.F.R. § 10.25(a), 21 C.F.R. § 10.30, 21 C.F.R. § 314.161, 21 C.F.R. § 314.122, 21 C.F.R. § 25.31(a), 21 C.F.R. § 10.30(b)</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Determination of whether the Reference Listed Drug (RLD) NUPLAZID® (pimavanserin) tablets, 17 mg (NDA# N207318) has been withdrawn for reasons of safety or effectiveness</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Request that the FDA determine whether NUPLAZID® (pimavanserin) tablets, 17 mg (NDA# N207318) has been withdrawn from commercial sale for reasons of safety or effectiveness</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>The petitioner states that NUPLAZID® 17 mg appears in the Discontinued Section of the Orange Book but is unaware of any safety or effectiveness issues. They believe the discontinuation was for commercial reasons and seek FDA’s confirmation to support an ANDA referencing the drug</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2515-0001_Citizen_Petition_from_Encube_Ethicals_Private_Limi.pdf</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>May 22, 2024</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Encube Ethicals Private Limited</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>No, the submitting entity is not representing another entity</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21 C.F.R. § 10.25(a), 21 C.F.R. § 10.30, 21 C.F.R. § 314.161, 21 C.F.R. § 314.122, 21 C.F.R. § 25.31(a), 21 C.F.R. § 10.30(b)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Determination of whether the Reference Listed Drug (RLD), Fortesta (testosterone) Gel (10 mg/0.5 gm Actuation, NDA# 021463), has been withdrawn for reasons of safety or effectiveness</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Request the FDA to determine whether Fortesta (testosterone) Gel (10 mg/0.5 gm Actuation, NDA# 021463) has been voluntarily withdrawn from commercial sale for safety or effectiveness reasons</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>The petitioner states that Fortesta appears in the Discontinued Section of the Orange Book but is unaware of any safety or effectiveness concerns. Believing the withdrawal was due to commercial reasons, the petitioner seeks FDA confirmation to enable an ANDA referencing the drug</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2538-0001_Suitability_Petition_from_Hyman__Phelps___McNamara.pdf</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>May 23, 2024</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Yes, the law firm is submitting the petition on behalf of a client (not named)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) of the FDC Act, 21 C.F.R. § 314.93, 21 C.F.R. §§ 10.20 and 10.30, 21 C.F.R. § 25.31, 21 C.F.R. § 10.30(b), FDC Act § 505B(a)(1)(A)(i)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Suitability of a new dosage form for Cetrorelix Acetate (pre-filled syringe solution) as an ANDA based on RLD CETROTIDE® (powder for reconstitution)</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Request that FDA declare Cetrorelix Acetate Injection 0.25 mg/mL pre-filled syringe suitable for submission as an ANDA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>The proposed product is a ready-to-use form with the same active ingredient, strength, route of administration, and indications as the RLD, reducing the risk of medication error and improving ease of use. The change in dosage form does not affect safety or efficacy, and the product is not intended for pediatric patients, supporting a PREA waiver.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2730-0001_Citizen_Petition_from_Kenneth_D__Eichenbaum.pdf</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>June 2, 2024</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Kenneth D. Eichenbaum, MD, MSE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>No, the submitting entity is not representing another entity</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21 C.F.R. § 10.20, 21 C.F.R. § 10.30, Section 351 of the Public Health Service Act, 21 C.F.R. § 25.30, 21 C.F.R. § 25.31, 21 C.F.R. § 10.30(b)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>FDA’s potential action to expand the label for SRP-9001 (Elvidys, delandistrogene moxeparvovec-rokl)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Request that the FDA refrain from authorizing an expanded label for SRP-9001 (Elvidys) and re-evaluate its limited benefit relative to associated risks</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>The petition argues that both Phase 2 and Phase 3 trials failed to meet their primary endpoints, with weak evidence of benefit and significant safety risks including liver injury, myocarditis, and immune-mediated myositis. Expanding the label may hinder the development of more promising therapies, waste resources, and damage FDA's credibility. Additional studies and alternative therapies should be prioritized.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2752-0001_Suitability_Petition_from_Hyman__Phelps___McNamara.pdf</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>June 6, 2024</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Yes, the submitting entity is representing an unnamed client</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) of the FDC Act, 21 C.F.R. § 314.93, 21 C.F.R. §§ 10.20 and 10.30, 21 C.F.R. § 25.31, 21 C.F.R. § 10.30(b)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Suitability determination for Bupivacaine Hydrochloride Injection, USP (pharmacy bulk package) as an ANDA referencing MARCAINE (NDA 016964)</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Request that FDA declare Bupivacaine Hydrochloride Injection, USP in pharmacy bulk packages (100 mL, 500 mL, 1L, 2L) of 0.25% and 0.5% strengths suitable for submission as an ANDA</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>The petitioner asserts that the proposed bulk packaging has the same concentration and dosage form as the RLD but offers operational advantages such as reduced waste and increased supply to mitigate drug shortages. The labeling includes necessary safety instructions and does not raise new questions of safety or efficacy, so no clinical investigations are required. The PREA requirements do not apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2753-0001_Suitability_Petition_from_Hyman__Phelps___McNamara.pdf</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>June 6, 2024</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Yes, the submitting entity is representing an unnamed client</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) of the FDC Act, 21 C.F.R. § 314.93, 21 C.F.R. §§ 10.20 and 10.30, 21 C.F.R. § 25.31, 21 C.F.R. § 10.30(b), FDC Act § 505B(a)(1)(A)(i)</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Suitability determination for submission of an ANDA for a new presentation of Fentanyl Citrate Injection, USP</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Request that FDA declare Fentanyl Citrate Injection, USP, 50 mcg/mL in pharmacy bulk packages (100 mL, 500 mL, 1L, and 2L) suitable for submission as an ANDA</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>The petitioner argues that while the proposed drug differs from the RLD only in total fill volume/total drug content, the concentration and therapeutic use remain the same. Bulk packaging will reduce waste, support operational efficiencies, and help mitigate ongoing drug shortages. PREA requirements do not apply, and no clinical investigations are necessary to demonstrate safety or efficacy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2757-0001_Suitability_Petition_from_Hyman__Phelps___McNamara.pdf</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>June 6, 2024</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Yes, the submitting entity is representing an unnamed client</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) of the FDC Act, 21 C.F.R. § 314.93, 21 C.F.R. §§ 10.20 and 10.30, 21 C.F.R. § 25.31, 21 C.F.R. § 10.30(b), FDC Act § 505B(a)(1)(A)(i)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Suitability determination for Oxytocin Injection, USP (synthetic), 10 USP Units/mL, for submission as an ANDA in pharmacy bulk package sizes</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Request that FDA declare Oxytocin Injection, USP (synthetic), 10 USP Units/mL, in pharmacy bulk packages (100 mL, 500 mL, 1L, and 2L) suitable for submission as an ANDA</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>The proposed product has the same concentration and intended therapeutic use as the RLD, but differs in total fill volume/total drug content. The larger volume pharmacy bulk packaging aims to reduce waste, improve operational efficiency, and help prevent potential drug shortages. No new safety or efficacy issues are raised. PREA does not apply, and FDA has approved similar petitions in the past.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2758-0001_Suitability_Petition_from_Hyman__Phelps___McNamara.pdf</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>June 6, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Hyman, Phelps &amp; McNamara, P.C. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Petition submitted by the law firm on behalf of an unnamed client (entity not disclosed) :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) FDC Act; 21 C.F.R. § 314.93; 21 C.F.R. §§ 10.20, 10.30; Section 505(j)(2)(A)(iii) FDC Act; 21 C.F.R. § 314.3; Section 505B(a)(1)(A)(i) FDC Act (PREA); 21 C.F.R. § 25.31; 21 C.F.R. § 10.30(b) :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>FDA’s determination of suitability for an ANDA for Ropivacaine Hydrochloride Injection in pharmacy bulk package sizes :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Declare that pharmacy bulk packages (100 mL, 500 mL, 1 L, 2 L) of Ropivacaine Hydrochloride Injection (0.2 %, 0.5 %, 1 %) are suitable for submission as an ANDA :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Change is limited to total fill volume/drug content while concentration, dosage, route, and labeling remain consistent with the RLD; larger bulk packages reduce waste, improve operational efficiency, lower costs, and help mitigate an ongoing drug shortage; prior FDA precedents for similar petitions; no new safety or efficacy questions; PREA not applicable; categorical environmental exclusion claimed :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2778-0001_Suitability_Petition_from_Pharmobedient_Consulting.pdf</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>June 7, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Pharmobedient Consulting, LLC :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Pharmobedient Consulting, LLC submitting on behalf of Pharmobedient Pharmaceuticals, LLC (product sponsor) :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) FDC Act; Section 505(j)(2)(C)(iii) FDC Act; 21 C.F.R. § 10.20; 21 C.F.R. § 10.30; 21 C.F.R. § 314.93; 21 C.F.R. § 25.31; Pediatric Research Equity Act (PREA) Section 505B :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>FDA’s determination of suitability for an ANDA for Chlorzoxazone Orally Disintegrating Tablets (ODT) 250 mg and 500 mg differing in dosage form from the RLD :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Declare that Chlorzoxazone ODT 250 mg and 500 mg are suitable for submission in an ANDA under Section 505(j)(2)(C) :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>ODT provides rapid onset without water, improves compliance for patients with swallowing difficulties, offers dosage flexibility with added 250 mg strength, aligns with existing labeling and bioequivalence to RS, raises no new safety or efficacy questions, environmental exclusion claimed, and pediatric studies waiver requested under PREA :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2779-0001_Suitability_Petition_from_Hyman__Phelps___McNamara.pdf</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>June 10, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Hyman, Phelps &amp; McNamara, P.C. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Law firm filing on behalf of an unnamed client :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) FDC Act; Section 505(j)(2)(A)(iii) FDC Act; Section 505B(a)(1)(A)(i) FDC Act (PREA); 21 C.F.R. § 314.93; 21 C.F.R. §§ 10.20, 10.30; 21 C.F.R. § 10.33; 21 C.F.R. § 25.31 :contentReference[oaicite:6]{index=6}</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>FDA’s prior denial and determination of suitability for an ANDA for Diclofenac Potassium Tablets 12.5 mg differing in strength from the RLD CATAFLAM :contentReference[oaicite:7]{index=7}:contentReference[oaicite:8]{index=8}</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Declare Diclofenac Potassium Tablets 12.5 mg suitable for submission as an ANDA under Section 505(j) :contentReference[oaicite:9]{index=9}:contentReference[oaicite:10]{index=10}</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Proposed lower strength supports lowest effective dosing, literature and bioavailability studies show comparable safety and efficacy to higher strengths, EMA precedent confirms acceptability, no new safety or labeling concerns, PREA inapplicable, and categorical environmental exclusion claimed :contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2843-0001_Citizen_Petition_from_Zach_Richardson_Redacted.pdf</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>June 8, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Zach Richardson :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Petition filed by Zach Richardson on his own behalf; no separate represented entity :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>21 C.F.R. § 10.30; 21 C.F.R. § 10.30(b); 21 C.F.R. § 25.30; 21 C.F.R. § 25.31; Federal Food, Drug, and Cosmetic Act :contentReference[oaicite:6]{index=6}</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>FDA’s current policy of not classifying aging as a disease; petitioner seeks issuance of a new regulation to change this :contentReference[oaicite:7]{index=7}:contentReference[oaicite:8]{index=8}</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Issue a regulation classifying aging as a disease :contentReference[oaicite:9]{index=9}:contentReference[oaicite:10]{index=10}</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Aging drives most chronic diseases and economic burden; scientific evidence links biomarkers and pathways with potential interventions; recognizing aging as a disease would spur R&amp;D, improve healthspan, and reduce healthcare costs, with precedents such as obesity classification noted alongside acknowledgment of possible Social Security impacts :contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2846-0001_Petition_for_Reclassification_from_Pyrexar_Medical.pdf</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>June 6, 2024 :contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Pyrexar Medical Inc. :contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Petition filed directly by Pyrexar Medical Inc.; no separate representative entity :contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Section 513(e) of the Federal Food, Drug, and Cosmetic Act :contentReference[oaicite:7]{index=7}</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>FDA’s classification of the BSD‑2000 Hyperthermia System as a Class III medical device :contentReference[oaicite:9]{index=9}</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Reclassify the BSD‑2000 Hyperthermia System from Class III to Class II under Section 513(e) :contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Extensive clinical data show the BSD‑2000’s proven safety and efficacy; years of global clinical use confirm low risk; advanced safety features and precise temperature control align with Class II expectations; reclassification would streamline access, cut regulatory costs, broaden adoption, and improve patient outcomes while matching precedents for similar devices </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2885-0001_Suitability_Petition_from_Hyman__Phelps___McNamara.pdf</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>June 17, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Hyman, Phelps &amp; McNamara, P.C. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Law firm submitting on behalf of an unnamed client :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) FDC Act; Section 505(j)(2)(A)(iii) FDC Act; Section 505B(a)(1)(A)(i) FDC Act (PREA); 21 C.F.R. § 314.93; 21 C.F.R. §§ 10.20, 10.30; 21 C.F.R. § 25.31 :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>FDA’s determination of suitability for an ANDA for new 200 mg and 300 mg strengths of Olaparib Tablets differing from the RLD strengths :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Declare Olaparib Tablets 200 mg and 300 mg suitable for submission as an ANDA under Section 505(j) :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Strengths align with RLD dosing recommendations, reduce tablet burden, raise no new safety or efficacy questions, PREA inapplicable to strength changes, and categorical environmental exclusion claimed :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2909-0001_Suitability_Petition_from_Hyman__Phelps___McNamara.pdf</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>June 17, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Hyman, Phelps &amp; McNamara, P.C. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Law firm filing on behalf of an unnamed client :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) FDC Act; Section 505(j)(2)(A)(iii) FDC Act; 21 C.F.R. § 314.93; 21 C.F.R. §§ 10.20, 10.30; Section 505B(a)(1)(A)(i) FDC Act (PREA); 21 C.F.R. § 25.31 :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>FDA’s determination of suitability for an ANDA for new 4 mg and 12 mg Buprenorphine Sublingual Tablet strengths differing from the RLD SUBUTEX :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Declare Buprenorphine Sublingual Tablets 4 mg and 12 mg suitable for submission as an ANDA under Section 505(j) :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Strengths match RLD dosing guidance, reduce pill burden, introduce no new safety or efficacy concerns, PREA requirements do not apply to strength changes, and a categorical environmental exclusion is claimed :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2932-0001_Suitability_Petition_from_Newcastle_Bioscience_LLC.pdf</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>June 19, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Newcastle Bioscience LLC :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Newcastle Bioscience LLC submitting on behalf of an unnamed client :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) FDC Act; 21 C.F.R. § 10.30; 21 C.F.R. § 314.93; 21 C.F.R. § 25.31; Pediatric Research Equity Act (PREA) Section 505B; Section 505B(k) FDC Act :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>FDA’s determination of suitability for an ANDA for Rosuvastatin Calcium Orally Disintegrating Tablets (5 mg, 10 mg, 20 mg, 40 mg) differing in dosage form from the RLD Crestor Tablets :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Declare Rosuvastatin Calcium Orally Disintegrating Tablets 5 mg, 10 mg, 20 mg, 40 mg suitable for submission as an ANDA under Section 505(j) :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Change limited to dosage form while strengths, dosing schedule, and labeling match RLD; ODT improves patient convenience without new safety or efficacy issues; no clinical concerns raised; pediatric study waiver requested; categorical environmental exclusion claimed :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2933-0001_Citizen_Petition_from_Chobani_LLC.pdf</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>June 18, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Chobani, LLC :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Petition filed directly by Chobani, LLC; no separate represented entity :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Section 401 FDC Act; 21 C.F.R. § 131.200; 21 C.F.R. § 131.200(b); 21 C.F.R. § 101.4(b)–(c); 21 C.F.R. § 25.30; 21 C.F.R. § 25.31; 21 C.F.R. § 25.32(a) :contentReference[oaicite:6]{index=6}</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>FDA’s yogurt standard of identity at 21 C.F.R. § 131.200, which currently excludes ultrafiltered nonfat milk as a basic dairy ingredient :contentReference[oaicite:7]{index=7}:contentReference[oaicite:8]{index=8}</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Initiate rulemaking to amend 21 C.F.R. § 131.200 to include ultrafiltered nonfat milk as a basic dairy ingredient in yogurt :contentReference[oaicite:9]{index=9}:contentReference[oaicite:10]{index=10}</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Ultrafiltered nonfat milk maintains yogurt’s essential qualities, enables modern processing, offers higher protein with lower sugar/lactose, supports consumer demand for lactose‑free/high‑protein foods, harmonizes with FDA nutrition goals and international standards, and raises no new safety, environmental, or economic concerns :contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2952-0001_Citizen_Petition_from_Sarah_A__Norring___Redacted.pdf</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>June 20, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sarah A. Norring, Ph.D. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Petition filed by Sarah A. Norring on her own behalf; no represented entity :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>21 C.F.R. § 10.30; 21 C.F.R. § 314.161; 21 C.F.R. § 25.31 :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>FDA’s determination under 21 C.F.R. § 314.161 regarding whether the listed drug Lunelle was withdrawn for safety or effectiveness reasons :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Conclude that Lunelle (estradiol cypionate/medroxyprogesterone acetate injectable) was not withdrawn from sale for safety or effectiveness reasons :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Historical evidence shows only syringe recall due to potency uncertainty; vials retained full efficacy, no safety concerns cited; subsequent market withdrawal driven by manufacturing/business decisions rather than safety or effectiveness; therefore, FDA should find the withdrawal not safety‑related :contentReference[oaicite:12]{index=12}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-2955-0001_Citizen_Petition_from_Dsquare_LLC.pdf</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>June 18, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Dsquare LLC :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Petition filed directly by Dsquare LLC; no separate represented entity :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21 C.F.R. § 10.30; 21 C.F.R. § 201; 21 C.F.R. § 201.64; 21 C.F.R. § 201.57 :contentReference[oaicite:6]{index=6}</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Current FDA labeling policy for sodium‑containing N‑acetylcysteine drugs used in treating acetaminophen intoxication, which lacks required sodium warnings and black‑box alerts :contentReference[oaicite:7]{index=7}:contentReference[oaicite:8]{index=8}</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Amend labeling of all sodium‑containing N‑acetylcysteine products to add a high‑sodium content warning for the general population and a Black Box Warning for salt‑sensitive patients or those with cardiovascular/CNS disease :contentReference[oaicite:9]{index=9}</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Recommended treatment delivers sodium doses far exceeding FDA limits; high acute sodium loads are linked to serious cardiovascular and neurological events and reported fatalities; existing FDA guidelines and the former RLD CETYLEV include such warnings, but current products do not; adding warnings will protect salt‑sensitive and general populations and align labeling with FDA safety standards :contentReference[oaicite:10]{index=10}</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3090-0001_Suitability_Petition_from_Epic_Pharma__LLC__on_beh.pdf</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>June 28, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Epic Pharma, LLC :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Epic Pharma, LLC filed the petition as Regulatory Agent on behalf of Humanwell Pharmaceutical US, Inc. :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) FD&amp;C Act; 21 C.F.R. § 314.93; 21 C.F.R. § 10.20; 21 C.F.R. § 10.30; 21 C.F.R. § 25.31; Pediatric Research Equity Act (§ 505B) :contentReference[oaicite:6]{index=6}</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>FDA’s determination of suitability for an ANDA differing in dosage form/strength from the RLD APTIOM—specifically Eslicarbazepine Acetate Oral Suspension 50 mg/mL :contentReference[oaicite:7]{index=7}:contentReference[oaicite:8]{index=8}</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Declare Eslicarbazepine Acetate Oral Suspension 50 mg/mL suitable for submission as an ANDA under § 505(j) :contentReference[oaicite:9]{index=9}:contentReference[oaicite:10]{index=10}</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Change is limited to converting APTIOM tablets to a ready‑to‑use suspension at an equivalent dosage; labeling, dosing schedule, and safety/efficacy remain unchanged; suspension aids patients who cannot swallow tablets; precedent for approving similar dosage‑form petitions; no new clinical concerns; petitioner seeks PREA waiver and claims categorical environmental exclusion :contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3188-0001_Suitability_Petition_from_Lachman_Consulting_Servi.pdf</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>July 3, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Lachman Consulting Services, Inc. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Lachman Consulting Services, Inc. filed the petition on behalf of an unnamed client :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) FD&amp;C Act; Section 505B FD&amp;C Act (PREA); 21 C.F.R. § 10.20; 21 C.F.R. § 10.30; 21 C.F.R. § 25.31 :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>FDA’s determination of suitability for an ANDA for a new 1,250 mg/100 mL (12.5 mg/mL) strength of Levetiracetam in Sodium Chloride Injection differing from RLD strengths :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Declare Levetiracetam in Sodium Chloride Injection 1,250 mg/100 mL (12.5 mg/mL) suitable for submission as an ANDA under Section 505(j) :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Proposed strength is bracketed by existing RLD strengths, reduces medical waste, avoids multiple infusions or compounding, maintains same active ingredient, route, indications, and labeling, introduces no new safety or efficacy concerns, PREA deemed inapplicable, and categorical environmental exclusion claimed :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3292-0001_Suitability_Petition_from_Felix_Pharmaceuticals_Pv.pdf</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>July 10, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Felix Pharmaceuticals Pvt. Ltd. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Petition filed directly by Felix Pharmaceuticals Pvt. Ltd.; no represented third party :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Section 512(n)(3) FD&amp;C Act; 21 C.F.R. § 25.30(h); 21 C.F.R. § 25.21 :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>FDA’s determination of suitability for an abbreviated new animal drug application (ANADA) for a Maropitant Citrate oral solution differing in dosage form from the pioneer CERENIA tablets :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Declare that Maropitant Citrate Oral Solution 40 mg/mL is suitable for submission as an ANADA under Section 512(n)(3) :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Only dosage‑form change—from tablet to oral solution—with same active ingredient, route, and dosage; proposed solution will be bioequivalent, uses excipients already approved for dogs, allows precise weight‑based dosing via calibrated syringes, improves ease of administration, and poses no new safety or efficacy concerns; categorical environmental exclusion claimed :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3293-0001_Suitability_Petition_from_Newcastle_Bioscience_LLC.pdf</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>July 9, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Newcastle Bioscience LLC :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Petition filed directly by Newcastle Bioscience LLC; no separate represented entity :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) FDC Act; 21 C.F.R. § 10.30; 21 C.F.R. § 25.31; Pediatric Research Equity Act (§ 505B) :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>FDA’s determination of suitability for an ANDA for Lacosamide Orally Disintegrating Tablets that differ in dosage form and strengths from the RLD Vimpat tablets :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Declare Lacosamide Orally Disintegrating Tablets 25 mg, 37.5 mg, 75 mg, 112.5 mg, 125 mg, and 175 mg suitable for submission as an ANDA under Section 505(j) :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>New strengths and ODT form provide flexible dosing (especially for renal/hepatic impairment and pediatrics), facilitate titration to lowest effective dose, remove need for oral solution, offer ease of administration, introduce no new safety or efficacy concerns, seek PREA waiver, and claim categorical environmental exclusion :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3357-0001_Citizen_Petition_from_Randall_Steinmeyer___Redacte.pdf</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Not stated in the petition</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Randall Steinmeyer</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>None—petitioner appears on his own behalf</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Federal Food, Drug &amp; Cosmetic Act; 21 C.F.R. Part 809 (Medical Devices; Laboratory Developed Tests)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>FDA’s delegation of oversight for DNA paternity‑test LDTs to the American Association of Blood Banks (AABB) instead of direct regulation</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Ban LabCorp and DDC’s forged DNA paternity tests, place such tests under direct FDA regulation, remove AABB as regulator, and bar the respondents from marketing LDTs</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Tests are alleged forgeries mislabeled as paternity tests; respondents control the market, switched real tests for cheap forgeries, forged expert signatures, lied to FDA about forensic validity, and profit from fraud—creating public‑health and justice risks that require immediate FDA action</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3479-0001_Citizen_Petition_from_Jingwei_Pharmaceutical_Compa.pdf</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>July 23, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Jingwei Pharmaceutical Company, Ltd. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Petition submitted directly by Jingwei Pharmaceutical Company, Ltd.; no separate represented entity :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21 U.S.C. § 355; 21 C.F.R. § 10.25; 21 C.F.R. § 10.30; 21 C.F.R. § 25.30; 21 C.F.R. § 25.31 :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>FDA’s oversight and approval standards for generic drug manufacturers that use a biocatalytic process to produce sitagliptin active pharmaceutical ingredient (API) :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Require such manufacturers to submit (1) a complete certificate of analysis for the biocatalyst, (2) detailed preparation process for the biocatalyst, (3) analytical protocols for residual enzymes and biological impurities, and (4) purging strategies documenting the fate of the biocatalyst :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Biocatalytic processes introduce complex enzyme‑related impurities that are hard to detect and purge; inconsistent impurity profiles threaten patient safety, especially for the large diabetic population relying on sitagliptin; many generics lack necessary technology, so stricter information requirements are needed to protect public health :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3482-0001_Citizen_Petition_from_Qilu_Pharmaceutical__Hainan_.pdf</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>July 24, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Qilu Pharmaceutical (Hainan) Co., Ltd. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Petition filed directly by Qilu Pharmaceutical (Hainan) Co., Ltd.; no separate represented entity :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Sections 505(j) and 505(w) FDC Act; 21 C.F.R. § 10.25(a); 21 C.F.R. § 10.30; 21 C.F.R. § 314.122; 21 C.F.R. § 314.161; 21 C.F.R. § 25.31 :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>FDA’s listing of JESDUVROQ (daprodustat) tablets 1 mg, 2 mg, 4 mg, 6 mg, 8 mg in the Orange Book’s Discontinued Drug Product List and the related withdrawal determination :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Determine that JESDUVROQ (daprodustat) tablets 1 mg–8 mg were not withdrawn for reasons of safety or effectiveness :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Petitioner is unaware of any safety or efficacy issues; believes discontinuation was solely for commercial reasons; a ‘not‑withdrawn‑for‑safety/efficacy’ finding will allow ANDA applicants to cite the drug as the RLD :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3484-0001_Petition_for_Reclassification_of_next_generation_s.pdf</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>June 28, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Foundation Medicine, Inc. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Petition filed directly by Foundation Medicine, Inc.; no separate represented entity :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Section 513(f)(3) FD&amp;C Act; Section 513(f)(1) FD&amp;C Act; 21 C.F.R. § 860.123; 21 C.F.R. § 860.134 :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>FDA’s current classification of next‑generation sequencing oncology panel devices (product code PQP) as Class III medical devices and its announced intent to reclassify IVDs :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Reclassify all NGS oncology panel devices with one or more companion diagnostic indications (product code PQP) from Class III to Class II (high‑risk with special controls) :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Extensive regulatory experience and published data show risks can be mitigated through rigorous special controls; reclassification would preserve safety and effectiveness while improving patient access, ensuring high‑quality genomic testing, and aligning regulation with FDA’s 2024 reclassification initiative for high‑risk IVDs :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3563-0001_Citizen_Petition_from_Hyman__Phelps___McNamara__P_.pdf</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>July 29, 2024</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Hyman, Phelps &amp; McNamara, P.C.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Aquestive Therapeutics, Inc.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>21 C.F.R. §§ 10.30 and 10.31; section 505(q) of the FDCA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>FDA policy not requiring food-effect studies for intranasal products even when the active moiety has a known food effect</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Require food-effect studies for intranasal spray products where the active moiety has a known food effect when administered orally; investigate lack of efficacy for such products documented in FDA's Adverse Event Reporting System</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Intranasal products may be partially swallowed and thus subject to food effects that alter pharmacokinetics and efficacy; literature and FAERS data suggest lack of efficacy could be due to unstudied food effects; a food-effect study is simple, quick, and low-cost and could inform safe labeling and use</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3567-0001_Suitability_Petition_from_Lachman_Consulting_Servi.pdf</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>July 25, 2024</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Lachman Consulting Services, Inc.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>A client represented by Lachman Consulting Services, Inc. (client identity not disclosed)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 C.F.R. § 10.20; 21 C.F.R. § 10.30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>FDA's lack of approval for lower strength (25 mg, 50 mg, 100 mg) sertraline capsules despite their utility for titration, initiation, and tapering of therapy</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Declare that Sertraline Capsules, 25 mg, 50 mg, and 100 mg are suitable for submission in an Abbreviated New Drug Application (ANDA)</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>The currently approved capsule strengths (150 mg and 200 mg) do not accommodate initial titration or tapering; the proposed lower strengths would enhance dosing flexibility, improve patient adherence, reduce copays during titration, and align with approved labeling recommendations</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3571-0001_Suitability_Petition_from_Premier_Consulting.pdf</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>July 29, 2024</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Premier Research Consulting, LLC</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Premier Consulting is submitting on its own behalf; no separate represented entity is named</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR § 10.20; 21 CFR § 10.30; 21 CFR § 314.93</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>FDA’s current limitation of the Reference Listed Drug (LOTREL) to capsule dosage form only</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Determine that Amlodipine and Benazepril hydrochloride Oral Liquid is suitable for submission in an Abbreviated New Drug Application (ANDA)</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>The proposed product differs only in dosage form (oral liquid vs. capsule) while maintaining the same active ingredients, indication, route, and dosing regimen as the RLD; this change facilitates administration, particularly for patients with swallowing difficulties, without introducing new safety or efficacy concerns</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3573-0001_Suitability_Petition_from_Premier_Consulting.pdf</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>July 29, 2024</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Premier Research Consulting, LLC</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Premier Consulting is submitting on its own behalf; no separate represented entity is named</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR § 10.20; 21 CFR § 10.30; 21 CFR § 314.93</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>FDA’s limitation of the Reference Listed Drug (ZESTORETIC) to tablet dosage form</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Determine that Lisinopril and Hydrochlorothiazide Oral Liquid is suitable for submission in an Abbreviated New Drug Application (ANDA)</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>The proposed oral liquid formulation maintains the same active ingredients, dosage strengths, route of administration, and indication as the RLD ZESTORETIC; converting the dosage form from tablet to liquid facilitates administration, particularly in populations with swallowing difficulties, without introducing new safety or efficacy concerns</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3699-0001_Citizen_Petition_from_Zydus_Pharmaceuticals__USA__.pdf</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>August 2, 2024</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Zydus Pharmaceuticals (USA) Inc.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Zydus Pharmaceuticals (USA) Inc. is submitting on its own behalf; no separate represented entity is named</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>21 C.F.R. § 10.25(a); 21 C.F.R. § 10.30; 21 C.F.R. § 314.161; 21 C.F.R. § 314.122</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Whether IC-GREEN (indocyanine green for injection, USP) 25 mg has been withdrawn from sale for safety or effectiveness reasons</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Request a determination from the FDA as to whether the Reference Listed Drug IC-GREEN 25 mg was withdrawn from sale for reasons of safety or effectiveness</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>IC-GREEN 25 mg is listed as discontinued in the FDA’s Orange Book and is no longer marketed by Renew Pharmaceuticals Ltd.; a determination is needed to clarify whether the discontinuation was due to safety or effectiveness concerns to support potential ANDA submission</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3761-0001_Citizen_Petition_from_Spark_Biomedical__Inc_.pdf</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>July 31, 2024</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Spark Biomedical, Inc.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Spark Biomedical, Inc. is submitting on its own behalf; no separate represented entity is named</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Section 3060(a) of the 21st Century Cures Act; Section 201(h) of the FD&amp;C Act</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>FDA’s lack of enforcement on neurostimulation wellness devices making unapproved medical claims</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Enforce regulation of neurostimulation wellness products making therapeutic claims, remove non-compliant products from the market, and require amended advertising to eliminate misleading medical claims</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Neurostimulation wellness devices are being marketed with unsubstantiated claims about treating serious medical conditions without FDA approval; such devices should be regulated as medical devices under existing law to protect public health and ensure consumer safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3799-0001_Citizen_Petition_from_Raaha_LLC.pdf</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>August 7, 2024</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Raaha LLC</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Raaha LLC is submitting on its own behalf; no separate represented entity is named</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 CFR § 10.20; 21 CFR § 10.30; 21 CFR § 314.92</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Approval of ANDAs for Prednisolone Ophthalmic Solution 1% without demonstrating long-term stability under refrigerated conditions</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Require generic applicants to submit long-term stability studies under refrigerated conditions for Prednisolone Ophthalmic Solution 1%, withhold approval of ANDAs lacking such data, and reconsider approval and rating of ANDA #216935 if it lacks these studies</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Refrigerated storage is permitted per the RLD labeling; ophthalmic suspensions are sensitive to temperature variations affecting critical quality attributes like particle size and viscosity; lack of stability data under refrigerated conditions could compromise product quality, safety, and efficacy, posing risks to public health</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3820-0001_Citizen_Petition_from_Vanguard_Regulatory_Services.pdf</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>August 9, 2024</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Vanguard Regulatory Services, Inc.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Vanguard Regulatory Services, Inc. is submitting the petition on behalf of Nagase Viita Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>21 C.F.R. § 10.30; 21 C.F.R. § 101.9(c)(6)(i); Sections 403(q), 403(a), 201(n), and 701(a) of the FD&amp;C Act</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>FDA’s current exclusion of Isomaltodextrin (IMD) from the definition of dietary fiber under 21 C.F.R. § 101.9(c)(6)(i)</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Amend the definition of dietary fiber in 21 C.F.R. § 101.9(c)(6)(i) to include Isomaltodextrin (IMD/Fibryxa®) as an isolated or synthetic non-digestible carbohydrate with beneficial physiological effects</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Scientific studies show that IMD significantly reduces postprandial blood glucose and triglyceride levels in humans, especially in individuals with elevated responses; thus, IMD provides beneficial physiological effects and meets the criteria for inclusion as a dietary fiber under FDA regulations</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3821-0001_Cover_Letter_for_Suitability_Petition_from_Aurora_.pdf</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>August 8, 2024</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Aurora Pharmaceutical, Inc.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Aurora Pharmaceutical, Inc. is submitting on its own behalf; no separate represented entity is named</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Section 512(n)(3) of the Federal Food, Drug, and Cosmetic Act</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>FDA’s current approval of Nexgard® (afoxolaner) Chewables as the reference listed new animal drug</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Request permission to submit an abbreviated new animal drug application (ANADA) for Afoxolaner Oral Solution 1.84% w/v, differing in dosage form from the reference listed drug</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>The proposed generic differs only in dosage form from Nexgard® chewables; Aurora seeks approval to proceed with an ANADA for afoxolaner in oral solution form under the suitability provisions of the FD&amp;C Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3822-0001_Citizen_Petition_from_University_of_Illinois__Coll.pdf</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>August 10, 2024</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>University of Illinois, College of Pharmacy</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Submitted by Sarfaraz K. Niazi, Ph.D., on behalf of the University of Illinois, College of Pharmacy</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>The Biologics Price Competition and Innovation Act (BPCIA); 42 USC 262(k); 21 C.F.R. § 10.30</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>FDA's prohibition against the U.S. Pharmacopeia (USP) creating monographs for biological drugs, specifically banning side-by-side analytical testing of biosimilars</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Rescind FDA’s directive to the USP prohibiting the development of monographs for biological drugs, and allow USP to create Biological Product Specifications (BPS) that define release specifications for biosimilars</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Creating BPS would eliminate the need for costly side-by-side analytical testing with the reference product, reduce development costs, facilitate broader biosimilar access, promote harmonization, and enhance global regulatory acceptance while maintaining safety and efficacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3881-0001_Suitability_Petition_from_Zydus_Pharmaceuticals__U.pdf</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>August 13, 2024</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Zydus Pharmaceuticals (USA) Inc.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Zydus Pharmaceuticals (USA) Inc. is submitting on its own behalf; no separate represented entity is named</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 C.F.R. § 314.93; 21 C.F.R. §§ 10.20 and 10.30</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>FDA’s current limitation of the approved strengths of NUPLAZID (pimavanserin) Tablets to 10 mg and 17 mg</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Determine that Pimavanserin Tablets, 34 mg, is suitable for submission in an Abbreviated New Drug Application (ANDA)</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>The 34 mg strength matches the recommended daily dose stated in the RLD prescribing information; offering this strength in tablet form will enhance prescribing flexibility without changing dosage form or regimen, and does not raise new safety or efficacy concerns</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3905-0001_Suitability_Petition_from_Lachman_Consulting_Servi.pdf</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>August 15, 2024</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Lachman Consulting Services, Inc.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Lachman Consulting Services, Inc. submitted the petition on behalf of an undisclosed client</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 C.F.R. § 10.20; 21 C.F.R. § 10.30</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>FDA’s existing approval of Estrace® Vaginal Cream, 0.01%, as the reference listed drug, and the dosage form limitation to cream</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Determine that Estradiol Vaginal Inserts, 1 g and 2 g, are suitable for submission in an Abbreviated New Drug Application (ANDA)</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>The proposed vaginal inserts match the active ingredient and strength of the RLD cream but offer a pre-measured, easier-to-administer alternative that avoids waste and variability due to patient handling; this dosage form benefits patients with limited dexterity or vision and aligns with current dosing recommendations</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-3997-0001_Citizen_Petition_from_Aylstock__Witkin__Kreis___Ov.pdf</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>August 20, 2024</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Aylstock, Witkin, Kreis &amp; Overholtz, PLLC</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>The firm submitted the petition on its own behalf but discloses representation of consumers who purchased BPO products contaminated with benzene</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>21 C.F.R. § 10.30; 21 C.F.R. § 330.10(a)(12); 21 C.F.R. § 330.10(b); Section 501(a)(2)(B) of the FD&amp;C Act</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>FDA’s continued allowance of benzoyl peroxide (BPO) drug products on the market despite benzene contamination</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Recall and suspend sales of all benzoyl peroxide (BPO) products from the U.S. market due to the presence of benzene at levels deemed unsafe by FDA standards</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Independent lab testing showed widespread and significantly high levels of benzene in various BPO products; benzene is a Class 1 carcinogen, and its presence at levels exceeding 2 ppm violates FDA and international safety limits; the FDA has previously determined such levels to pose life-threatening risks and warrant recalls</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-4015-0001_Citizen_Petition_from_Kohl_Harrington_Redacted.pdf</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>August 22, 2024</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Kohl Harrington</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Kohl Harrington is submitting on his own behalf; no separate represented entity is named</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>5 U.S.C. § 552 (Freedom of Information Act); 21 C.F.R. § 10.30(b); 21 C.F.R. §§ 25.30 and 25.34</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>FDA-CVM’s failure to publicly post calendar records of employee Charlotte Conway despite likely being subject to multiple FOIA requests</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Comply with FOIA by posting calendar records for FDA-CVM employee Charlotte Conway (covering July 1–31, 2024) on the FDA FOIA Reading Room website</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>The FOIA requires agencies to publicly post records requested three or more times or likely to be requested again; failure to do so violates statutory obligations and undermines transparency</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-4126-0001_Suitability_Petition_from_Aurora_Pharmaceutical__I.pdf</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>August 28, 2024</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Aurora Pharmaceutical, Inc.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Aurora Pharmaceutical, Inc. is submitting on its own behalf; no separate represented entity is named</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Section 512(n)(3) of the Federal Food, Drug, and Cosmetic Act; 21 C.F.R. § 25.30(h); 21 C.F.R. § 25.15</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>FDA’s current approval of Metacam® (meloxicam) Oral Suspension in 0.5 mg/mL and 1.5 mg/mL strengths as the reference listed new animal drug (RLNAD)</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Allow submission of an ANADA for Meloxicam Oral Solution 3 mg/mL, a higher strength and different dosage form intended for dogs over 10 lbs.</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>The proposed solution offers improved dosing accuracy and ease of administration for large dogs compared to the current suspension that requires shaking; the higher concentration reduces dosing volume, enhancing compliance without compromising safety based on prior toxicology data</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-4134-0001_Suitability_Petition_from_Pharmobedient_Consulting.pdf</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>August 24, 2024</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Pharmobedient Consulting, LLC</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Pharmobedient Consulting, LLC is submitting on its own behalf; no separate represented entity is named</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 C.F.R. §§ 10.20, 10.30, 314.93; 21 C.F.R. § 25.31</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>FDA’s current limitation of approved Diclofenac Potassium tablet strengths to 25 mg and 50 mg</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Determine that Diclofenac Potassium Tablets, 37.5 mg, is suitable for submission in an Abbreviated New Drug Application (ANDA)</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>The 37.5 mg strength offers physicians greater dosing flexibility, enabling individualized treatment plans and lower effective dosing options; it remains bioequivalent to existing strengths and introduces no new concerns of safety or efficacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>FDA-2024-P-4135-0001_Suitability_Petition_from_Fresenius_Kabi_USA__LLC.pdf</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>August 27, 2024</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Fresenius Kabi USA, LLC</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Fresenius Kabi USA, LLC is submitting on its own behalf; no separate represented entity is named</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Section 505(j)(2)(C) of the FD&amp;C Act; 21 C.F.R. § 314.93; 21 C.F.R. §§ 10.20 and 10.30</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>FDA’s current approval of Vasopressin in 0.9% Sodium Chloride Injection only in 20 units/100 mL and 40 units/100 mL strengths</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Determine that Vasopressin in 0.9% Sodium Chloride Injection, 50 units/50 mL (1 unit/mL) in a single-dose ready-to-use container is suitable for submission in an Abbreviated New Drug Application (ANDA)</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>The proposed 1 unit/mL strength aligns with dosing in the approved labeling, reduces the number of IV bags needed for high-dose administrations, supports fluid-restricted patients, and complies with ASHP standards for standardized concentrations; it introduces no new safety or efficacy concerns and matches therapeutic expectations of the reference listed drug</t>
         </is>
       </c>
     </row>

--- a/outputs_citizens.xlsx
+++ b/outputs_citizens.xlsx
@@ -19001,37 +19001,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>June 6, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">June 6, 2024 </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Hyman, Phelps &amp; McNamara, P.C. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Hyman, Phelps &amp; McNamara, P.C. </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Petition submitted by the law firm on behalf of an unnamed client (entity not disclosed) :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Petition submitted by the law firm on behalf of an unnamed client (entity not disclosed) </t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) FDC Act; 21 C.F.R. § 314.93; 21 C.F.R. §§ 10.20, 10.30; Section 505(j)(2)(A)(iii) FDC Act; 21 C.F.R. § 314.3; Section 505B(a)(1)(A)(i) FDC Act (PREA); 21 C.F.R. § 25.31; 21 C.F.R. § 10.30(b) :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+          <t xml:space="preserve">Section 505(j)(2)(C) FDC Act; 21 C.F.R. § 314.93; 21 C.F.R. §§ 10.20, 10.30; Section 505(j)(2)(A)(iii) FDC Act; 21 C.F.R. § 314.3; Section 505B(a)(1)(A)(i) FDC Act (PREA); 21 C.F.R. § 25.31; 21 C.F.R. § 10.30(b) </t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>FDA’s determination of suitability for an ANDA for Ropivacaine Hydrochloride Injection in pharmacy bulk package sizes :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+          <t xml:space="preserve">FDA’s determination of suitability for an ANDA for Ropivacaine Hydrochloride Injection in pharmacy bulk package sizes </t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Declare that pharmacy bulk packages (100 mL, 500 mL, 1 L, 2 L) of Ropivacaine Hydrochloride Injection (0.2 %, 0.5 %, 1 %) are suitable for submission as an ANDA :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Declare that pharmacy bulk packages (100 mL, 500 mL, 1 L, 2 L) of Ropivacaine Hydrochloride Injection (0.2 %, 0.5 %, 1 %) are suitable for submission as an ANDA </t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Change is limited to total fill volume/drug content while concentration, dosage, route, and labeling remain consistent with the RLD; larger bulk packages reduce waste, improve operational efficiency, lower costs, and help mitigate an ongoing drug shortage; prior FDA precedents for similar petitions; no new safety or efficacy questions; PREA not applicable; categorical environmental exclusion claimed :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+          <t xml:space="preserve">Change is limited to total fill volume/drug content while concentration, dosage, route, and labeling remain consistent with the RLD; larger bulk packages reduce waste, improve operational efficiency, lower costs, and help mitigate an ongoing drug shortage; prior FDA precedents for similar petitions; no new safety or efficacy questions; PREA not applicable; categorical environmental exclusion claimed </t>
         </is>
       </c>
     </row>
@@ -19043,37 +19043,37 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>June 7, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">June 7, 2024 </t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Pharmobedient Consulting, LLC :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Pharmobedient Consulting, LLC </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Pharmobedient Consulting, LLC submitting on behalf of Pharmobedient Pharmaceuticals, LLC (product sponsor) :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Pharmobedient Consulting, LLC submitting on behalf of Pharmobedient Pharmaceuticals, LLC (product sponsor) </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) FDC Act; Section 505(j)(2)(C)(iii) FDC Act; 21 C.F.R. § 10.20; 21 C.F.R. § 10.30; 21 C.F.R. § 314.93; 21 C.F.R. § 25.31; Pediatric Research Equity Act (PREA) Section 505B :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+          <t xml:space="preserve">Section 505(j)(2)(C) FDC Act; Section 505(j)(2)(C)(iii) FDC Act; 21 C.F.R. § 10.20; 21 C.F.R. § 10.30; 21 C.F.R. § 314.93; 21 C.F.R. § 25.31; Pediatric Research Equity Act (PREA) Section 505B </t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>FDA’s determination of suitability for an ANDA for Chlorzoxazone Orally Disintegrating Tablets (ODT) 250 mg and 500 mg differing in dosage form from the RLD :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+          <t xml:space="preserve">FDA’s determination of suitability for an ANDA for Chlorzoxazone Orally Disintegrating Tablets (ODT) 250 mg and 500 mg differing in dosage form from the RLD </t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Declare that Chlorzoxazone ODT 250 mg and 500 mg are suitable for submission in an ANDA under Section 505(j)(2)(C) :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Declare that Chlorzoxazone ODT 250 mg and 500 mg are suitable for submission in an ANDA under Section 505(j)(2)(C) </t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>ODT provides rapid onset without water, improves compliance for patients with swallowing difficulties, offers dosage flexibility with added 250 mg strength, aligns with existing labeling and bioequivalence to RS, raises no new safety or efficacy questions, environmental exclusion claimed, and pediatric studies waiver requested under PREA :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+          <t xml:space="preserve">ODT provides rapid onset without water, improves compliance for patients with swallowing difficulties, offers dosage flexibility with added 250 mg strength, aligns with existing labeling and bioequivalence to RS, raises no new safety or efficacy questions, environmental exclusion claimed, and pediatric studies waiver requested under PREA </t>
         </is>
       </c>
     </row>
@@ -19085,37 +19085,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>June 10, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">June 10, 2024 </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Hyman, Phelps &amp; McNamara, P.C. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Hyman, Phelps &amp; McNamara, P.C. </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Law firm filing on behalf of an unnamed client :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Law firm filing on behalf of an unnamed client </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) FDC Act; Section 505(j)(2)(A)(iii) FDC Act; Section 505B(a)(1)(A)(i) FDC Act (PREA); 21 C.F.R. § 314.93; 21 C.F.R. §§ 10.20, 10.30; 21 C.F.R. § 10.33; 21 C.F.R. § 25.31 :contentReference[oaicite:6]{index=6}</t>
+          <t xml:space="preserve">Section 505(j)(2)(C) FDC Act; Section 505(j)(2)(A)(iii) FDC Act; Section 505B(a)(1)(A)(i) FDC Act (PREA); 21 C.F.R. § 314.93; 21 C.F.R. §§ 10.20, 10.30; 21 C.F.R. § 10.33; 21 C.F.R. § 25.31 </t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>FDA’s prior denial and determination of suitability for an ANDA for Diclofenac Potassium Tablets 12.5 mg differing in strength from the RLD CATAFLAM :contentReference[oaicite:7]{index=7}:contentReference[oaicite:8]{index=8}</t>
+          <t xml:space="preserve">FDA’s prior denial and determination of suitability for an ANDA for Diclofenac Potassium Tablets 12.5 mg differing in strength from the RLD CATAFLAM </t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Declare Diclofenac Potassium Tablets 12.5 mg suitable for submission as an ANDA under Section 505(j) :contentReference[oaicite:9]{index=9}:contentReference[oaicite:10]{index=10}</t>
+          <t xml:space="preserve">Declare Diclofenac Potassium Tablets 12.5 mg suitable for submission as an ANDA under Section 505(j) </t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Proposed lower strength supports lowest effective dosing, literature and bioavailability studies show comparable safety and efficacy to higher strengths, EMA precedent confirms acceptability, no new safety or labeling concerns, PREA inapplicable, and categorical environmental exclusion claimed :contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Proposed lower strength supports lowest effective dosing, literature and bioavailability studies show comparable safety and efficacy to higher strengths, EMA precedent confirms acceptability, no new safety or labeling concerns, PREA inapplicable, and categorical environmental exclusion claimed </t>
         </is>
       </c>
     </row>
@@ -19127,37 +19127,37 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>June 8, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">June 8, 2024 </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Zach Richardson :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Zach Richardson </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Petition filed by Zach Richardson on his own behalf; no separate represented entity :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Petition filed by Zach Richardson on his own behalf; no separate represented entity </t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30; 21 C.F.R. § 10.30(b); 21 C.F.R. § 25.30; 21 C.F.R. § 25.31; Federal Food, Drug, and Cosmetic Act :contentReference[oaicite:6]{index=6}</t>
+          <t xml:space="preserve">21 C.F.R. § 10.30; 21 C.F.R. § 10.30(b); 21 C.F.R. § 25.30; 21 C.F.R. § 25.31; Federal Food, Drug, and Cosmetic Act </t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>FDA’s current policy of not classifying aging as a disease; petitioner seeks issuance of a new regulation to change this :contentReference[oaicite:7]{index=7}:contentReference[oaicite:8]{index=8}</t>
+          <t xml:space="preserve">FDA’s current policy of not classifying aging as a disease; petitioner seeks issuance of a new regulation to change this </t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Issue a regulation classifying aging as a disease :contentReference[oaicite:9]{index=9}:contentReference[oaicite:10]{index=10}</t>
+          <t xml:space="preserve">Issue a regulation classifying aging as a disease </t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aging drives most chronic diseases and economic burden; scientific evidence links biomarkers and pathways with potential interventions; recognizing aging as a disease would spur R&amp;D, improve healthspan, and reduce healthcare costs, with precedents such as obesity classification noted alongside acknowledgment of possible Social Security impacts :contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Aging drives most chronic diseases and economic burden; scientific evidence links biomarkers and pathways with potential interventions; recognizing aging as a disease would spur R&amp;D, improve healthspan, and reduce healthcare costs, with precedents such as obesity classification noted alongside acknowledgment of possible Social Security impacts </t>
         </is>
       </c>
     </row>
@@ -19169,32 +19169,32 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>June 6, 2024 :contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">June 6, 2024 </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Pyrexar Medical Inc. :contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Pyrexar Medical Inc. </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Petition filed directly by Pyrexar Medical Inc.; no separate representative entity :contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Petition filed directly by Pyrexar Medical Inc.; no separate representative entity </t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Section 513(e) of the Federal Food, Drug, and Cosmetic Act :contentReference[oaicite:7]{index=7}</t>
+          <t xml:space="preserve">Section 513(e) of the Federal Food, Drug, and Cosmetic Act </t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>FDA’s classification of the BSD‑2000 Hyperthermia System as a Class III medical device :contentReference[oaicite:9]{index=9}</t>
+          <t xml:space="preserve">FDA’s classification of the BSD‑2000 Hyperthermia System as a Class III medical device </t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Reclassify the BSD‑2000 Hyperthermia System from Class III to Class II under Section 513(e) :contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Reclassify the BSD‑2000 Hyperthermia System from Class III to Class II under Section 513(e) </t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -19211,37 +19211,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>June 17, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">June 17, 2024 </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Hyman, Phelps &amp; McNamara, P.C. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Hyman, Phelps &amp; McNamara, P.C. </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Law firm submitting on behalf of an unnamed client :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Law firm submitting on behalf of an unnamed client </t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) FDC Act; Section 505(j)(2)(A)(iii) FDC Act; Section 505B(a)(1)(A)(i) FDC Act (PREA); 21 C.F.R. § 314.93; 21 C.F.R. §§ 10.20, 10.30; 21 C.F.R. § 25.31 :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+          <t xml:space="preserve">Section 505(j)(2)(C) FDC Act; Section 505(j)(2)(A)(iii) FDC Act; Section 505B(a)(1)(A)(i) FDC Act (PREA); 21 C.F.R. § 314.93; 21 C.F.R. §§ 10.20, 10.30; 21 C.F.R. § 25.31 </t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>FDA’s determination of suitability for an ANDA for new 200 mg and 300 mg strengths of Olaparib Tablets differing from the RLD strengths :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+          <t xml:space="preserve">FDA’s determination of suitability for an ANDA for new 200 mg and 300 mg strengths of Olaparib Tablets differing from the RLD strengths </t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Declare Olaparib Tablets 200 mg and 300 mg suitable for submission as an ANDA under Section 505(j) :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Declare Olaparib Tablets 200 mg and 300 mg suitable for submission as an ANDA under Section 505(j) </t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Strengths align with RLD dosing recommendations, reduce tablet burden, raise no new safety or efficacy questions, PREA inapplicable to strength changes, and categorical environmental exclusion claimed :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+          <t xml:space="preserve">Strengths align with RLD dosing recommendations, reduce tablet burden, raise no new safety or efficacy questions, PREA inapplicable to strength changes, and categorical environmental exclusion claimed </t>
         </is>
       </c>
     </row>
@@ -19253,37 +19253,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>June 17, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">June 17, 2024 </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Hyman, Phelps &amp; McNamara, P.C. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Hyman, Phelps &amp; McNamara, P.C. </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Law firm filing on behalf of an unnamed client :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Law firm filing on behalf of an unnamed client </t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) FDC Act; Section 505(j)(2)(A)(iii) FDC Act; 21 C.F.R. § 314.93; 21 C.F.R. §§ 10.20, 10.30; Section 505B(a)(1)(A)(i) FDC Act (PREA); 21 C.F.R. § 25.31 :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+          <t xml:space="preserve">Section 505(j)(2)(C) FDC Act; Section 505(j)(2)(A)(iii) FDC Act; 21 C.F.R. § 314.93; 21 C.F.R. §§ 10.20, 10.30; Section 505B(a)(1)(A)(i) FDC Act (PREA); 21 C.F.R. § 25.31 </t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FDA’s determination of suitability for an ANDA for new 4 mg and 12 mg Buprenorphine Sublingual Tablet strengths differing from the RLD SUBUTEX :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+          <t xml:space="preserve">FDA’s determination of suitability for an ANDA for new 4 mg and 12 mg Buprenorphine Sublingual Tablet strengths differing from the RLD SUBUTEX </t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Declare Buprenorphine Sublingual Tablets 4 mg and 12 mg suitable for submission as an ANDA under Section 505(j) :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Declare Buprenorphine Sublingual Tablets 4 mg and 12 mg suitable for submission as an ANDA under Section 505(j) </t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Strengths match RLD dosing guidance, reduce pill burden, introduce no new safety or efficacy concerns, PREA requirements do not apply to strength changes, and a categorical environmental exclusion is claimed :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+          <t xml:space="preserve">Strengths match RLD dosing guidance, reduce pill burden, introduce no new safety or efficacy concerns, PREA requirements do not apply to strength changes, and a categorical environmental exclusion is claimed </t>
         </is>
       </c>
     </row>
@@ -19295,37 +19295,37 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>June 19, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">June 19, 2024 </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Newcastle Bioscience LLC :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Newcastle Bioscience LLC </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Newcastle Bioscience LLC submitting on behalf of an unnamed client :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Newcastle Bioscience LLC submitting on behalf of an unnamed client </t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) FDC Act; 21 C.F.R. § 10.30; 21 C.F.R. § 314.93; 21 C.F.R. § 25.31; Pediatric Research Equity Act (PREA) Section 505B; Section 505B(k) FDC Act :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+          <t xml:space="preserve">Section 505(j)(2)(C) FDC Act; 21 C.F.R. § 10.30; 21 C.F.R. § 314.93; 21 C.F.R. § 25.31; Pediatric Research Equity Act (PREA) Section 505B; Section 505B(k) FDC Act </t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>FDA’s determination of suitability for an ANDA for Rosuvastatin Calcium Orally Disintegrating Tablets (5 mg, 10 mg, 20 mg, 40 mg) differing in dosage form from the RLD Crestor Tablets :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+          <t xml:space="preserve">FDA’s determination of suitability for an ANDA for Rosuvastatin Calcium Orally Disintegrating Tablets (5 mg, 10 mg, 20 mg, 40 mg) differing in dosage form from the RLD Crestor Tablets </t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Declare Rosuvastatin Calcium Orally Disintegrating Tablets 5 mg, 10 mg, 20 mg, 40 mg suitable for submission as an ANDA under Section 505(j) :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Declare Rosuvastatin Calcium Orally Disintegrating Tablets 5 mg, 10 mg, 20 mg, 40 mg suitable for submission as an ANDA under Section 505(j) </t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Change limited to dosage form while strengths, dosing schedule, and labeling match RLD; ODT improves patient convenience without new safety or efficacy issues; no clinical concerns raised; pediatric study waiver requested; categorical environmental exclusion claimed :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+          <t xml:space="preserve">Change limited to dosage form while strengths, dosing schedule, and labeling match RLD; ODT improves patient convenience without new safety or efficacy issues; no clinical concerns raised; pediatric study waiver requested; categorical environmental exclusion claimed </t>
         </is>
       </c>
     </row>
@@ -19337,37 +19337,37 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>June 18, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">June 18, 2024 </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Chobani, LLC :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Chobani, LLC </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Petition filed directly by Chobani, LLC; no separate represented entity :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Petition filed directly by Chobani, LLC; no separate represented entity </t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Section 401 FDC Act; 21 C.F.R. § 131.200; 21 C.F.R. § 131.200(b); 21 C.F.R. § 101.4(b)–(c); 21 C.F.R. § 25.30; 21 C.F.R. § 25.31; 21 C.F.R. § 25.32(a) :contentReference[oaicite:6]{index=6}</t>
+          <t xml:space="preserve">Section 401 FDC Act; 21 C.F.R. § 131.200; 21 C.F.R. § 131.200(b); 21 C.F.R. § 101.4(b)–(c); 21 C.F.R. § 25.30; 21 C.F.R. § 25.31; 21 C.F.R. § 25.32(a) </t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>FDA’s yogurt standard of identity at 21 C.F.R. § 131.200, which currently excludes ultrafiltered nonfat milk as a basic dairy ingredient :contentReference[oaicite:7]{index=7}:contentReference[oaicite:8]{index=8}</t>
+          <t xml:space="preserve">FDA’s yogurt standard of identity at 21 C.F.R. § 131.200, which currently excludes ultrafiltered nonfat milk as a basic dairy ingredient </t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Initiate rulemaking to amend 21 C.F.R. § 131.200 to include ultrafiltered nonfat milk as a basic dairy ingredient in yogurt :contentReference[oaicite:9]{index=9}:contentReference[oaicite:10]{index=10}</t>
+          <t xml:space="preserve">Initiate rulemaking to amend 21 C.F.R. § 131.200 to include ultrafiltered nonfat milk as a basic dairy ingredient in yogurt </t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Ultrafiltered nonfat milk maintains yogurt’s essential qualities, enables modern processing, offers higher protein with lower sugar/lactose, supports consumer demand for lactose‑free/high‑protein foods, harmonizes with FDA nutrition goals and international standards, and raises no new safety, environmental, or economic concerns :contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Ultrafiltered nonfat milk maintains yogurt’s essential qualities, enables modern processing, offers higher protein with lower sugar/lactose, supports consumer demand for lactose‑free/high‑protein foods, harmonizes with FDA nutrition goals and international standards, and raises no new safety, environmental, or economic concerns </t>
         </is>
       </c>
     </row>
@@ -19379,37 +19379,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>June 20, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">June 20, 2024 </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Sarah A. Norring, Ph.D. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Sarah A. Norring, Ph.D. </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Petition filed by Sarah A. Norring on her own behalf; no represented entity :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Petition filed by Sarah A. Norring on her own behalf; no represented entity </t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30; 21 C.F.R. § 314.161; 21 C.F.R. § 25.31 :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+          <t xml:space="preserve">21 C.F.R. § 10.30; 21 C.F.R. § 314.161; 21 C.F.R. § 25.31 </t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>FDA’s determination under 21 C.F.R. § 314.161 regarding whether the listed drug Lunelle was withdrawn for safety or effectiveness reasons :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+          <t xml:space="preserve">FDA’s determination under 21 C.F.R. § 314.161 regarding whether the listed drug Lunelle was withdrawn for safety or effectiveness reasons </t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Conclude that Lunelle (estradiol cypionate/medroxyprogesterone acetate injectable) was not withdrawn from sale for safety or effectiveness reasons :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Conclude that Lunelle (estradiol cypionate/medroxyprogesterone acetate injectable) was not withdrawn from sale for safety or effectiveness reasons </t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Historical evidence shows only syringe recall due to potency uncertainty; vials retained full efficacy, no safety concerns cited; subsequent market withdrawal driven by manufacturing/business decisions rather than safety or effectiveness; therefore, FDA should find the withdrawal not safety‑related :contentReference[oaicite:12]{index=12}</t>
+          <t xml:space="preserve">Historical evidence shows only syringe recall due to potency uncertainty; vials retained full efficacy, no safety concerns cited; subsequent market withdrawal driven by manufacturing/business decisions rather than safety or effectiveness; therefore, FDA should find the withdrawal not safety‑related </t>
         </is>
       </c>
     </row>
@@ -19421,37 +19421,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>June 18, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">June 18, 2024 </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Dsquare LLC :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Dsquare LLC </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Petition filed directly by Dsquare LLC; no separate represented entity :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Petition filed directly by Dsquare LLC; no separate represented entity </t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>21 C.F.R. § 10.30; 21 C.F.R. § 201; 21 C.F.R. § 201.64; 21 C.F.R. § 201.57 :contentReference[oaicite:6]{index=6}</t>
+          <t xml:space="preserve">21 C.F.R. § 10.30; 21 C.F.R. § 201; 21 C.F.R. § 201.64; 21 C.F.R. § 201.57 </t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Current FDA labeling policy for sodium‑containing N‑acetylcysteine drugs used in treating acetaminophen intoxication, which lacks required sodium warnings and black‑box alerts :contentReference[oaicite:7]{index=7}:contentReference[oaicite:8]{index=8}</t>
+          <t xml:space="preserve">Current FDA labeling policy for sodium‑containing N‑acetylcysteine drugs used in treating acetaminophen intoxication, which lacks required sodium warnings and black‑box alerts </t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Amend labeling of all sodium‑containing N‑acetylcysteine products to add a high‑sodium content warning for the general population and a Black Box Warning for salt‑sensitive patients or those with cardiovascular/CNS disease :contentReference[oaicite:9]{index=9}</t>
+          <t xml:space="preserve">Amend labeling of all sodium‑containing N‑acetylcysteine products to add a high‑sodium content warning for the general population and a Black Box Warning for salt‑sensitive patients or those with cardiovascular/CNS disease </t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Recommended treatment delivers sodium doses far exceeding FDA limits; high acute sodium loads are linked to serious cardiovascular and neurological events and reported fatalities; existing FDA guidelines and the former RLD CETYLEV include such warnings, but current products do not; adding warnings will protect salt‑sensitive and general populations and align labeling with FDA safety standards :contentReference[oaicite:10]{index=10}</t>
+          <t xml:space="preserve">Recommended treatment delivers sodium doses far exceeding FDA limits; high acute sodium loads are linked to serious cardiovascular and neurological events and reported fatalities; existing FDA guidelines and the former RLD CETYLEV include such warnings, but current products do not; adding warnings will protect salt‑sensitive and general populations and align labeling with FDA safety standards </t>
         </is>
       </c>
     </row>
@@ -19463,37 +19463,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>June 28, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">June 28, 2024 </t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Epic Pharma, LLC :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Epic Pharma, LLC </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Epic Pharma, LLC filed the petition as Regulatory Agent on behalf of Humanwell Pharmaceutical US, Inc. :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Epic Pharma, LLC filed the petition as Regulatory Agent on behalf of Humanwell Pharmaceutical US, Inc. </t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) FD&amp;C Act; 21 C.F.R. § 314.93; 21 C.F.R. § 10.20; 21 C.F.R. § 10.30; 21 C.F.R. § 25.31; Pediatric Research Equity Act (§ 505B) :contentReference[oaicite:6]{index=6}</t>
+          <t xml:space="preserve">Section 505(j)(2)(C) FD&amp;C Act; 21 C.F.R. § 314.93; 21 C.F.R. § 10.20; 21 C.F.R. § 10.30; 21 C.F.R. § 25.31; Pediatric Research Equity Act (§ 505B) </t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>FDA’s determination of suitability for an ANDA differing in dosage form/strength from the RLD APTIOM—specifically Eslicarbazepine Acetate Oral Suspension 50 mg/mL :contentReference[oaicite:7]{index=7}:contentReference[oaicite:8]{index=8}</t>
+          <t xml:space="preserve">FDA’s determination of suitability for an ANDA differing in dosage form/strength from the RLD APTIOM—specifically Eslicarbazepine Acetate Oral Suspension 50 mg/mL </t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Declare Eslicarbazepine Acetate Oral Suspension 50 mg/mL suitable for submission as an ANDA under § 505(j) :contentReference[oaicite:9]{index=9}:contentReference[oaicite:10]{index=10}</t>
+          <t xml:space="preserve">Declare Eslicarbazepine Acetate Oral Suspension 50 mg/mL suitable for submission as an ANDA under § 505(j) </t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Change is limited to converting APTIOM tablets to a ready‑to‑use suspension at an equivalent dosage; labeling, dosing schedule, and safety/efficacy remain unchanged; suspension aids patients who cannot swallow tablets; precedent for approving similar dosage‑form petitions; no new clinical concerns; petitioner seeks PREA waiver and claims categorical environmental exclusion :contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Change is limited to converting APTIOM tablets to a ready‑to‑use suspension at an equivalent dosage; labeling, dosing schedule, and safety/efficacy remain unchanged; suspension aids patients who cannot swallow tablets; precedent for approving similar dosage‑form petitions; no new clinical concerns; petitioner seeks PREA waiver and claims categorical environmental exclusion </t>
         </is>
       </c>
     </row>
@@ -19505,37 +19505,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>July 3, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">July 3, 2024 </t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Lachman Consulting Services, Inc. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Lachman Consulting Services, Inc. </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Lachman Consulting Services, Inc. filed the petition on behalf of an unnamed client :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Lachman Consulting Services, Inc. filed the petition on behalf of an unnamed client </t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) FD&amp;C Act; Section 505B FD&amp;C Act (PREA); 21 C.F.R. § 10.20; 21 C.F.R. § 10.30; 21 C.F.R. § 25.31 :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+          <t xml:space="preserve">Section 505(j)(2)(C) FD&amp;C Act; Section 505B FD&amp;C Act (PREA); 21 C.F.R. § 10.20; 21 C.F.R. § 10.30; 21 C.F.R. § 25.31 </t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>FDA’s determination of suitability for an ANDA for a new 1,250 mg/100 mL (12.5 mg/mL) strength of Levetiracetam in Sodium Chloride Injection differing from RLD strengths :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+          <t xml:space="preserve">FDA’s determination of suitability for an ANDA for a new 1,250 mg/100 mL (12.5 mg/mL) strength of Levetiracetam in Sodium Chloride Injection differing from RLD strengths </t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Declare Levetiracetam in Sodium Chloride Injection 1,250 mg/100 mL (12.5 mg/mL) suitable for submission as an ANDA under Section 505(j) :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Declare Levetiracetam in Sodium Chloride Injection 1,250 mg/100 mL (12.5 mg/mL) suitable for submission as an ANDA under Section 505(j) </t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Proposed strength is bracketed by existing RLD strengths, reduces medical waste, avoids multiple infusions or compounding, maintains same active ingredient, route, indications, and labeling, introduces no new safety or efficacy concerns, PREA deemed inapplicable, and categorical environmental exclusion claimed :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+          <t xml:space="preserve">Proposed strength is bracketed by existing RLD strengths, reduces medical waste, avoids multiple infusions or compounding, maintains same active ingredient, route, indications, and labeling, introduces no new safety or efficacy concerns, PREA deemed inapplicable, and categorical environmental exclusion claimed </t>
         </is>
       </c>
     </row>
@@ -19547,37 +19547,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>July 10, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">July 10, 2024 </t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Felix Pharmaceuticals Pvt. Ltd. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Felix Pharmaceuticals Pvt. Ltd. </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Petition filed directly by Felix Pharmaceuticals Pvt. Ltd.; no represented third party :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Petition filed directly by Felix Pharmaceuticals Pvt. Ltd.; no represented third party </t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Section 512(n)(3) FD&amp;C Act; 21 C.F.R. § 25.30(h); 21 C.F.R. § 25.21 :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+          <t xml:space="preserve">Section 512(n)(3) FD&amp;C Act; 21 C.F.R. § 25.30(h); 21 C.F.R. § 25.21 </t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>FDA’s determination of suitability for an abbreviated new animal drug application (ANADA) for a Maropitant Citrate oral solution differing in dosage form from the pioneer CERENIA tablets :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+          <t xml:space="preserve">FDA’s determination of suitability for an abbreviated new animal drug application (ANADA) for a Maropitant Citrate oral solution differing in dosage form from the pioneer CERENIA tablets </t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Declare that Maropitant Citrate Oral Solution 40 mg/mL is suitable for submission as an ANADA under Section 512(n)(3) :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Declare that Maropitant Citrate Oral Solution 40 mg/mL is suitable for submission as an ANADA under Section 512(n)(3) </t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Only dosage‑form change—from tablet to oral solution—with same active ingredient, route, and dosage; proposed solution will be bioequivalent, uses excipients already approved for dogs, allows precise weight‑based dosing via calibrated syringes, improves ease of administration, and poses no new safety or efficacy concerns; categorical environmental exclusion claimed :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+          <t xml:space="preserve">Only dosage‑form change—from tablet to oral solution—with same active ingredient, route, and dosage; proposed solution will be bioequivalent, uses excipients already approved for dogs, allows precise weight‑based dosing via calibrated syringes, improves ease of administration, and poses no new safety or efficacy concerns; categorical environmental exclusion claimed </t>
         </is>
       </c>
     </row>
@@ -19589,37 +19589,37 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>July 9, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">July 9, 2024 </t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Newcastle Bioscience LLC :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Newcastle Bioscience LLC </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Petition filed directly by Newcastle Bioscience LLC; no separate represented entity :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Petition filed directly by Newcastle Bioscience LLC; no separate represented entity </t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Section 505(j)(2)(C) FDC Act; 21 C.F.R. § 10.30; 21 C.F.R. § 25.31; Pediatric Research Equity Act (§ 505B) :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+          <t xml:space="preserve">Section 505(j)(2)(C) FDC Act; 21 C.F.R. § 10.30; 21 C.F.R. § 25.31; Pediatric Research Equity Act (§ 505B) </t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>FDA’s determination of suitability for an ANDA for Lacosamide Orally Disintegrating Tablets that differ in dosage form and strengths from the RLD Vimpat tablets :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+          <t xml:space="preserve">FDA’s determination of suitability for an ANDA for Lacosamide Orally Disintegrating Tablets that differ in dosage form and strengths from the RLD Vimpat tablets </t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Declare Lacosamide Orally Disintegrating Tablets 25 mg, 37.5 mg, 75 mg, 112.5 mg, 125 mg, and 175 mg suitable for submission as an ANDA under Section 505(j) :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Declare Lacosamide Orally Disintegrating Tablets 25 mg, 37.5 mg, 75 mg, 112.5 mg, 125 mg, and 175 mg suitable for submission as an ANDA under Section 505(j) </t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>New strengths and ODT form provide flexible dosing (especially for renal/hepatic impairment and pediatrics), facilitate titration to lowest effective dose, remove need for oral solution, offer ease of administration, introduce no new safety or efficacy concerns, seek PREA waiver, and claim categorical environmental exclusion :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+          <t xml:space="preserve">New strengths and ODT form provide flexible dosing (especially for renal/hepatic impairment and pediatrics), facilitate titration to lowest effective dose, remove need for oral solution, offer ease of administration, introduce no new safety or efficacy concerns, seek PREA waiver, and claim categorical environmental exclusion </t>
         </is>
       </c>
     </row>
@@ -19673,37 +19673,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>July 23, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">July 23, 2024 </t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Jingwei Pharmaceutical Company, Ltd. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Jingwei Pharmaceutical Company, Ltd. </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Petition submitted directly by Jingwei Pharmaceutical Company, Ltd.; no separate represented entity :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Petition submitted directly by Jingwei Pharmaceutical Company, Ltd.; no separate represented entity </t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>21 U.S.C. § 355; 21 C.F.R. § 10.25; 21 C.F.R. § 10.30; 21 C.F.R. § 25.30; 21 C.F.R. § 25.31 :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+          <t xml:space="preserve">21 U.S.C. § 355; 21 C.F.R. § 10.25; 21 C.F.R. § 10.30; 21 C.F.R. § 25.30; 21 C.F.R. § 25.31 </t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>FDA’s oversight and approval standards for generic drug manufacturers that use a biocatalytic process to produce sitagliptin active pharmaceutical ingredient (API) :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+          <t xml:space="preserve">FDA’s oversight and approval standards for generic drug manufacturers that use a biocatalytic process to produce sitagliptin active pharmaceutical ingredient (API) </t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Require such manufacturers to submit (1) a complete certificate of analysis for the biocatalyst, (2) detailed preparation process for the biocatalyst, (3) analytical protocols for residual enzymes and biological impurities, and (4) purging strategies documenting the fate of the biocatalyst :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Require such manufacturers to submit (1) a complete certificate of analysis for the biocatalyst, (2) detailed preparation process for the biocatalyst, (3) analytical protocols for residual enzymes and biological impurities, and (4) purging strategies documenting the fate of the biocatalyst </t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Biocatalytic processes introduce complex enzyme‑related impurities that are hard to detect and purge; inconsistent impurity profiles threaten patient safety, especially for the large diabetic population relying on sitagliptin; many generics lack necessary technology, so stricter information requirements are needed to protect public health :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+          <t xml:space="preserve">Biocatalytic processes introduce complex enzyme‑related impurities that are hard to detect and purge; inconsistent impurity profiles threaten patient safety, especially for the large diabetic population relying on sitagliptin; many generics lack necessary technology, so stricter information requirements are needed to protect public health </t>
         </is>
       </c>
     </row>
@@ -19715,37 +19715,37 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>July 24, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">July 24, 2024 </t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Qilu Pharmaceutical (Hainan) Co., Ltd. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Qilu Pharmaceutical (Hainan) Co., Ltd. </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Petition filed directly by Qilu Pharmaceutical (Hainan) Co., Ltd.; no separate represented entity :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Petition filed directly by Qilu Pharmaceutical (Hainan) Co., Ltd.; no separate represented entity </t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sections 505(j) and 505(w) FDC Act; 21 C.F.R. § 10.25(a); 21 C.F.R. § 10.30; 21 C.F.R. § 314.122; 21 C.F.R. § 314.161; 21 C.F.R. § 25.31 :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+          <t xml:space="preserve">Sections 505(j) and 505(w) FDC Act; 21 C.F.R. § 10.25(a); 21 C.F.R. § 10.30; 21 C.F.R. § 314.122; 21 C.F.R. § 314.161; 21 C.F.R. § 25.31 </t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>FDA’s listing of JESDUVROQ (daprodustat) tablets 1 mg, 2 mg, 4 mg, 6 mg, 8 mg in the Orange Book’s Discontinued Drug Product List and the related withdrawal determination :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+          <t xml:space="preserve">FDA’s listing of JESDUVROQ (daprodustat) tablets 1 mg, 2 mg, 4 mg, 6 mg, 8 mg in the Orange Book’s Discontinued Drug Product List and the related withdrawal determination </t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Determine that JESDUVROQ (daprodustat) tablets 1 mg–8 mg were not withdrawn for reasons of safety or effectiveness :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Determine that JESDUVROQ (daprodustat) tablets 1 mg–8 mg were not withdrawn for reasons of safety or effectiveness </t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Petitioner is unaware of any safety or efficacy issues; believes discontinuation was solely for commercial reasons; a ‘not‑withdrawn‑for‑safety/efficacy’ finding will allow ANDA applicants to cite the drug as the RLD :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+          <t xml:space="preserve">Petitioner is unaware of any safety or efficacy issues; believes discontinuation was solely for commercial reasons; a ‘not‑withdrawn‑for‑safety/efficacy’ finding will allow ANDA applicants to cite the drug as the RLD </t>
         </is>
       </c>
     </row>
@@ -19757,37 +19757,37 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>June 28, 2024 :contentReference[oaicite:0]{index=0}:contentReference[oaicite:1]{index=1}</t>
+          <t xml:space="preserve">June 28, 2024 </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Foundation Medicine, Inc. :contentReference[oaicite:2]{index=2}:contentReference[oaicite:3]{index=3}</t>
+          <t xml:space="preserve">Foundation Medicine, Inc. </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Petition filed directly by Foundation Medicine, Inc.; no separate represented entity :contentReference[oaicite:4]{index=4}:contentReference[oaicite:5]{index=5}</t>
+          <t xml:space="preserve">Petition filed directly by Foundation Medicine, Inc.; no separate represented entity </t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Section 513(f)(3) FD&amp;C Act; Section 513(f)(1) FD&amp;C Act; 21 C.F.R. § 860.123; 21 C.F.R. § 860.134 :contentReference[oaicite:6]{index=6}:contentReference[oaicite:7]{index=7}</t>
+          <t xml:space="preserve">Section 513(f)(3) FD&amp;C Act; Section 513(f)(1) FD&amp;C Act; 21 C.F.R. § 860.123; 21 C.F.R. § 860.134 </t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>FDA’s current classification of next‑generation sequencing oncology panel devices (product code PQP) as Class III medical devices and its announced intent to reclassify IVDs :contentReference[oaicite:8]{index=8}:contentReference[oaicite:9]{index=9}</t>
+          <t xml:space="preserve">FDA’s current classification of next‑generation sequencing oncology panel devices (product code PQP) as Class III medical devices and its announced intent to reclassify IVDs </t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Reclassify all NGS oncology panel devices with one or more companion diagnostic indications (product code PQP) from Class III to Class II (high‑risk with special controls) :contentReference[oaicite:10]{index=10}:contentReference[oaicite:11]{index=11}</t>
+          <t xml:space="preserve">Reclassify all NGS oncology panel devices with one or more companion diagnostic indications (product code PQP) from Class III to Class II (high‑risk with special controls) </t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Extensive regulatory experience and published data show risks can be mitigated through rigorous special controls; reclassification would preserve safety and effectiveness while improving patient access, ensuring high‑quality genomic testing, and aligning regulation with FDA’s 2024 reclassification initiative for high‑risk IVDs :contentReference[oaicite:12]{index=12}:contentReference[oaicite:13]{index=13}</t>
+          <t xml:space="preserve">Extensive regulatory experience and published data show risks can be mitigated through rigorous special controls; reclassification would preserve safety and effectiveness while improving patient access, ensuring high‑quality genomic testing, and aligning regulation with FDA’s 2024 reclassification initiative for high‑risk IVDs </t>
         </is>
       </c>
     </row>
